--- a/patch/SLPS/scripts/temp_Prep.xlsx
+++ b/patch/SLPS/scripts/temp_Prep.xlsx
@@ -7118,13 +7118,13 @@
         <is>
           <t xml:space="preserve">//Text $138A4
 #WRITE(ptr,$56FC)
-Monsters in Town?![END]
+Monsters in Town!?[END]
 </t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monsters in Town?![END]
+          <t xml:space="preserve">Monsters in Town!?[END]
 </t>
         </is>
       </c>
@@ -10278,13 +10278,13 @@
         <is>
           <t xml:space="preserve">//Text $13FC3
 #WRITE(ptr,$5838)
-Civil War Outbreak?![END]
+Civil War Outbreak!?[END]
 </t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Civil War Outbreak?![END]
+          <t xml:space="preserve">Civil War Outbreak!?[END]
 </t>
         </is>
       </c>
@@ -20198,13 +20198,13 @@
         <is>
           <t xml:space="preserve">//Text $15728
 #WRITE(ptr,$5C18)
-I'm a Little Rusty[END]
+I'm a Bit Nervous[END]
 </t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t xml:space="preserve">I'm a Little Rusty[END]
+          <t xml:space="preserve">I'm a Bit Nervous[END]
 </t>
         </is>
       </c>
@@ -20215,7 +20215,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>1573B</t>
+          <t>1573A</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -20224,7 +20224,7 @@
         </is>
       </c>
       <c r="G495" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H495" t="n">
         <v>87848</v>
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1573B
+          <t xml:space="preserve">//Text $1573A
 #WRITE(ptr,$5C1C)
 Burning Glare[END]
 </t>
@@ -20250,12 +20250,12 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>1573B</t>
+          <t>1573A</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>15749</t>
+          <t>15748</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
@@ -20267,7 +20267,7 @@
         <v>14</v>
       </c>
       <c r="H496" t="n">
-        <v>87867</v>
+        <v>87866</v>
       </c>
     </row>
     <row r="497">
@@ -20276,7 +20276,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15749
+          <t xml:space="preserve">//Text $15748
 #WRITE(ptr,$5C20)
 A More Intense Glare[END]
 </t>
@@ -20290,12 +20290,12 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>15749</t>
+          <t>15748</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>1575E</t>
+          <t>1575D</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -20307,7 +20307,7 @@
         <v>21</v>
       </c>
       <c r="H497" t="n">
-        <v>87881</v>
+        <v>87880</v>
       </c>
     </row>
     <row r="498">
@@ -20316,26 +20316,26 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1575E
+          <t xml:space="preserve">//Text $1575D
 #WRITE(ptr,$5C24)
-You're the Future Champion?![END]
+You're the Future Champion!?[END]
 </t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t xml:space="preserve">You're the Future Champion?![END]
+          <t xml:space="preserve">You're the Future Champion!?[END]
 </t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>1575E</t>
+          <t>1575D</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>1577B</t>
+          <t>1577A</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -20347,7 +20347,7 @@
         <v>29</v>
       </c>
       <c r="H498" t="n">
-        <v>87902</v>
+        <v>87901</v>
       </c>
     </row>
     <row r="499">
@@ -20356,7 +20356,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1577B
+          <t xml:space="preserve">//Text $1577A
 #WRITE(ptr,$5C28)
 War of the Women?[END]
 </t>
@@ -20370,12 +20370,12 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>1577B</t>
+          <t>1577A</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>1578D</t>
+          <t>1578C</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -20387,7 +20387,7 @@
         <v>18</v>
       </c>
       <c r="H499" t="n">
-        <v>87931</v>
+        <v>87930</v>
       </c>
     </row>
     <row r="500">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1578D
+          <t xml:space="preserve">//Text $1578C
 #WRITE(ptr,$5C2C)
 The Key to Strength[END]
 </t>
@@ -20410,12 +20410,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>1578D</t>
+          <t>1578C</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>157A1</t>
+          <t>157A0</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -20427,7 +20427,7 @@
         <v>20</v>
       </c>
       <c r="H500" t="n">
-        <v>87949</v>
+        <v>87948</v>
       </c>
     </row>
     <row r="501">
@@ -20436,7 +20436,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157A1
+          <t xml:space="preserve">//Text $157A0
 #WRITE(ptr,$5C30)
 Legendary Champion[END]
 </t>
@@ -20450,12 +20450,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>157A1</t>
+          <t>157A0</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>157B4</t>
+          <t>157B3</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -20467,7 +20467,7 @@
         <v>19</v>
       </c>
       <c r="H501" t="n">
-        <v>87969</v>
+        <v>87968</v>
       </c>
     </row>
     <row r="502">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157B4
+          <t xml:space="preserve">//Text $157B3
 #WRITE(ptr,$5C34)
 Female Friendship?[END]
 </t>
@@ -20490,12 +20490,12 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>157B4</t>
+          <t>157B3</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>157C7</t>
+          <t>157C6</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -20507,7 +20507,7 @@
         <v>19</v>
       </c>
       <c r="H502" t="n">
-        <v>87988</v>
+        <v>87987</v>
       </c>
     </row>
     <row r="503">
@@ -20516,7 +20516,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157C7
+          <t xml:space="preserve">//Text $157C6
 #WRITE(ptr,$5C38)
 Ghosts of the Past[END]
 </t>
@@ -20530,12 +20530,12 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>157C7</t>
+          <t>157C6</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>157DA</t>
+          <t>157D9</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -20547,7 +20547,7 @@
         <v>19</v>
       </c>
       <c r="H503" t="n">
-        <v>88007</v>
+        <v>88006</v>
       </c>
     </row>
     <row r="504">
@@ -20556,7 +20556,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157DA
+          <t xml:space="preserve">//Text $157D9
 #WRITE(ptr,$5C3C)
 Enthralling Brilliance[END]
 </t>
@@ -20570,12 +20570,12 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>157DA</t>
+          <t>157D9</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>157F1</t>
+          <t>157F0</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -20587,7 +20587,7 @@
         <v>23</v>
       </c>
       <c r="H504" t="n">
-        <v>88026</v>
+        <v>88025</v>
       </c>
     </row>
     <row r="505">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157F1
+          <t xml:space="preserve">//Text $157F0
 #WRITE(ptr,$5C40)
 The Life of a Lens Hunter[END]
 </t>
@@ -20610,12 +20610,12 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>157F1</t>
+          <t>157F0</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>1580B</t>
+          <t>1580A</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -20627,7 +20627,7 @@
         <v>26</v>
       </c>
       <c r="H505" t="n">
-        <v>88049</v>
+        <v>88048</v>
       </c>
     </row>
     <row r="506">
@@ -20636,7 +20636,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1580B
+          <t xml:space="preserve">//Text $1580A
 #WRITE(ptr,$5C44)
 I Don't Want to Do This[END]
 </t>
@@ -20650,12 +20650,12 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>1580B</t>
+          <t>1580A</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>15823</t>
+          <t>15822</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
@@ -20667,7 +20667,7 @@
         <v>24</v>
       </c>
       <c r="H506" t="n">
-        <v>88075</v>
+        <v>88074</v>
       </c>
     </row>
     <row r="507">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15823
+          <t xml:space="preserve">//Text $15822
 #WRITE(ptr,$5C48)
 I'm Stuffed![END]
 </t>
@@ -20690,12 +20690,12 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>15823</t>
+          <t>15822</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>15830</t>
+          <t>1582F</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -20707,7 +20707,7 @@
         <v>13</v>
       </c>
       <c r="H507" t="n">
-        <v>88099</v>
+        <v>88098</v>
       </c>
     </row>
     <row r="508">
@@ -20716,7 +20716,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15830
+          <t xml:space="preserve">//Text $1582F
 #WRITE(ptr,$5C4C)
 You Need to Recover[END]
 </t>
@@ -20730,12 +20730,12 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>15830</t>
+          <t>1582F</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>15844</t>
+          <t>15843</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -20747,7 +20747,7 @@
         <v>20</v>
       </c>
       <c r="H508" t="n">
-        <v>88112</v>
+        <v>88111</v>
       </c>
     </row>
     <row r="509">
@@ -20756,7 +20756,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15844
+          <t xml:space="preserve">//Text $15843
 #WRITE(ptr,$5C50)
 Don't Get Confused![END]
 </t>
@@ -20770,12 +20770,12 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>15844</t>
+          <t>15843</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>15858</t>
+          <t>15857</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -20787,7 +20787,7 @@
         <v>20</v>
       </c>
       <c r="H509" t="n">
-        <v>88132</v>
+        <v>88131</v>
       </c>
     </row>
     <row r="510">
@@ -20796,7 +20796,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15858
+          <t xml:space="preserve">//Text $15857
 #WRITE(ptr,$5C54)
 Common Sense[END]
 </t>
@@ -20810,12 +20810,12 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>15858</t>
+          <t>15857</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>15865</t>
+          <t>15864</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -20827,7 +20827,7 @@
         <v>13</v>
       </c>
       <c r="H510" t="n">
-        <v>88152</v>
+        <v>88151</v>
       </c>
     </row>
     <row r="511">
@@ -20836,7 +20836,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15865
+          <t xml:space="preserve">//Text $15864
 #WRITE(ptr,$5C58)
 A Token of Apology[END]
 </t>
@@ -20850,12 +20850,12 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>15865</t>
+          <t>15864</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>15878</t>
+          <t>15877</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -20867,7 +20867,7 @@
         <v>19</v>
       </c>
       <c r="H511" t="n">
-        <v>88165</v>
+        <v>88164</v>
       </c>
     </row>
     <row r="512">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15878
+          <t xml:space="preserve">//Text $15877
 #WRITE(ptr,$5C5C)
 Potential Substitute?[END]
 </t>
@@ -20890,12 +20890,12 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>15878</t>
+          <t>15877</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>1588E</t>
+          <t>1588D</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -20907,7 +20907,7 @@
         <v>22</v>
       </c>
       <c r="H512" t="n">
-        <v>88184</v>
+        <v>88183</v>
       </c>
     </row>
     <row r="513">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1588E
+          <t xml:space="preserve">//Text $1588D
 #WRITE(ptr,$5C60)
 Personal Responsibility[END]
 </t>
@@ -20930,12 +20930,12 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>1588E</t>
+          <t>1588D</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>158A6</t>
+          <t>158A5</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
@@ -20947,7 +20947,7 @@
         <v>24</v>
       </c>
       <c r="H513" t="n">
-        <v>88206</v>
+        <v>88205</v>
       </c>
     </row>
     <row r="514">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $158A6
+          <t xml:space="preserve">//Text $158A5
 #WRITE(ptr,$5C64)
 Positive and Negative Words[END]
 </t>
@@ -20970,12 +20970,12 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>158A6</t>
+          <t>158A5</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>158C2</t>
+          <t>158C1</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
@@ -20987,7 +20987,7 @@
         <v>28</v>
       </c>
       <c r="H514" t="n">
-        <v>88230</v>
+        <v>88229</v>
       </c>
     </row>
     <row r="515">
@@ -20996,7 +20996,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $158C2
+          <t xml:space="preserve">//Text $158C1
 #WRITE(ptr,$5C68)
 Are We Forgetting Something?[END]
 </t>
@@ -21010,12 +21010,12 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>158C2</t>
+          <t>158C1</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>158DF</t>
+          <t>158DE</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
@@ -21027,7 +21027,7 @@
         <v>29</v>
       </c>
       <c r="H515" t="n">
-        <v>88258</v>
+        <v>88257</v>
       </c>
     </row>
     <row r="516">
@@ -21036,7 +21036,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $158DF
+          <t xml:space="preserve">//Text $158DE
 #WRITE(ptr,$5C6C)
 I Know How You're Feeling[END]
 </t>
@@ -21050,12 +21050,12 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>158DF</t>
+          <t>158DE</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>158F9</t>
+          <t>158F8</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
@@ -21067,7 +21067,7 @@
         <v>26</v>
       </c>
       <c r="H516" t="n">
-        <v>88287</v>
+        <v>88286</v>
       </c>
     </row>
     <row r="517">
@@ -21076,7 +21076,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $158F9
+          <t xml:space="preserve">//Text $158F8
 #WRITE(ptr,$5C70)
 Where Are My Brother's Thoughts?[END]
 </t>
@@ -21090,12 +21090,12 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>158F9</t>
+          <t>158F8</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>1591A</t>
+          <t>15919</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -21107,7 +21107,7 @@
         <v>33</v>
       </c>
       <c r="H517" t="n">
-        <v>88313</v>
+        <v>88312</v>
       </c>
     </row>
     <row r="518">
@@ -21116,7 +21116,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1591A
+          <t xml:space="preserve">//Text $15919
 #WRITE(ptr,$5C74)
 Thank You, Everyone![END]
 </t>
@@ -21130,12 +21130,12 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>1591A</t>
+          <t>15919</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>1592F</t>
+          <t>1592E</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
@@ -21147,7 +21147,7 @@
         <v>21</v>
       </c>
       <c r="H518" t="n">
-        <v>88346</v>
+        <v>88345</v>
       </c>
     </row>
     <row r="519">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1592F
+          <t xml:space="preserve">//Text $1592E
 #WRITE(ptr,$5C78)
 [Mary]'s Dream[END]
 </t>
@@ -21170,12 +21170,12 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>1592F</t>
+          <t>1592E</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>1593D</t>
+          <t>1593C</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -21187,7 +21187,7 @@
         <v>14</v>
       </c>
       <c r="H519" t="n">
-        <v>88367</v>
+        <v>88366</v>
       </c>
     </row>
     <row r="520">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1593D
+          <t xml:space="preserve">//Text $1593C
 #WRITE(ptr,$5C7C)
 Why Won't He Tell Me His Name?[END]
 </t>
@@ -21210,12 +21210,12 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>1593D</t>
+          <t>1593C</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>1595C</t>
+          <t>1595B</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -21227,7 +21227,7 @@
         <v>31</v>
       </c>
       <c r="H520" t="n">
-        <v>88381</v>
+        <v>88380</v>
       </c>
     </row>
     <row r="521">
@@ -21236,7 +21236,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1595C
+          <t xml:space="preserve">//Text $1595B
 #WRITE(ptr,$5C80)
 I Love Sleeping[END]
 </t>
@@ -21250,12 +21250,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>1595C</t>
+          <t>1595B</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>1596C</t>
+          <t>1596B</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
@@ -21267,7 +21267,7 @@
         <v>16</v>
       </c>
       <c r="H521" t="n">
-        <v>88412</v>
+        <v>88411</v>
       </c>
     </row>
     <row r="522">
@@ -21276,7 +21276,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1596C
+          <t xml:space="preserve">//Text $1596B
 #WRITE(ptr,$5C84)
 Looking for Gald[END]
 </t>
@@ -21290,12 +21290,12 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>1596C</t>
+          <t>1596B</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>1597D</t>
+          <t>1597C</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -21307,7 +21307,7 @@
         <v>17</v>
       </c>
       <c r="H522" t="n">
-        <v>88428</v>
+        <v>88427</v>
       </c>
     </row>
     <row r="523">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1597D
+          <t xml:space="preserve">//Text $1597C
 #WRITE(ptr,$5C88)
 I've Got Your Back[END]
 </t>
@@ -21330,12 +21330,12 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>1597D</t>
+          <t>1597C</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>15990</t>
+          <t>1598F</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -21347,7 +21347,7 @@
         <v>19</v>
       </c>
       <c r="H523" t="n">
-        <v>88445</v>
+        <v>88444</v>
       </c>
     </row>
     <row r="524">
@@ -21356,7 +21356,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15990
+          <t xml:space="preserve">//Text $1598F
 #WRITE(ptr,$5C8C)
 Intuition on the Field?[END]
 </t>
@@ -21370,12 +21370,12 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>15990</t>
+          <t>1598F</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>159A8</t>
+          <t>159A7</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
@@ -21387,7 +21387,7 @@
         <v>24</v>
       </c>
       <c r="H524" t="n">
-        <v>88464</v>
+        <v>88463</v>
       </c>
     </row>
     <row r="525">
@@ -21396,7 +21396,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $159A8
+          <t xml:space="preserve">//Text $159A7
 #WRITE(ptr,$5C90)
 Suprising Suited for Command?[END]
 </t>
@@ -21410,12 +21410,12 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>159A8</t>
+          <t>159A7</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>159C6</t>
+          <t>159C5</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
@@ -21427,7 +21427,7 @@
         <v>30</v>
       </c>
       <c r="H525" t="n">
-        <v>88488</v>
+        <v>88487</v>
       </c>
     </row>
     <row r="526">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $159C6
+          <t xml:space="preserve">//Text $159C5
 #WRITE(ptr,$5C94)
 I'm Enjoying This[END]
 </t>
@@ -21450,12 +21450,12 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>159C6</t>
+          <t>159C5</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>159D8</t>
+          <t>159D7</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -21467,7 +21467,7 @@
         <v>18</v>
       </c>
       <c r="H526" t="n">
-        <v>88518</v>
+        <v>88517</v>
       </c>
     </row>
     <row r="527">
@@ -21476,7 +21476,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $159D8
+          <t xml:space="preserve">//Text $159D7
 #WRITE(ptr,$5C98)
 Growing Seeds is Fun[END]
 </t>
@@ -21490,12 +21490,12 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>159D8</t>
+          <t>159D7</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>159ED</t>
+          <t>159EC</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
@@ -21507,7 +21507,7 @@
         <v>21</v>
       </c>
       <c r="H527" t="n">
-        <v>88536</v>
+        <v>88535</v>
       </c>
     </row>
     <row r="528">
@@ -21516,7 +21516,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $159ED
+          <t xml:space="preserve">//Text $159EC
 #WRITE(ptr,$5C9C)
 Merits and Demerits[END]
 </t>
@@ -21530,12 +21530,12 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>159ED</t>
+          <t>159EC</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>15A01</t>
+          <t>15A00</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -21547,7 +21547,7 @@
         <v>20</v>
       </c>
       <c r="H528" t="n">
-        <v>88557</v>
+        <v>88556</v>
       </c>
     </row>
     <row r="529">
@@ -21556,7 +21556,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A01
+          <t xml:space="preserve">//Text $15A00
 #WRITE(ptr,$5CA0)
 Tireless Effort is the Secret to Victory[END]
 </t>
@@ -21570,12 +21570,12 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>15A01</t>
+          <t>15A00</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>15A2A</t>
+          <t>15A29</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>41</v>
       </c>
       <c r="H529" t="n">
-        <v>88577</v>
+        <v>88576</v>
       </c>
     </row>
     <row r="530">
@@ -21596,7 +21596,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A2A
+          <t xml:space="preserve">//Text $15A29
 #WRITE(ptr,$5CA4)
 The Fun After Battle[END]
 </t>
@@ -21610,12 +21610,12 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>15A2A</t>
+          <t>15A29</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>15A3F</t>
+          <t>15A3E</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -21627,7 +21627,7 @@
         <v>21</v>
       </c>
       <c r="H530" t="n">
-        <v>88618</v>
+        <v>88617</v>
       </c>
     </row>
     <row r="531">
@@ -21636,7 +21636,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A3F
+          <t xml:space="preserve">//Text $15A3E
 #WRITE(ptr,$5CA8)
 Under the Eyes of Atamoni[END]
 </t>
@@ -21650,12 +21650,12 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>15A3F</t>
+          <t>15A3E</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>15A59</t>
+          <t>15A58</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
@@ -21667,7 +21667,7 @@
         <v>26</v>
       </c>
       <c r="H531" t="n">
-        <v>88639</v>
+        <v>88638</v>
       </c>
     </row>
     <row r="532">
@@ -21676,7 +21676,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A59
+          <t xml:space="preserve">//Text $15A58
 #WRITE(ptr,$5CAC)
 Above the Aethersphere[END]
 </t>
@@ -21690,12 +21690,12 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>15A59</t>
+          <t>15A58</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>15A70</t>
+          <t>15A6F</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
@@ -21707,7 +21707,7 @@
         <v>23</v>
       </c>
       <c r="H532" t="n">
-        <v>88665</v>
+        <v>88664</v>
       </c>
     </row>
     <row r="533">
@@ -21716,7 +21716,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A70
+          <t xml:space="preserve">//Text $15A6F
 #WRITE(ptr,$5CB0)
 Let's Go after Him[END]
 </t>
@@ -21730,12 +21730,12 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>15A70</t>
+          <t>15A6F</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>15A83</t>
+          <t>15A82</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
@@ -21747,7 +21747,7 @@
         <v>19</v>
       </c>
       <c r="H533" t="n">
-        <v>88688</v>
+        <v>88687</v>
       </c>
     </row>
     <row r="534">
@@ -21756,7 +21756,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A83
+          <t xml:space="preserve">//Text $15A82
 #WRITE(ptr,$5CB4)
 We Need to Stop [Hugo][END]
 </t>
@@ -21770,12 +21770,12 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>15A83</t>
+          <t>15A82</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>15A99</t>
+          <t>15A98</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -21787,7 +21787,7 @@
         <v>22</v>
       </c>
       <c r="H534" t="n">
-        <v>88707</v>
+        <v>88706</v>
       </c>
     </row>
     <row r="535">
@@ -21796,7 +21796,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A99
+          <t xml:space="preserve">//Text $15A98
 #WRITE(ptr,$5CB8)
 We Won't Let You Harm the Surface[END]
 </t>
@@ -21810,12 +21810,12 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>15A99</t>
+          <t>15A98</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>15ABB</t>
+          <t>15ABA</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
@@ -21827,7 +21827,7 @@
         <v>34</v>
       </c>
       <c r="H535" t="n">
-        <v>88729</v>
+        <v>88728</v>
       </c>
     </row>
     <row r="536">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15ABB
+          <t xml:space="preserve">//Text $15ABA
 #WRITE(ptr,$5CBC)
 Get Back Here, Now[END]
 </t>
@@ -21850,12 +21850,12 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>15ABB</t>
+          <t>15ABA</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>15ACE</t>
+          <t>15ACD</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
@@ -21867,7 +21867,7 @@
         <v>19</v>
       </c>
       <c r="H536" t="n">
-        <v>88763</v>
+        <v>88762</v>
       </c>
     </row>
     <row r="537">
@@ -21876,7 +21876,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15ACE
+          <t xml:space="preserve">//Text $15ACD
 #WRITE(ptr,$5CC0)
 Not This Way[END]
 </t>
@@ -21890,12 +21890,12 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>15ACE</t>
+          <t>15ACD</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>15ADB</t>
+          <t>15ADA</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
@@ -21907,7 +21907,7 @@
         <v>13</v>
       </c>
       <c r="H537" t="n">
-        <v>88782</v>
+        <v>88781</v>
       </c>
     </row>
     <row r="538">
@@ -21916,7 +21916,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15ADB
+          <t xml:space="preserve">//Text $15ADA
 #WRITE(ptr,$5CC4)
 Hurry[END]
 </t>
@@ -21930,12 +21930,12 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>15ADB</t>
+          <t>15ADA</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>15AE1</t>
+          <t>15AE0</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -21947,7 +21947,7 @@
         <v>6</v>
       </c>
       <c r="H538" t="n">
-        <v>88795</v>
+        <v>88794</v>
       </c>
     </row>
     <row r="539">
@@ -21956,7 +21956,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15AE1
+          <t xml:space="preserve">//Text $15AE0
 #WRITE(ptr,$5CC8)
 We Should Hurry[END]
 </t>
@@ -21970,12 +21970,12 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>15AE1</t>
+          <t>15AE0</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>15AF1</t>
+          <t>15AF0</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -21987,7 +21987,7 @@
         <v>16</v>
       </c>
       <c r="H539" t="n">
-        <v>88801</v>
+        <v>88800</v>
       </c>
     </row>
     <row r="540">
@@ -21996,7 +21996,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15AF1
+          <t xml:space="preserve">//Text $15AF0
 #WRITE(ptr,$5CCC)
 Don't Dawdle[END]
 </t>
@@ -22010,12 +22010,12 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>15AF1</t>
+          <t>15AF0</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>15AFE</t>
+          <t>15AFD</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -22027,7 +22027,7 @@
         <v>13</v>
       </c>
       <c r="H540" t="n">
-        <v>88817</v>
+        <v>88816</v>
       </c>
     </row>
     <row r="541">
@@ -22036,7 +22036,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15AFE
+          <t xml:space="preserve">//Text $15AFD
 #WRITE(ptr,$5CD0)
 Not That Way[END]
 </t>
@@ -22050,12 +22050,12 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>15AFE</t>
+          <t>15AFD</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>15B0B</t>
+          <t>15B0A</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -22067,7 +22067,7 @@
         <v>13</v>
       </c>
       <c r="H541" t="n">
-        <v>88830</v>
+        <v>88829</v>
       </c>
     </row>
     <row r="542">
@@ -22076,7 +22076,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B0B
+          <t xml:space="preserve">//Text $15B0A
 #WRITE(ptr,$5CD4)
 I Have Other Things to Do[END]
 </t>
@@ -22090,12 +22090,12 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>15B0B</t>
+          <t>15B0A</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>15B25</t>
+          <t>15B24</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -22107,7 +22107,7 @@
         <v>26</v>
       </c>
       <c r="H542" t="n">
-        <v>88843</v>
+        <v>88842</v>
       </c>
     </row>
     <row r="543">
@@ -22116,7 +22116,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B25
+          <t xml:space="preserve">//Text $15B24
 #WRITE(ptr,$5CD8)
 What We Need to Do[END]
 </t>
@@ -22130,12 +22130,12 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>15B25</t>
+          <t>15B24</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>15B38</t>
+          <t>15B37</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
@@ -22147,7 +22147,7 @@
         <v>19</v>
       </c>
       <c r="H543" t="n">
-        <v>88869</v>
+        <v>88868</v>
       </c>
     </row>
     <row r="544">
@@ -22156,7 +22156,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B38
+          <t xml:space="preserve">//Text $15B37
 #WRITE(ptr,$5CDC)
 Let's See What's Happening[END]
 </t>
@@ -22170,12 +22170,12 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>15B38</t>
+          <t>15B37</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>15B53</t>
+          <t>15B52</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
@@ -22187,7 +22187,7 @@
         <v>27</v>
       </c>
       <c r="H544" t="n">
-        <v>88888</v>
+        <v>88887</v>
       </c>
     </row>
     <row r="545">
@@ -22196,7 +22196,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B53
+          <t xml:space="preserve">//Text $15B52
 #WRITE(ptr,$5CE0)
 Let's Talk First[END]
 </t>
@@ -22210,12 +22210,12 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>15B53</t>
+          <t>15B52</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>15B64</t>
+          <t>15B63</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
@@ -22227,7 +22227,7 @@
         <v>17</v>
       </c>
       <c r="H545" t="n">
-        <v>88915</v>
+        <v>88914</v>
       </c>
     </row>
     <row r="546">
@@ -22236,7 +22236,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B64
+          <t xml:space="preserve">//Text $15B63
 #WRITE(ptr,$5CE4)
 Anyways, Let's Hear Him Out[END]
 </t>
@@ -22250,12 +22250,12 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>15B64</t>
+          <t>15B63</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>15B80</t>
+          <t>15B7F</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
@@ -22267,7 +22267,7 @@
         <v>28</v>
       </c>
       <c r="H546" t="n">
-        <v>88932</v>
+        <v>88931</v>
       </c>
     </row>
     <row r="547">
@@ -22276,7 +22276,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B80
+          <t xml:space="preserve">//Text $15B7F
 #WRITE(ptr,$5CE8)
 Other Things to Do[END]
 </t>
@@ -22290,12 +22290,12 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>15B80</t>
+          <t>15B7F</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>15B93</t>
+          <t>15B92</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
@@ -22307,7 +22307,7 @@
         <v>19</v>
       </c>
       <c r="H547" t="n">
-        <v>88960</v>
+        <v>88959</v>
       </c>
     </row>
     <row r="548">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B93
+          <t xml:space="preserve">//Text $15B92
 #WRITE(ptr,$5CEC)
 I Have Other Things to Do Right Now[END]
 </t>
@@ -22330,12 +22330,12 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>15B93</t>
+          <t>15B92</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>15BB7</t>
+          <t>15BB6</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -22347,7 +22347,7 @@
         <v>36</v>
       </c>
       <c r="H548" t="n">
-        <v>88979</v>
+        <v>88978</v>
       </c>
     </row>
     <row r="549">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15BB7
+          <t xml:space="preserve">//Text $15BB6
 #WRITE(ptr,$5CF0)
 Let's Talk to the People in Town[END]
 </t>
@@ -22370,12 +22370,12 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>15BB7</t>
+          <t>15BB6</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>15BD8</t>
+          <t>15BD7</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
@@ -22387,7 +22387,7 @@
         <v>33</v>
       </c>
       <c r="H549" t="n">
-        <v>89015</v>
+        <v>89014</v>
       </c>
     </row>
     <row r="550">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15BD8
+          <t xml:space="preserve">//Text $15BD7
 #WRITE(ptr,$5CF4)
 Let's Check it Out[END]
 </t>
@@ -22410,12 +22410,12 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>15BD8</t>
+          <t>15BD7</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>15BEB</t>
+          <t>15BEA</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
@@ -22427,7 +22427,7 @@
         <v>19</v>
       </c>
       <c r="H550" t="n">
-        <v>89048</v>
+        <v>89047</v>
       </c>
     </row>
     <row r="551">
@@ -22436,7 +22436,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15BEB
+          <t xml:space="preserve">//Text $15BEA
 #WRITE(ptr,$5CF8)
 Let's Head Outside First[END]
 </t>
@@ -22450,12 +22450,12 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>15BEB</t>
+          <t>15BEA</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>15C04</t>
+          <t>15C03</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
@@ -22467,7 +22467,7 @@
         <v>25</v>
       </c>
       <c r="H551" t="n">
-        <v>89067</v>
+        <v>89066</v>
       </c>
     </row>
     <row r="552">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C04
+          <t xml:space="preserve">//Text $15C03
 #WRITE(ptr,$5CFC)
 Let's Stay Here[END]
 </t>
@@ -22490,12 +22490,12 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>15C04</t>
+          <t>15C03</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>15C14</t>
+          <t>15C13</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -22507,7 +22507,7 @@
         <v>16</v>
       </c>
       <c r="H552" t="n">
-        <v>89092</v>
+        <v>89091</v>
       </c>
     </row>
     <row r="553">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C14
+          <t xml:space="preserve">//Text $15C13
 #WRITE(ptr,$5D00)
 North from Here[END]
 </t>
@@ -22530,12 +22530,12 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>15C14</t>
+          <t>15C13</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>15C24</t>
+          <t>15C23</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -22547,7 +22547,7 @@
         <v>16</v>
       </c>
       <c r="H553" t="n">
-        <v>89108</v>
+        <v>89107</v>
       </c>
     </row>
     <row r="554">
@@ -22556,7 +22556,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C24
+          <t xml:space="preserve">//Text $15C23
 #WRITE(ptr,$5D04)
 Northeast from Here[END]
 </t>
@@ -22570,12 +22570,12 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>15C24</t>
+          <t>15C23</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>15C38</t>
+          <t>15C37</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -22587,7 +22587,7 @@
         <v>20</v>
       </c>
       <c r="H554" t="n">
-        <v>89124</v>
+        <v>89123</v>
       </c>
     </row>
     <row r="555">
@@ -22596,7 +22596,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C38
+          <t xml:space="preserve">//Text $15C37
 #WRITE(ptr,$5D08)
 East from Here[END]
 </t>
@@ -22610,12 +22610,12 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>15C38</t>
+          <t>15C37</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>15C47</t>
+          <t>15C46</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -22627,7 +22627,7 @@
         <v>15</v>
       </c>
       <c r="H555" t="n">
-        <v>89144</v>
+        <v>89143</v>
       </c>
     </row>
     <row r="556">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C47
+          <t xml:space="preserve">//Text $15C46
 #WRITE(ptr,$5D0C)
 Southeast from Here[END]
 </t>
@@ -22650,12 +22650,12 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>15C47</t>
+          <t>15C46</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>15C5B</t>
+          <t>15C5A</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
@@ -22667,7 +22667,7 @@
         <v>20</v>
       </c>
       <c r="H556" t="n">
-        <v>89159</v>
+        <v>89158</v>
       </c>
     </row>
     <row r="557">
@@ -22676,7 +22676,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C5B
+          <t xml:space="preserve">//Text $15C5A
 #WRITE(ptr,$5D10)
 South from Here[END]
 </t>
@@ -22690,12 +22690,12 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>15C5B</t>
+          <t>15C5A</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>15C6B</t>
+          <t>15C6A</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -22707,7 +22707,7 @@
         <v>16</v>
       </c>
       <c r="H557" t="n">
-        <v>89179</v>
+        <v>89178</v>
       </c>
     </row>
     <row r="558">
@@ -22716,7 +22716,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C6B
+          <t xml:space="preserve">//Text $15C6A
 #WRITE(ptr,$5D14)
 Southwest from Here[END]
 </t>
@@ -22730,12 +22730,12 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>15C6B</t>
+          <t>15C6A</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>15C7F</t>
+          <t>15C7E</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -22747,7 +22747,7 @@
         <v>20</v>
       </c>
       <c r="H558" t="n">
-        <v>89195</v>
+        <v>89194</v>
       </c>
     </row>
     <row r="559">
@@ -22756,7 +22756,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C7F
+          <t xml:space="preserve">//Text $15C7E
 #WRITE(ptr,$5D18)
 West from Here[END]
 </t>
@@ -22770,12 +22770,12 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>15C7F</t>
+          <t>15C7E</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>15C8E</t>
+          <t>15C8D</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -22787,7 +22787,7 @@
         <v>15</v>
       </c>
       <c r="H559" t="n">
-        <v>89215</v>
+        <v>89214</v>
       </c>
     </row>
     <row r="560">
@@ -22796,7 +22796,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C8E
+          <t xml:space="preserve">//Text $15C8D
 #WRITE(ptr,$5D1C)
 Northwest from Here[END]
 </t>
@@ -22810,12 +22810,12 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>15C8E</t>
+          <t>15C8D</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>15CA2</t>
+          <t>15CA1</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -22827,7 +22827,7 @@
         <v>20</v>
       </c>
       <c r="H560" t="n">
-        <v>89230</v>
+        <v>89229</v>
       </c>
     </row>
     <row r="561">
@@ -22836,7 +22836,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15CA2
+          <t xml:space="preserve">//Text $15CA1
 #WRITE(ptr,$5D20)
 Let's Get on the Leviathan[END]
 </t>
@@ -22850,12 +22850,12 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>15CA2</t>
+          <t>15CA1</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>15CBD</t>
+          <t>15CBC</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -22867,7 +22867,7 @@
         <v>27</v>
       </c>
       <c r="H561" t="n">
-        <v>89250</v>
+        <v>89249</v>
       </c>
     </row>
     <row r="562">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15CBD
+          <t xml:space="preserve">//Text $15CBC
 #WRITE(ptr,$5D24)
 Anyway, to the Leviathan[END]
 </t>
@@ -22890,12 +22890,12 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>15CBD</t>
+          <t>15CBC</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>15CD6</t>
+          <t>15CD5</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
@@ -22907,7 +22907,7 @@
         <v>25</v>
       </c>
       <c r="H562" t="n">
-        <v>89277</v>
+        <v>89276</v>
       </c>
     </row>
     <row r="563">
@@ -22916,7 +22916,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15CD6
+          <t xml:space="preserve">//Text $15CD5
 #WRITE(ptr,$5D28)
 Let's Take the Draconis[END]
 </t>
@@ -22930,12 +22930,12 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>15CD6</t>
+          <t>15CD5</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>15CEE</t>
+          <t>15CED</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -22947,7 +22947,7 @@
         <v>24</v>
       </c>
       <c r="H563" t="n">
-        <v>89302</v>
+        <v>89301</v>
       </c>
     </row>
     <row r="564">
@@ -22956,7 +22956,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15CEE
+          <t xml:space="preserve">//Text $15CED
 #WRITE(ptr,$5D2C)
 Anyway, to the Draconis[END]
 </t>
@@ -22970,12 +22970,12 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>15CEE</t>
+          <t>15CED</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>15D06</t>
+          <t>15D05</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -22987,7 +22987,7 @@
         <v>24</v>
       </c>
       <c r="H564" t="n">
-        <v>89326</v>
+        <v>89325</v>
       </c>
     </row>
     <row r="565">
@@ -22996,7 +22996,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D06
+          <t xml:space="preserve">//Text $15D05
 #WRITE(ptr,$5D30)
 Let's Head to the Harbor[END]
 </t>
@@ -23010,12 +23010,12 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>15D06</t>
+          <t>15D05</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>15D1F</t>
+          <t>15D1E</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -23027,7 +23027,7 @@
         <v>25</v>
       </c>
       <c r="H565" t="n">
-        <v>89350</v>
+        <v>89349</v>
       </c>
     </row>
     <row r="566">
@@ -23036,7 +23036,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D1F
+          <t xml:space="preserve">//Text $15D1E
 #WRITE(ptr,$5D34)
 Let's Head to the Castle[END]
 </t>
@@ -23050,12 +23050,12 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>15D1F</t>
+          <t>15D1E</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>15D38</t>
+          <t>15D37</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -23067,7 +23067,7 @@
         <v>25</v>
       </c>
       <c r="H566" t="n">
-        <v>89375</v>
+        <v>89374</v>
       </c>
     </row>
     <row r="567">
@@ -23076,7 +23076,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D38
+          <t xml:space="preserve">//Text $15D37
 #WRITE(ptr,$5D38)
 Respite[END]
 </t>
@@ -23090,12 +23090,12 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>15D38</t>
+          <t>15D37</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>15D40</t>
+          <t>15D3F</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -23107,7 +23107,7 @@
         <v>8</v>
       </c>
       <c r="H567" t="n">
-        <v>89400</v>
+        <v>89399</v>
       </c>
     </row>
     <row r="568">
@@ -23116,7 +23116,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D40
+          <t xml:space="preserve">//Text $15D3F
 #WRITE(ptr,$5D3C)
 The Guardian Dragon is Important[END]
 </t>
@@ -23130,12 +23130,12 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>15D40</t>
+          <t>15D3F</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>15D61</t>
+          <t>15D60</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -23147,7 +23147,7 @@
         <v>33</v>
       </c>
       <c r="H568" t="n">
-        <v>89408</v>
+        <v>89407</v>
       </c>
     </row>
     <row r="569">
@@ -23156,7 +23156,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D61
+          <t xml:space="preserve">//Text $15D60
 #WRITE(ptr,$5D40)
 [Igtenos] First[END]
 </t>
@@ -23170,12 +23170,12 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>15D61</t>
+          <t>15D60</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>15D6D</t>
+          <t>15D6C</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -23187,7 +23187,7 @@
         <v>12</v>
       </c>
       <c r="H569" t="n">
-        <v>89441</v>
+        <v>89440</v>
       </c>
     </row>
     <row r="570">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D6D
+          <t xml:space="preserve">//Text $15D6C
 #WRITE(ptr,$5D44)
 Take the Device to Radisrol[END]
 </t>
@@ -23210,12 +23210,12 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>15D6D</t>
+          <t>15D6C</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>15D89</t>
+          <t>15D88</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -23227,7 +23227,7 @@
         <v>28</v>
       </c>
       <c r="H570" t="n">
-        <v>89453</v>
+        <v>89452</v>
       </c>
     </row>
     <row r="571">
@@ -23236,7 +23236,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D89
+          <t xml:space="preserve">//Text $15D88
 #WRITE(ptr,$5D48)
 Top Priorty: Aeth'er Cruiser[END]
 </t>
@@ -23250,12 +23250,12 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>15D89</t>
+          <t>15D88</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>15DA6</t>
+          <t>15DA5</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
@@ -23267,7 +23267,7 @@
         <v>29</v>
       </c>
       <c r="H571" t="n">
-        <v>89481</v>
+        <v>89480</v>
       </c>
     </row>
     <row r="572">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DA6
+          <t xml:space="preserve">//Text $15DA5
 #WRITE(ptr,$5D4C)
 No Business at This Town[END]
 </t>
@@ -23290,12 +23290,12 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>15DA6</t>
+          <t>15DA5</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>15DBF</t>
+          <t>15DBE</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -23307,7 +23307,7 @@
         <v>25</v>
       </c>
       <c r="H572" t="n">
-        <v>89510</v>
+        <v>89509</v>
       </c>
     </row>
     <row r="573">
@@ -23316,7 +23316,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DBF
+          <t xml:space="preserve">//Text $15DBE
 #WRITE(ptr,$5D50)
 My Sister's Thoughts[END]
 </t>
@@ -23330,12 +23330,12 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>15DBF</t>
+          <t>15DBE</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>15DD4</t>
+          <t>15DD3</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
@@ -23347,7 +23347,7 @@
         <v>21</v>
       </c>
       <c r="H573" t="n">
-        <v>89535</v>
+        <v>89534</v>
       </c>
     </row>
     <row r="574">
@@ -23356,7 +23356,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DD4
+          <t xml:space="preserve">//Text $15DD3
 #WRITE(ptr,$5D54)
 Race - 1[END]
 </t>
@@ -23370,12 +23370,12 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>15DD4</t>
+          <t>15DD3</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>15DDD</t>
+          <t>15DDC</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -23387,7 +23387,7 @@
         <v>9</v>
       </c>
       <c r="H574" t="n">
-        <v>89556</v>
+        <v>89555</v>
       </c>
     </row>
     <row r="575">
@@ -23396,7 +23396,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DDD
+          <t xml:space="preserve">//Text $15DDC
 #WRITE(ptr,$5D58)
 Race - 2[END]
 </t>
@@ -23410,12 +23410,12 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>15DDD</t>
+          <t>15DDC</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>15DE6</t>
+          <t>15DE5</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -23427,7 +23427,7 @@
         <v>9</v>
       </c>
       <c r="H575" t="n">
-        <v>89565</v>
+        <v>89564</v>
       </c>
     </row>
     <row r="576">
@@ -23436,7 +23436,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DE6
+          <t xml:space="preserve">//Text $15DE5
 #WRITE(ptr,$5D5C)
 Question![END]
 </t>
@@ -23450,12 +23450,12 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>15DE6</t>
+          <t>15DE5</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>15DF0</t>
+          <t>15DEF</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
@@ -23467,7 +23467,7 @@
         <v>10</v>
       </c>
       <c r="H576" t="n">
-        <v>89574</v>
+        <v>89573</v>
       </c>
     </row>
     <row r="577">
@@ -23476,7 +23476,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DF0
+          <t xml:space="preserve">//Text $15DEF
 #WRITE(ptr,$5D60)
 Ready![END]
 </t>
@@ -23490,12 +23490,12 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>15DF0</t>
+          <t>15DEF</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>15DF7</t>
+          <t>15DF6</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
@@ -23507,7 +23507,7 @@
         <v>7</v>
       </c>
       <c r="H577" t="n">
-        <v>89584</v>
+        <v>89583</v>
       </c>
     </row>
     <row r="578">
@@ -23516,7 +23516,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DF7
+          <t xml:space="preserve">//Text $15DF6
 #WRITE(ptr,$5D64)
 Absolutely Correct![END]
 </t>
@@ -23530,12 +23530,12 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>15DF7</t>
+          <t>15DF6</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>15E0B</t>
+          <t>15E0A</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -23547,7 +23547,7 @@
         <v>20</v>
       </c>
       <c r="H578" t="n">
-        <v>89591</v>
+        <v>89590</v>
       </c>
     </row>
     <row r="579">
@@ -23556,7 +23556,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E0B
+          <t xml:space="preserve">//Text $15E0A
 #WRITE(ptr,$5D68)
 Still Practicing[END]
 </t>
@@ -23570,12 +23570,12 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>15E0B</t>
+          <t>15E0A</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>15E1C</t>
+          <t>15E1B</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
@@ -23587,7 +23587,7 @@
         <v>17</v>
       </c>
       <c r="H579" t="n">
-        <v>89611</v>
+        <v>89610</v>
       </c>
     </row>
     <row r="580">
@@ -23596,7 +23596,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E1C
+          <t xml:space="preserve">//Text $15E1B
 #WRITE(ptr,$5D6C)
 Expedition [Stahn][END]
 </t>
@@ -23610,12 +23610,12 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>15E1C</t>
+          <t>15E1B</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>15E2D</t>
+          <t>15E2C</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
@@ -23627,7 +23627,7 @@
         <v>17</v>
       </c>
       <c r="H580" t="n">
-        <v>89628</v>
+        <v>89627</v>
       </c>
     </row>
     <row r="581">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E2D
+          <t xml:space="preserve">//Text $15E2C
 #WRITE(ptr,$5D70)
 Fortune - 1[END]
 </t>
@@ -23650,12 +23650,12 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>15E2D</t>
+          <t>15E2C</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>15E39</t>
+          <t>15E38</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
@@ -23667,7 +23667,7 @@
         <v>12</v>
       </c>
       <c r="H581" t="n">
-        <v>89645</v>
+        <v>89644</v>
       </c>
     </row>
     <row r="582">
@@ -23676,7 +23676,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E39
+          <t xml:space="preserve">//Text $15E38
 #WRITE(ptr,$5D74)
 Fortune - 2[END]
 </t>
@@ -23690,12 +23690,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>15E39</t>
+          <t>15E38</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>15E45</t>
+          <t>15E44</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
@@ -23707,7 +23707,7 @@
         <v>12</v>
       </c>
       <c r="H582" t="n">
-        <v>89657</v>
+        <v>89656</v>
       </c>
     </row>
     <row r="583">
@@ -23716,7 +23716,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E45
+          <t xml:space="preserve">//Text $15E44
 #WRITE(ptr,$5D78)
 Fortune - 3[END]
 </t>
@@ -23730,12 +23730,12 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>15E45</t>
+          <t>15E44</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>15E51</t>
+          <t>15E50</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
@@ -23747,7 +23747,7 @@
         <v>12</v>
       </c>
       <c r="H583" t="n">
-        <v>89669</v>
+        <v>89668</v>
       </c>
     </row>
     <row r="584">
@@ -23756,7 +23756,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E51
+          <t xml:space="preserve">//Text $15E50
 #WRITE(ptr,$5D7C)
 Fortune - 4[END]
 </t>
@@ -23770,12 +23770,12 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>15E51</t>
+          <t>15E50</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>15E5D</t>
+          <t>15E5C</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
@@ -23787,7 +23787,7 @@
         <v>12</v>
       </c>
       <c r="H584" t="n">
-        <v>89681</v>
+        <v>89680</v>
       </c>
     </row>
     <row r="585">
@@ -23796,7 +23796,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E5D
+          <t xml:space="preserve">//Text $15E5C
 #WRITE(ptr,$5D80)
 Fortune - 5[END]
 </t>
@@ -23810,12 +23810,12 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>15E5D</t>
+          <t>15E5C</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>15E69</t>
+          <t>15E68</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
@@ -23827,7 +23827,7 @@
         <v>12</v>
       </c>
       <c r="H585" t="n">
-        <v>89693</v>
+        <v>89692</v>
       </c>
     </row>
     <row r="586">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E69
+          <t xml:space="preserve">//Text $15E68
 #WRITE(ptr,$5D84)
 Fortune - 6[END]
 </t>
@@ -23850,12 +23850,12 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>15E69</t>
+          <t>15E68</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>15E75</t>
+          <t>15E74</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
@@ -23867,7 +23867,7 @@
         <v>12</v>
       </c>
       <c r="H586" t="n">
-        <v>89705</v>
+        <v>89704</v>
       </c>
     </row>
     <row r="587">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E75
+          <t xml:space="preserve">//Text $15E74
 #WRITE(ptr,$5D88)
 Fortune - 7[END]
 </t>
@@ -23890,12 +23890,12 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>15E75</t>
+          <t>15E74</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>15E81</t>
+          <t>15E80</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
@@ -23907,7 +23907,7 @@
         <v>12</v>
       </c>
       <c r="H587" t="n">
-        <v>89717</v>
+        <v>89716</v>
       </c>
     </row>
     <row r="588">
@@ -23916,7 +23916,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E81
+          <t xml:space="preserve">//Text $15E80
 #WRITE(ptr,$5D8C)
 "[Batista] Bomb"[END]
 </t>
@@ -23930,12 +23930,12 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>15E81</t>
+          <t>15E80</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>15E8E</t>
+          <t>15E8D</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
@@ -23947,7 +23947,7 @@
         <v>13</v>
       </c>
       <c r="H588" t="n">
-        <v>89729</v>
+        <v>89728</v>
       </c>
     </row>
     <row r="589">
@@ -23956,7 +23956,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E8E
+          <t xml:space="preserve">//Text $15E8D
 #WRITE(ptr,$5D90)
 [Philia]'s True Feelings[END]
 </t>
@@ -23970,12 +23970,12 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>15E8E</t>
+          <t>15E8D</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>15EA4</t>
+          <t>15EA3</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
@@ -23987,7 +23987,7 @@
         <v>22</v>
       </c>
       <c r="H589" t="n">
-        <v>89742</v>
+        <v>89741</v>
       </c>
     </row>
     <row r="590">
@@ -23996,7 +23996,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EA4
+          <t xml:space="preserve">//Text $15EA3
 #WRITE(ptr,$5D94)
 A Time for Dreaming[END]
 </t>
@@ -24010,12 +24010,12 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>15EA4</t>
+          <t>15EA3</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>15EB8</t>
+          <t>15EB7</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
@@ -24027,7 +24027,7 @@
         <v>20</v>
       </c>
       <c r="H590" t="n">
-        <v>89764</v>
+        <v>89763</v>
       </c>
     </row>
     <row r="591">
@@ -24036,7 +24036,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EB8
+          <t xml:space="preserve">//Text $15EB7
 #WRITE(ptr,$5D98)
 He's Me, I'm Him, so he's...[END]
 </t>
@@ -24050,12 +24050,12 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>15EB8</t>
+          <t>15EB7</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>15ED5</t>
+          <t>15ED4</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
@@ -24067,7 +24067,7 @@
         <v>29</v>
       </c>
       <c r="H591" t="n">
-        <v>89784</v>
+        <v>89783</v>
       </c>
     </row>
     <row r="592">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15ED5
+          <t xml:space="preserve">//Text $15ED4
 #WRITE(ptr,$5D9C)
 [Rembrandt]'s Talent[END]
 </t>
@@ -24090,12 +24090,12 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>15ED5</t>
+          <t>15ED4</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>15EE4</t>
+          <t>15EE3</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
@@ -24107,7 +24107,7 @@
         <v>15</v>
       </c>
       <c r="H592" t="n">
-        <v>89813</v>
+        <v>89812</v>
       </c>
     </row>
     <row r="593">
@@ -24116,7 +24116,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EE4
+          <t xml:space="preserve">//Text $15EE3
 #WRITE(ptr,$5DA0)
 Outtake 1[END]
 </t>
@@ -24130,12 +24130,12 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>15EE4</t>
+          <t>15EE3</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>15EEE</t>
+          <t>15EED</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
@@ -24147,7 +24147,7 @@
         <v>10</v>
       </c>
       <c r="H593" t="n">
-        <v>89828</v>
+        <v>89827</v>
       </c>
     </row>
     <row r="594">
@@ -24156,7 +24156,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EEE
+          <t xml:space="preserve">//Text $15EED
 #WRITE(ptr,$5DA4)
 Outtake 2[END]
 </t>
@@ -24170,12 +24170,12 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>15EEE</t>
+          <t>15EED</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>15EF8</t>
+          <t>15EF7</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
@@ -24187,7 +24187,7 @@
         <v>10</v>
       </c>
       <c r="H594" t="n">
-        <v>89838</v>
+        <v>89837</v>
       </c>
     </row>
     <row r="595">
@@ -24196,7 +24196,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EF8
+          <t xml:space="preserve">//Text $15EF7
 #WRITE(ptr,$5DA8)
 Bonus Footage: Backstage[END]
 </t>
@@ -24210,12 +24210,12 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>15EF8</t>
+          <t>15EF7</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>15F11</t>
+          <t>15F10</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
@@ -24227,7 +24227,7 @@
         <v>25</v>
       </c>
       <c r="H595" t="n">
-        <v>89848</v>
+        <v>89847</v>
       </c>
     </row>
     <row r="596">
@@ -24236,7 +24236,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F11
+          <t xml:space="preserve">//Text $15F10
 #WRITE(ptr,$5DAC)
 Phantasia[END]
 </t>
@@ -24250,12 +24250,12 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>15F11</t>
+          <t>15F10</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>15F1B</t>
+          <t>15F1A</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
@@ -24267,7 +24267,7 @@
         <v>10</v>
       </c>
       <c r="H596" t="n">
-        <v>89873</v>
+        <v>89872</v>
       </c>
     </row>
     <row r="597">
@@ -24276,7 +24276,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F1B
+          <t xml:space="preserve">//Text $15F1A
 #WRITE(ptr,$5DB0)
 The Abyss[END]
 </t>
@@ -24290,12 +24290,12 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>15F1B</t>
+          <t>15F1A</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>15F25</t>
+          <t>15F24</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
@@ -24307,7 +24307,7 @@
         <v>10</v>
       </c>
       <c r="H597" t="n">
-        <v>89883</v>
+        <v>89882</v>
       </c>
     </row>
     <row r="598">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F25
+          <t xml:space="preserve">//Text $15F24
 #WRITE(ptr,$5DB4)
 "Tales of" Series[END]
 </t>
@@ -24330,12 +24330,12 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>15F25</t>
+          <t>15F24</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>15F37</t>
+          <t>15F36</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
@@ -24347,7 +24347,7 @@
         <v>18</v>
       </c>
       <c r="H598" t="n">
-        <v>89893</v>
+        <v>89892</v>
       </c>
     </row>
     <row r="599">
@@ -24356,7 +24356,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F37
+          <t xml:space="preserve">//Text $15F36
 #WRITE(ptr,$5DB8)
 Tales of Destiny[END]
 </t>
@@ -24370,12 +24370,12 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>15F37</t>
+          <t>15F36</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>15F48</t>
+          <t>15F47</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
@@ -24387,7 +24387,7 @@
         <v>17</v>
       </c>
       <c r="H599" t="n">
-        <v>89911</v>
+        <v>89910</v>
       </c>
     </row>
     <row r="600">
@@ -24396,7 +24396,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F48
+          <t xml:space="preserve">//Text $15F47
 #WRITE(ptr,$5DBC)
 [Reynolds] is Useful[END]
 </t>
@@ -24410,12 +24410,12 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>15F48</t>
+          <t>15F47</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>15F58</t>
+          <t>15F57</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
@@ -24427,7 +24427,7 @@
         <v>16</v>
       </c>
       <c r="H600" t="n">
-        <v>89928</v>
+        <v>89927</v>
       </c>
     </row>
     <row r="601">
@@ -24436,7 +24436,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F58
+          <t xml:space="preserve">//Text $15F57
 #WRITE(ptr,$5DC0)
 [Ritora]'s Hologram Is Amazing![END]
 </t>
@@ -24450,12 +24450,12 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>15F58</t>
+          <t>15F57</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>15F75</t>
+          <t>15F74</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
@@ -24467,7 +24467,7 @@
         <v>29</v>
       </c>
       <c r="H601" t="n">
-        <v>89944</v>
+        <v>89943</v>
       </c>
     </row>
     <row r="602">
@@ -24476,7 +24476,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F75
+          <t xml:space="preserve">//Text $15F74
 #WRITE(ptr,$5DC4)
 We've Been Together All Along[END]
 </t>
@@ -24490,12 +24490,12 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>15F75</t>
+          <t>15F74</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>15F93</t>
+          <t>15F92</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
@@ -24507,7 +24507,7 @@
         <v>30</v>
       </c>
       <c r="H602" t="n">
-        <v>89973</v>
+        <v>89972</v>
       </c>
     </row>
     <row r="603">
@@ -24516,7 +24516,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F93
+          <t xml:space="preserve">//Text $15F92
 #WRITE(ptr,$5DC8)
 [END]
 </t>
@@ -24530,12 +24530,12 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
+          <t>15F92</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
           <t>15F93</t>
-        </is>
-      </c>
-      <c r="E603" t="inlineStr">
-        <is>
-          <t>15F94</t>
         </is>
       </c>
       <c r="F603" t="inlineStr">
@@ -24547,7 +24547,7 @@
         <v>1</v>
       </c>
       <c r="H603" t="n">
-        <v>90003</v>
+        <v>90002</v>
       </c>
     </row>
     <row r="604">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F94
+          <t xml:space="preserve">//Text $15F93
 #WRITE(ptr,$5DCC)
 [END]
 </t>
@@ -24570,12 +24570,12 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
+          <t>15F93</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
           <t>15F94</t>
-        </is>
-      </c>
-      <c r="E604" t="inlineStr">
-        <is>
-          <t>15F95</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
@@ -24587,7 +24587,7 @@
         <v>1</v>
       </c>
       <c r="H604" t="n">
-        <v>90004</v>
+        <v>90003</v>
       </c>
     </row>
     <row r="605">
@@ -24596,7 +24596,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F95
+          <t xml:space="preserve">//Text $15F94
 #WRITE(ptr,$5DD0)
 [END]
 </t>
@@ -24610,12 +24610,12 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
+          <t>15F94</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
           <t>15F95</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr">
-        <is>
-          <t>15F96</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
@@ -24627,7 +24627,7 @@
         <v>1</v>
       </c>
       <c r="H605" t="n">
-        <v>90005</v>
+        <v>90004</v>
       </c>
     </row>
     <row r="606">
@@ -24636,7 +24636,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F96
+          <t xml:space="preserve">//Text $15F95
 #WRITE(ptr,$5DD4)
 [END]
 </t>
@@ -24650,12 +24650,12 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
+          <t>15F95</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
           <t>15F96</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr">
-        <is>
-          <t>15F97</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
@@ -24667,7 +24667,7 @@
         <v>1</v>
       </c>
       <c r="H606" t="n">
-        <v>90006</v>
+        <v>90005</v>
       </c>
     </row>
     <row r="607">
@@ -24676,7 +24676,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F97
+          <t xml:space="preserve">//Text $15F96
 #WRITE(ptr,$5DD8)
 [END]
 </t>
@@ -24690,12 +24690,12 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
+          <t>15F96</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
           <t>15F97</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr">
-        <is>
-          <t>15F98</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
@@ -24707,7 +24707,7 @@
         <v>1</v>
       </c>
       <c r="H607" t="n">
-        <v>90007</v>
+        <v>90006</v>
       </c>
     </row>
     <row r="608">
@@ -24716,7 +24716,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F98
+          <t xml:space="preserve">//Text $15F97
 #WRITE(ptr,$5DDC)
 [END]
 </t>
@@ -24730,12 +24730,12 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
+          <t>15F97</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
           <t>15F98</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr">
-        <is>
-          <t>15F99</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
@@ -24747,7 +24747,7 @@
         <v>1</v>
       </c>
       <c r="H608" t="n">
-        <v>90008</v>
+        <v>90007</v>
       </c>
     </row>
     <row r="609">
@@ -24756,7 +24756,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F99
+          <t xml:space="preserve">//Text $15F98
 #WRITE(ptr,$5DE0)
 [END]
 </t>
@@ -24770,12 +24770,12 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
+          <t>15F98</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
           <t>15F99</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr">
-        <is>
-          <t>15F9A</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
@@ -24787,7 +24787,7 @@
         <v>1</v>
       </c>
       <c r="H609" t="n">
-        <v>90009</v>
+        <v>90008</v>
       </c>
     </row>
     <row r="610">
@@ -24796,7 +24796,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9A
+          <t xml:space="preserve">//Text $15F99
 #WRITE(ptr,$5DE4)
 [END]
 </t>
@@ -24810,12 +24810,12 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
+          <t>15F99</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
           <t>15F9A</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr">
-        <is>
-          <t>15F9B</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
@@ -24827,7 +24827,7 @@
         <v>1</v>
       </c>
       <c r="H610" t="n">
-        <v>90010</v>
+        <v>90009</v>
       </c>
     </row>
     <row r="611">
@@ -24836,7 +24836,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9B
+          <t xml:space="preserve">//Text $15F9A
 #WRITE(ptr,$5DE8)
 [END]
 </t>
@@ -24850,12 +24850,12 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
+          <t>15F9A</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
           <t>15F9B</t>
-        </is>
-      </c>
-      <c r="E611" t="inlineStr">
-        <is>
-          <t>15F9C</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
@@ -24867,7 +24867,7 @@
         <v>1</v>
       </c>
       <c r="H611" t="n">
-        <v>90011</v>
+        <v>90010</v>
       </c>
     </row>
     <row r="612">
@@ -24876,7 +24876,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9C
+          <t xml:space="preserve">//Text $15F9B
 #WRITE(ptr,$5DEC)
 [END]
 </t>
@@ -24890,12 +24890,12 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
+          <t>15F9B</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
           <t>15F9C</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr">
-        <is>
-          <t>15F9D</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
@@ -24907,7 +24907,7 @@
         <v>1</v>
       </c>
       <c r="H612" t="n">
-        <v>90012</v>
+        <v>90011</v>
       </c>
     </row>
     <row r="613">
@@ -24916,7 +24916,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9D
+          <t xml:space="preserve">//Text $15F9C
 #WRITE(ptr,$5DF0)
 [END]
 </t>
@@ -24930,12 +24930,12 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
+          <t>15F9C</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
           <t>15F9D</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr">
-        <is>
-          <t>15F9E</t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
@@ -24947,7 +24947,7 @@
         <v>1</v>
       </c>
       <c r="H613" t="n">
-        <v>90013</v>
+        <v>90012</v>
       </c>
     </row>
     <row r="614">
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9E
+          <t xml:space="preserve">//Text $15F9D
 #WRITE(ptr,$5DF4)
 Another Swordian[END]
 </t>
@@ -24970,12 +24970,12 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>15F9E</t>
+          <t>15F9D</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>15FAF</t>
+          <t>15FAE</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
@@ -24987,7 +24987,7 @@
         <v>17</v>
       </c>
       <c r="H614" t="n">
-        <v>90014</v>
+        <v>90013</v>
       </c>
     </row>
     <row r="615">
@@ -24996,7 +24996,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FAF
+          <t xml:space="preserve">//Text $15FAE
 #WRITE(ptr,$5DF8)
 Why?[END]
 </t>
@@ -25010,12 +25010,12 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>15FAF</t>
+          <t>15FAE</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>15FB4</t>
+          <t>15FB3</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
@@ -25027,7 +25027,7 @@
         <v>5</v>
       </c>
       <c r="H615" t="n">
-        <v>90031</v>
+        <v>90030</v>
       </c>
     </row>
     <row r="616">
@@ -25036,7 +25036,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FB4
+          <t xml:space="preserve">//Text $15FB3
 #WRITE(ptr,$5DFC)
 [Marian]'s Lecture..[END]
 </t>
@@ -25050,12 +25050,12 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>15FB4</t>
+          <t>15FB3</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>15FC6</t>
+          <t>15FC5</t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
@@ -25067,7 +25067,7 @@
         <v>18</v>
       </c>
       <c r="H616" t="n">
-        <v>90036</v>
+        <v>90035</v>
       </c>
     </row>
     <row r="617">
@@ -25076,7 +25076,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FC6
+          <t xml:space="preserve">//Text $15FC5
 #WRITE(ptr,$5E00)
 We're up Against 3 People![END]
 </t>
@@ -25090,12 +25090,12 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>15FC6</t>
+          <t>15FC5</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>15FE1</t>
+          <t>15FE0</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
@@ -25107,7 +25107,7 @@
         <v>27</v>
       </c>
       <c r="H617" t="n">
-        <v>90054</v>
+        <v>90053</v>
       </c>
     </row>
     <row r="618">
@@ -25116,7 +25116,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FE1
+          <t xml:space="preserve">//Text $15FE0
 #WRITE(ptr,$5E04)
 [Hugo] and [Rutee][END]
 </t>
@@ -25130,12 +25130,12 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>15FE1</t>
+          <t>15FE0</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>15FF1</t>
+          <t>15FF0</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
@@ -25147,7 +25147,7 @@
         <v>16</v>
       </c>
       <c r="H618" t="n">
-        <v>90081</v>
+        <v>90080</v>
       </c>
     </row>
     <row r="619">
@@ -25156,7 +25156,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FF1
+          <t xml:space="preserve">//Text $15FF0
 #WRITE(ptr,$5E08)
 Not [Dymlos] and [Atwight]..[END]
 </t>
@@ -25170,12 +25170,12 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>15FF1</t>
+          <t>15FF0</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>16007</t>
+          <t>16006</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
@@ -25187,7 +25187,7 @@
         <v>22</v>
       </c>
       <c r="H619" t="n">
-        <v>90097</v>
+        <v>90096</v>
       </c>
     </row>
     <row r="620">
@@ -25196,7 +25196,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16007
+          <t xml:space="preserve">//Text $16006
 #WRITE(ptr,$5E0C)
 [Hugo]'s Plan[END]
 </t>
@@ -25210,12 +25210,12 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>16007</t>
+          <t>16006</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>16014</t>
+          <t>16013</t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
@@ -25227,7 +25227,7 @@
         <v>13</v>
       </c>
       <c r="H620" t="n">
-        <v>90119</v>
+        <v>90118</v>
       </c>
     </row>
     <row r="621">
@@ -25236,7 +25236,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16014
+          <t xml:space="preserve">//Text $16013
 #WRITE(ptr,$5E10)
 Chal's Concern[END]
 </t>
@@ -25250,12 +25250,12 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>16014</t>
+          <t>16013</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>16023</t>
+          <t>16022</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
@@ -25267,7 +25267,7 @@
         <v>15</v>
       </c>
       <c r="H621" t="n">
-        <v>90132</v>
+        <v>90131</v>
       </c>
     </row>
     <row r="622">
@@ -25276,7 +25276,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16023
+          <t xml:space="preserve">//Text $16022
 #WRITE(ptr,$5E14)
 [Atwight] the Oasis[END]
 </t>
@@ -25290,12 +25290,12 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>16023</t>
+          <t>16022</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>16033</t>
+          <t>16032</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
@@ -25307,7 +25307,7 @@
         <v>16</v>
       </c>
       <c r="H622" t="n">
-        <v>90147</v>
+        <v>90146</v>
       </c>
     </row>
     <row r="623">
@@ -25316,7 +25316,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16033
+          <t xml:space="preserve">//Text $16032
 #WRITE(ptr,$5E18)
 The Two of Us[END]
 </t>
@@ -25330,12 +25330,12 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>16033</t>
+          <t>16032</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>16041</t>
+          <t>16040</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
@@ -25347,7 +25347,7 @@
         <v>14</v>
       </c>
       <c r="H623" t="n">
-        <v>90163</v>
+        <v>90162</v>
       </c>
     </row>
     <row r="624">
@@ -25356,7 +25356,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16041
+          <t xml:space="preserve">//Text $16040
 #WRITE(ptr,$5E1C)
 Softy Kreem![END]
 </t>
@@ -25370,12 +25370,12 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>16041</t>
+          <t>16040</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>1604E</t>
+          <t>1604D</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
@@ -25387,7 +25387,7 @@
         <v>13</v>
       </c>
       <c r="H624" t="n">
-        <v>90177</v>
+        <v>90176</v>
       </c>
     </row>
     <row r="625">
@@ -25396,7 +25396,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1604E
+          <t xml:space="preserve">//Text $1604D
 #WRITE(ptr,$5E20)
 So Dashing![END]
 </t>
@@ -25410,12 +25410,12 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>1604E</t>
+          <t>1604D</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>1605A</t>
+          <t>16059</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
@@ -25427,7 +25427,7 @@
         <v>12</v>
       </c>
       <c r="H625" t="n">
-        <v>90190</v>
+        <v>90189</v>
       </c>
     </row>
     <row r="626">
@@ -25436,7 +25436,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1605A
+          <t xml:space="preserve">//Text $16059
 #WRITE(ptr,$5E24)
 Irritated [Lion][END]
 </t>
@@ -25450,12 +25450,12 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>1605A</t>
+          <t>16059</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>1606A</t>
+          <t>16069</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
@@ -25467,7 +25467,7 @@
         <v>16</v>
       </c>
       <c r="H626" t="n">
-        <v>90202</v>
+        <v>90201</v>
       </c>
     </row>
     <row r="627">
@@ -25476,7 +25476,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1606A
+          <t xml:space="preserve">//Text $16069
 #WRITE(ptr,$5E28)
 Always Together!?[END]
 </t>
@@ -25490,12 +25490,12 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>1606A</t>
+          <t>16069</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>1607C</t>
+          <t>1607B</t>
         </is>
       </c>
       <c r="F627" t="inlineStr">
@@ -25507,7 +25507,7 @@
         <v>18</v>
       </c>
       <c r="H627" t="n">
-        <v>90218</v>
+        <v>90217</v>
       </c>
     </row>
     <row r="628">
@@ -25516,7 +25516,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1607C
+          <t xml:space="preserve">//Text $1607B
 #WRITE(ptr,$5E2C)
 Family..[END]
 </t>
@@ -25530,12 +25530,12 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>1607C</t>
+          <t>1607B</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>16085</t>
+          <t>16084</t>
         </is>
       </c>
       <c r="F628" t="inlineStr">
@@ -25547,7 +25547,7 @@
         <v>9</v>
       </c>
       <c r="H628" t="n">
-        <v>90236</v>
+        <v>90235</v>
       </c>
     </row>
     <row r="629">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16085
+          <t xml:space="preserve">//Text $16084
 #WRITE(ptr,$5E30)
 [Lion] Needs Glasses[END]
 </t>
@@ -25570,12 +25570,12 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>16085</t>
+          <t>16084</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>16099</t>
+          <t>16098</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
@@ -25587,7 +25587,7 @@
         <v>20</v>
       </c>
       <c r="H629" t="n">
-        <v>90245</v>
+        <v>90244</v>
       </c>
     </row>
     <row r="630">
@@ -25596,7 +25596,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16099
+          <t xml:space="preserve">//Text $16098
 #WRITE(ptr,$5E34)
 Will and Jobs[END]
 </t>
@@ -25610,12 +25610,12 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>16099</t>
+          <t>16098</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>160A7</t>
+          <t>160A6</t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
@@ -25627,7 +25627,7 @@
         <v>14</v>
       </c>
       <c r="H630" t="n">
-        <v>90265</v>
+        <v>90264</v>
       </c>
     </row>
     <row r="631">
@@ -25636,7 +25636,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $160A7
+          <t xml:space="preserve">//Text $160A6
 #WRITE(ptr,$5E38)
 Weeping [Chaltier][END]
 </t>
@@ -25650,12 +25650,12 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>160A7</t>
+          <t>160A6</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>160B5</t>
+          <t>160B4</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
@@ -25667,7 +25667,7 @@
         <v>14</v>
       </c>
       <c r="H631" t="n">
-        <v>90279</v>
+        <v>90278</v>
       </c>
     </row>
     <row r="632">
@@ -25676,7 +25676,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $160B5
+          <t xml:space="preserve">//Text $160B4
 #WRITE(ptr,$5E3C)
 Nothing Important. Just Killing Time[END]
 </t>
@@ -25690,12 +25690,12 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>160B5</t>
+          <t>160B4</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>160DA</t>
+          <t>160D9</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
@@ -25707,7 +25707,7 @@
         <v>37</v>
       </c>
       <c r="H632" t="n">
-        <v>90293</v>
+        <v>90292</v>
       </c>
     </row>
     <row r="633">
@@ -25716,7 +25716,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $160DA
+          <t xml:space="preserve">//Text $160D9
 #WRITE(ptr,$5E40)
 A Real Nice Place?[END]
 </t>
@@ -25730,12 +25730,12 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>160DA</t>
+          <t>160D9</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>160ED</t>
+          <t>160EC</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
@@ -25747,7 +25747,7 @@
         <v>19</v>
       </c>
       <c r="H633" t="n">
-        <v>90330</v>
+        <v>90329</v>
       </c>
     </row>
     <row r="634">
@@ -25756,7 +25756,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $160ED
+          <t xml:space="preserve">//Text $160EC
 #WRITE(ptr,$5E44)
 About [Lion]'s Mother[END]
 </t>
@@ -25770,12 +25770,12 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>160ED</t>
+          <t>160EC</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>16102</t>
+          <t>16101</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
@@ -25787,7 +25787,7 @@
         <v>21</v>
       </c>
       <c r="H634" t="n">
-        <v>90349</v>
+        <v>90348</v>
       </c>
     </row>
     <row r="635">
@@ -25796,7 +25796,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16102
+          <t xml:space="preserve">//Text $16101
 #WRITE(ptr,$5E48)
 Kind Master [lion] Isn't![END]
 </t>
@@ -25810,12 +25810,12 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>16102</t>
+          <t>16101</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>1611C</t>
+          <t>1611B</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
@@ -25827,7 +25827,7 @@
         <v>26</v>
       </c>
       <c r="H635" t="n">
-        <v>90370</v>
+        <v>90369</v>
       </c>
     </row>
     <row r="636">
@@ -25836,7 +25836,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1611C
+          <t xml:space="preserve">//Text $1611B
 #WRITE(ptr,$5E4C)
 The Beach[END]
 </t>
@@ -25850,12 +25850,12 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>1611C</t>
+          <t>1611B</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>16126</t>
+          <t>16125</t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
@@ -25867,7 +25867,7 @@
         <v>10</v>
       </c>
       <c r="H636" t="n">
-        <v>90396</v>
+        <v>90395</v>
       </c>
     </row>
     <row r="637">
@@ -25876,7 +25876,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16126
+          <t xml:space="preserve">//Text $16125
 #WRITE(ptr,$5E50)
 A Building Visible on That Island[END]
 </t>
@@ -25890,12 +25890,12 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>16126</t>
+          <t>16125</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>16148</t>
+          <t>16147</t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
@@ -25907,7 +25907,7 @@
         <v>34</v>
       </c>
       <c r="H637" t="n">
-        <v>90406</v>
+        <v>90405</v>
       </c>
     </row>
     <row r="638">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16148
+          <t xml:space="preserve">//Text $16147
 #WRITE(ptr,$5E54)
 [Lion] and Chal's Quarrel[END]
 </t>
@@ -25930,12 +25930,12 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>16148</t>
+          <t>16147</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>16161</t>
+          <t>16160</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
@@ -25947,7 +25947,7 @@
         <v>25</v>
       </c>
       <c r="H638" t="n">
-        <v>90440</v>
+        <v>90439</v>
       </c>
     </row>
     <row r="639">
@@ -25956,7 +25956,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16161
+          <t xml:space="preserve">//Text $16160
 #WRITE(ptr,$5E58)
 Where Are We?[END]
 </t>
@@ -25970,12 +25970,12 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>16161</t>
+          <t>16160</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>1616F</t>
+          <t>1616E</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
@@ -25987,7 +25987,7 @@
         <v>14</v>
       </c>
       <c r="H639" t="n">
-        <v>90465</v>
+        <v>90464</v>
       </c>
     </row>
     <row r="640">
@@ -25996,7 +25996,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1616F
+          <t xml:space="preserve">//Text $1616E
 #WRITE(ptr,$5E5C)
 Farewell!?[END]
 </t>
@@ -26010,12 +26010,12 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>1616F</t>
+          <t>1616E</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>1617A</t>
+          <t>16179</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
@@ -26027,7 +26027,7 @@
         <v>11</v>
       </c>
       <c r="H640" t="n">
-        <v>90479</v>
+        <v>90478</v>
       </c>
     </row>
     <row r="641">
@@ -26036,7 +26036,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1617A
+          <t xml:space="preserve">//Text $16179
 #WRITE(ptr,$5E60)
 [Philia]'s Glasses - 2[END]
 </t>
@@ -26050,12 +26050,12 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>1617A</t>
+          <t>16179</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>1618E</t>
+          <t>1618D</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
@@ -26067,7 +26067,7 @@
         <v>20</v>
       </c>
       <c r="H641" t="n">
-        <v>90490</v>
+        <v>90489</v>
       </c>
     </row>
     <row r="642">
@@ -26076,7 +26076,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1618E
+          <t xml:space="preserve">//Text $1618D
 #WRITE(ptr,$5E64)
 Thirsty[END]
 </t>
@@ -26090,12 +26090,12 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>1618E</t>
+          <t>1618D</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>16196</t>
+          <t>16195</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
@@ -26107,7 +26107,7 @@
         <v>8</v>
       </c>
       <c r="H642" t="n">
-        <v>90510</v>
+        <v>90509</v>
       </c>
     </row>
     <row r="643">
@@ -26116,7 +26116,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16196
+          <t xml:space="preserve">//Text $16195
 #WRITE(ptr,$5E68)
 [Philia]'s Shampoo[END]
 </t>
@@ -26130,12 +26130,12 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>16196</t>
+          <t>16195</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>161A6</t>
+          <t>161A5</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
@@ -26147,7 +26147,7 @@
         <v>16</v>
       </c>
       <c r="H643" t="n">
-        <v>90518</v>
+        <v>90517</v>
       </c>
     </row>
     <row r="644">
@@ -26156,7 +26156,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161A6
+          <t xml:space="preserve">//Text $161A5
 #WRITE(ptr,$5E6C)
 Pow Hammer![END]
 </t>
@@ -26170,12 +26170,12 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>161A6</t>
+          <t>161A5</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>161B2</t>
+          <t>161B1</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
@@ -26187,7 +26187,7 @@
         <v>12</v>
       </c>
       <c r="H644" t="n">
-        <v>90534</v>
+        <v>90533</v>
       </c>
     </row>
     <row r="645">
@@ -26196,7 +26196,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161B2
+          <t xml:space="preserve">//Text $161B1
 #WRITE(ptr,$5E70)
 Onigiri[END]
 </t>
@@ -26210,12 +26210,12 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>161B2</t>
+          <t>161B1</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>161BA</t>
+          <t>161B9</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -26227,7 +26227,7 @@
         <v>8</v>
       </c>
       <c r="H645" t="n">
-        <v>90546</v>
+        <v>90545</v>
       </c>
     </row>
     <row r="646">
@@ -26236,7 +26236,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161BA
+          <t xml:space="preserve">//Text $161B9
 #WRITE(ptr,$5E74)
 Hamburger[END]
 </t>
@@ -26250,12 +26250,12 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>161BA</t>
+          <t>161B9</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>161C4</t>
+          <t>161C3</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
@@ -26267,7 +26267,7 @@
         <v>10</v>
       </c>
       <c r="H646" t="n">
-        <v>90554</v>
+        <v>90553</v>
       </c>
     </row>
     <row r="647">
@@ -26276,7 +26276,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161C4
+          <t xml:space="preserve">//Text $161C3
 #WRITE(ptr,$5E78)
 To the Village of Harmentz[END]
 </t>
@@ -26290,12 +26290,12 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>161C4</t>
+          <t>161C3</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>161DF</t>
+          <t>161DE</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
@@ -26307,7 +26307,7 @@
         <v>27</v>
       </c>
       <c r="H647" t="n">
-        <v>90564</v>
+        <v>90563</v>
       </c>
     </row>
     <row r="648">
@@ -26316,7 +26316,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161DF
+          <t xml:space="preserve">//Text $161DE
 #WRITE(ptr,$5E7C)
 Harmentz is West of Darilsheid[END]
 </t>
@@ -26330,12 +26330,12 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>161DF</t>
+          <t>161DE</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>161FE</t>
+          <t>161FD</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -26347,7 +26347,7 @@
         <v>31</v>
       </c>
       <c r="H648" t="n">
-        <v>90591</v>
+        <v>90590</v>
       </c>
     </row>
     <row r="649">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161FE
+          <t xml:space="preserve">//Text $161FD
 #WRITE(ptr,$5E80)
 No Business at the Castle[END]
 </t>
@@ -26370,12 +26370,12 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>161FE</t>
+          <t>161FD</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>16218</t>
+          <t>16217</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
@@ -26387,7 +26387,7 @@
         <v>26</v>
       </c>
       <c r="H649" t="n">
-        <v>90622</v>
+        <v>90621</v>
       </c>
     </row>
     <row r="650">
@@ -26396,7 +26396,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16218
+          <t xml:space="preserve">//Text $16217
 #WRITE(ptr,$5E84)
 Let's go to Harmentz[END]
 </t>
@@ -26410,12 +26410,12 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>16218</t>
+          <t>16217</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>1622D</t>
+          <t>1622C</t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
@@ -26427,7 +26427,7 @@
         <v>21</v>
       </c>
       <c r="H650" t="n">
-        <v>90648</v>
+        <v>90647</v>
       </c>
     </row>
     <row r="651">
@@ -26436,7 +26436,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1622D
+          <t xml:space="preserve">//Text $1622C
 #WRITE(ptr,$5E88)
 Let's Return to Darilsheid[END]
 </t>
@@ -26450,12 +26450,12 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>1622D</t>
+          <t>1622C</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>16248</t>
+          <t>16247</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
@@ -26467,7 +26467,7 @@
         <v>27</v>
       </c>
       <c r="H651" t="n">
-        <v>90669</v>
+        <v>90668</v>
       </c>
     </row>
     <row r="652">
@@ -26476,7 +26476,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16248
+          <t xml:space="preserve">//Text $16247
 #WRITE(ptr,$5E8C)
 Darilsheid is East of Harmentz[END]
 </t>
@@ -26490,12 +26490,12 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>16248</t>
+          <t>16247</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>16267</t>
+          <t>16266</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
@@ -26507,7 +26507,7 @@
         <v>31</v>
       </c>
       <c r="H652" t="n">
-        <v>90696</v>
+        <v>90695</v>
       </c>
     </row>
     <row r="653">
@@ -26516,7 +26516,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16267
+          <t xml:space="preserve">//Text $16266
 #WRITE(ptr,$5E90)
 To the King at Seinegald Castle[END]
 </t>
@@ -26530,12 +26530,12 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>16267</t>
+          <t>16266</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>16287</t>
+          <t>16286</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
@@ -26547,7 +26547,7 @@
         <v>32</v>
       </c>
       <c r="H653" t="n">
-        <v>90727</v>
+        <v>90726</v>
       </c>
     </row>
     <row r="654">
@@ -26556,7 +26556,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16287
+          <t xml:space="preserve">//Text $16286
 #WRITE(ptr,$5E94)
 To the Seinegald Castle Dungeon[END]
 </t>
@@ -26570,12 +26570,12 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>16287</t>
+          <t>16286</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>162A7</t>
+          <t>162A6</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
@@ -26587,7 +26587,7 @@
         <v>32</v>
       </c>
       <c r="H654" t="n">
-        <v>90759</v>
+        <v>90758</v>
       </c>
     </row>
     <row r="655">
@@ -26596,7 +26596,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $162A7
+          <t xml:space="preserve">//Text $162A6
 #WRITE(ptr,$5E98)
 Let's Return to the Manor[END]
 </t>
@@ -26610,12 +26610,12 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>162A7</t>
+          <t>162A6</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>162C1</t>
+          <t>162C0</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
@@ -26627,7 +26627,7 @@
         <v>26</v>
       </c>
       <c r="H655" t="n">
-        <v>90791</v>
+        <v>90790</v>
       </c>
     </row>
     <row r="656">
@@ -26636,7 +26636,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $162C1
+          <t xml:space="preserve">//Text $162C0
 #WRITE(ptr,$5E9C)
 Let's Return to the Manor[END]
 </t>
@@ -26650,12 +26650,12 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>162C1</t>
+          <t>162C0</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>162DB</t>
+          <t>162DA</t>
         </is>
       </c>
       <c r="F656" t="inlineStr">
@@ -26667,7 +26667,7 @@
         <v>26</v>
       </c>
       <c r="H656" t="n">
-        <v>90817</v>
+        <v>90816</v>
       </c>
     </row>
     <row r="657">
@@ -26676,7 +26676,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $162DB
+          <t xml:space="preserve">//Text $162DA
 #WRITE(ptr,$5EA0)
 Straylize Temple Is North of Darilsheid[END]
 </t>
@@ -26690,12 +26690,12 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>162DB</t>
+          <t>162DA</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>16303</t>
+          <t>16302</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
@@ -26707,7 +26707,7 @@
         <v>40</v>
       </c>
       <c r="H657" t="n">
-        <v>90843</v>
+        <v>90842</v>
       </c>
     </row>
     <row r="658">
@@ -26716,7 +26716,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16303
+          <t xml:space="preserve">//Text $16302
 #WRITE(ptr,$5EA4)
 To the Temple Interior[END]
 </t>
@@ -26730,12 +26730,12 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>16303</t>
+          <t>16302</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>1631A</t>
+          <t>16319</t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
@@ -26747,7 +26747,7 @@
         <v>23</v>
       </c>
       <c r="H658" t="n">
-        <v>90883</v>
+        <v>90882</v>
       </c>
     </row>
     <row r="659">
@@ -26756,7 +26756,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1631A
+          <t xml:space="preserve">//Text $16319
 #WRITE(ptr,$5EA8)
 To the Cathedral[END]
 </t>
@@ -26770,12 +26770,12 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>1631A</t>
+          <t>16319</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>1632B</t>
+          <t>1632A</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -26787,7 +26787,7 @@
         <v>17</v>
       </c>
       <c r="H659" t="n">
-        <v>90906</v>
+        <v>90905</v>
       </c>
     </row>
     <row r="660">
@@ -26796,7 +26796,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1632B
+          <t xml:space="preserve">//Text $1632A
 #WRITE(ptr,$5EAC)
 Further Within the Hidden Passage[END]
 </t>
@@ -26810,12 +26810,12 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>1632B</t>
+          <t>1632A</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>1634D</t>
+          <t>1634C</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
@@ -26827,7 +26827,7 @@
         <v>34</v>
       </c>
       <c r="H660" t="n">
-        <v>90923</v>
+        <v>90922</v>
       </c>
     </row>
     <row r="661">
@@ -26836,7 +26836,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1634D
+          <t xml:space="preserve">//Text $1634C
 #WRITE(ptr,$5EB0)
 To Darilsheid[END]
 </t>
@@ -26850,12 +26850,12 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>1634D</t>
+          <t>1634C</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>1635B</t>
+          <t>1635A</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
@@ -26867,7 +26867,7 @@
         <v>14</v>
       </c>
       <c r="H661" t="n">
-        <v>90957</v>
+        <v>90956</v>
       </c>
     </row>
     <row r="662">
@@ -26876,7 +26876,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1635B
+          <t xml:space="preserve">//Text $1635A
 #WRITE(ptr,$5EB4)
 To the Harbor[END]
 </t>
@@ -26890,12 +26890,12 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>1635B</t>
+          <t>1635A</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>16369</t>
+          <t>16368</t>
         </is>
       </c>
       <c r="F662" t="inlineStr">
@@ -26907,7 +26907,7 @@
         <v>14</v>
       </c>
       <c r="H662" t="n">
-        <v>90971</v>
+        <v>90970</v>
       </c>
     </row>
     <row r="663">
@@ -26916,7 +26916,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16369
+          <t xml:space="preserve">//Text $16368
 #WRITE(ptr,$5EB8)
 Hurry to the Harbor[END]
 </t>
@@ -26930,12 +26930,12 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>16369</t>
+          <t>16368</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>1637D</t>
+          <t>1637C</t>
         </is>
       </c>
       <c r="F663" t="inlineStr">
@@ -26947,7 +26947,7 @@
         <v>20</v>
       </c>
       <c r="H663" t="n">
-        <v>90985</v>
+        <v>90984</v>
       </c>
     </row>
     <row r="664">
@@ -26956,7 +26956,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1637D
+          <t xml:space="preserve">//Text $1637C
 #WRITE(ptr,$5EBC)
 Before the King of Seinegald[END]
 </t>
@@ -26970,12 +26970,12 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>1637D</t>
+          <t>1637C</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>1639A</t>
+          <t>16399</t>
         </is>
       </c>
       <c r="F664" t="inlineStr">
@@ -26987,7 +26987,7 @@
         <v>29</v>
       </c>
       <c r="H664" t="n">
-        <v>91005</v>
+        <v>91004</v>
       </c>
     </row>
     <row r="665">
@@ -26996,7 +26996,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1639A
+          <t xml:space="preserve">//Text $16399
 #WRITE(ptr,$5EC0)
 Report to His Majesty[END]
 </t>
@@ -27010,12 +27010,12 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>1639A</t>
+          <t>16399</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>163B0</t>
+          <t>163AF</t>
         </is>
       </c>
       <c r="F665" t="inlineStr">
@@ -27027,7 +27027,7 @@
         <v>22</v>
       </c>
       <c r="H665" t="n">
-        <v>91034</v>
+        <v>91033</v>
       </c>
     </row>
     <row r="666">
@@ -27036,7 +27036,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $163B0
+          <t xml:space="preserve">//Text $163AF
 #WRITE(ptr,$5EC4)
 I Should Say Goodbye..[END]
 </t>
@@ -27050,12 +27050,12 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>163B0</t>
+          <t>163AF</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>163C7</t>
+          <t>163C6</t>
         </is>
       </c>
       <c r="F666" t="inlineStr">
@@ -27067,7 +27067,7 @@
         <v>23</v>
       </c>
       <c r="H666" t="n">
-        <v>91056</v>
+        <v>91055</v>
       </c>
     </row>
     <row r="667">
@@ -27076,7 +27076,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $163C7
+          <t xml:space="preserve">//Text $163C6
 #WRITE(ptr,$5EC8)
 To Where [Marian] Is...[END]
 </t>
@@ -27090,12 +27090,12 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>163C7</t>
+          <t>163C6</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>163DC</t>
+          <t>163DB</t>
         </is>
       </c>
       <c r="F667" t="inlineStr">
@@ -27107,7 +27107,7 @@
         <v>21</v>
       </c>
       <c r="H667" t="n">
-        <v>91079</v>
+        <v>91078</v>
       </c>
     </row>
     <row r="668">
@@ -27116,7 +27116,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $163DC
+          <t xml:space="preserve">//Text $163DB
 #WRITE(ptr,$5ECC)
 Let's Go to the Harbor[END]
 </t>
@@ -27130,12 +27130,12 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>163DC</t>
+          <t>163DB</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>163F3</t>
+          <t>163F2</t>
         </is>
       </c>
       <c r="F668" t="inlineStr">
@@ -27147,7 +27147,7 @@
         <v>23</v>
       </c>
       <c r="H668" t="n">
-        <v>91100</v>
+        <v>91099</v>
       </c>
     </row>
     <row r="669">
@@ -27156,7 +27156,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $163F3
+          <t xml:space="preserve">//Text $163F2
 #WRITE(ptr,$5ED0)
 To the Inn for Now[END]
 </t>
@@ -27170,12 +27170,12 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>163F3</t>
+          <t>163F2</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>16406</t>
+          <t>16405</t>
         </is>
       </c>
       <c r="F669" t="inlineStr">
@@ -27187,7 +27187,7 @@
         <v>19</v>
       </c>
       <c r="H669" t="n">
-        <v>91123</v>
+        <v>91122</v>
       </c>
     </row>
     <row r="670">
@@ -27196,7 +27196,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16406
+          <t xml:space="preserve">//Text $16405
 #WRITE(ptr,$5ED4)
 Let's Look Around Town[END]
 </t>
@@ -27210,12 +27210,12 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>16406</t>
+          <t>16405</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>1641D</t>
+          <t>1641C</t>
         </is>
       </c>
       <c r="F670" t="inlineStr">
@@ -27227,7 +27227,7 @@
         <v>23</v>
       </c>
       <c r="H670" t="n">
-        <v>91142</v>
+        <v>91141</v>
       </c>
     </row>
     <row r="671">
@@ -27236,7 +27236,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1641D
+          <t xml:space="preserve">//Text $1641C
 #WRITE(ptr,$5ED8)
 It's Dangerous Outside![END]
 </t>
@@ -27250,12 +27250,12 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>1641D</t>
+          <t>1641C</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>16435</t>
+          <t>16434</t>
         </is>
       </c>
       <c r="F671" t="inlineStr">
@@ -27267,7 +27267,7 @@
         <v>24</v>
       </c>
       <c r="H671" t="n">
-        <v>91165</v>
+        <v>91164</v>
       </c>
     </row>
     <row r="672">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16435
+          <t xml:space="preserve">//Text $16434
 #WRITE(ptr,$5EDC)
 Let's Head Back to the Inn Soon[END]
 </t>
@@ -27290,12 +27290,12 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>16435</t>
+          <t>16434</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>16455</t>
+          <t>16454</t>
         </is>
       </c>
       <c r="F672" t="inlineStr">
@@ -27307,7 +27307,7 @@
         <v>32</v>
       </c>
       <c r="H672" t="n">
-        <v>91189</v>
+        <v>91188</v>
       </c>
     </row>
     <row r="673">
@@ -27316,7 +27316,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16455
+          <t xml:space="preserve">//Text $16454
 #WRITE(ptr,$5EE0)
 Go to the Temple's Back Door![END]
 </t>
@@ -27330,12 +27330,12 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>16455</t>
+          <t>16454</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>16473</t>
+          <t>16472</t>
         </is>
       </c>
       <c r="F673" t="inlineStr">
@@ -27347,7 +27347,7 @@
         <v>30</v>
       </c>
       <c r="H673" t="n">
-        <v>91221</v>
+        <v>91220</v>
       </c>
     </row>
     <row r="674">
@@ -27356,7 +27356,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16473
+          <t xml:space="preserve">//Text $16472
 #WRITE(ptr,$5EE4)
 Chase After [Greybum][END]
 </t>
@@ -27370,12 +27370,12 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>16473</t>
+          <t>16472</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>16485</t>
+          <t>16484</t>
         </is>
       </c>
       <c r="F674" t="inlineStr">
@@ -27387,7 +27387,7 @@
         <v>18</v>
       </c>
       <c r="H674" t="n">
-        <v>91251</v>
+        <v>91250</v>
       </c>
     </row>
     <row r="675">
@@ -27396,7 +27396,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16485
+          <t xml:space="preserve">//Text $16484
 #WRITE(ptr,$5EE8)
 To the Front Door[END]
 </t>
@@ -27410,12 +27410,12 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>16485</t>
+          <t>16484</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>16497</t>
+          <t>16496</t>
         </is>
       </c>
       <c r="F675" t="inlineStr">
@@ -27427,7 +27427,7 @@
         <v>18</v>
       </c>
       <c r="H675" t="n">
-        <v>91269</v>
+        <v>91268</v>
       </c>
     </row>
     <row r="676">
@@ -27436,7 +27436,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16497
+          <t xml:space="preserve">//Text $16496
 #WRITE(ptr,$5EEC)
 In Search of the Softy Kreem Stand[END]
 </t>
@@ -27450,12 +27450,12 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>16497</t>
+          <t>16496</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>164BA</t>
+          <t>164B9</t>
         </is>
       </c>
       <c r="F676" t="inlineStr">
@@ -27467,7 +27467,7 @@
         <v>35</v>
       </c>
       <c r="H676" t="n">
-        <v>91287</v>
+        <v>91286</v>
       </c>
     </row>
     <row r="677">
@@ -27476,7 +27476,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $164BA
+          <t xml:space="preserve">//Text $164B9
 #WRITE(ptr,$5EF0)
 We're Not Going Out of Town[END]
 </t>
@@ -27490,12 +27490,12 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>164BA</t>
+          <t>164B9</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>164D6</t>
+          <t>164D5</t>
         </is>
       </c>
       <c r="F677" t="inlineStr">
@@ -27507,7 +27507,7 @@
         <v>28</v>
       </c>
       <c r="H677" t="n">
-        <v>91322</v>
+        <v>91321</v>
       </c>
     </row>
     <row r="678">
@@ -27516,7 +27516,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $164D6
+          <t xml:space="preserve">//Text $164D5
 #WRITE(ptr,$5EF4)
 From the Harbor to the Armada[END]
 </t>
@@ -27530,12 +27530,12 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>164D6</t>
+          <t>164D5</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>164F4</t>
+          <t>164F3</t>
         </is>
       </c>
       <c r="F678" t="inlineStr">
@@ -27547,7 +27547,7 @@
         <v>30</v>
       </c>
       <c r="H678" t="n">
-        <v>91350</v>
+        <v>91349</v>
       </c>
     </row>
     <row r="679">
@@ -27556,7 +27556,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $164F4
+          <t xml:space="preserve">//Text $164F3
 #WRITE(ptr,$5EF8)
 My Target is Greybum[END]
 </t>
@@ -27570,12 +27570,12 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>164F4</t>
+          <t>164F3</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>16509</t>
+          <t>16508</t>
         </is>
       </c>
       <c r="F679" t="inlineStr">
@@ -27587,7 +27587,7 @@
         <v>21</v>
       </c>
       <c r="H679" t="n">
-        <v>91380</v>
+        <v>91379</v>
       </c>
     </row>
     <row r="680">
@@ -27596,7 +27596,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16509
+          <t xml:space="preserve">//Text $16508
 #WRITE(ptr,$5EFC)
 We're Returning to Shiden[END]
 </t>
@@ -27610,12 +27610,12 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>16509</t>
+          <t>16508</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>16523</t>
+          <t>16522</t>
         </is>
       </c>
       <c r="F680" t="inlineStr">
@@ -27627,7 +27627,7 @@
         <v>26</v>
       </c>
       <c r="H680" t="n">
-        <v>91401</v>
+        <v>91400</v>
       </c>
     </row>
     <row r="681">
@@ -27636,7 +27636,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16523
+          <t xml:space="preserve">//Text $16522
 #WRITE(ptr,$5F00)
 We're Heading Back to Shiden[END]
 </t>
@@ -27650,12 +27650,12 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>16523</t>
+          <t>16522</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>16540</t>
+          <t>1653F</t>
         </is>
       </c>
       <c r="F681" t="inlineStr">
@@ -27667,7 +27667,7 @@
         <v>29</v>
       </c>
       <c r="H681" t="n">
-        <v>91427</v>
+        <v>91426</v>
       </c>
     </row>
     <row r="682">
@@ -27676,7 +27676,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16540
+          <t xml:space="preserve">//Text $1653F
 #WRITE(ptr,$5F04)
 Let's Find Some Rope[END]
 </t>
@@ -27690,12 +27690,12 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>16540</t>
+          <t>1653F</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>16555</t>
+          <t>16554</t>
         </is>
       </c>
       <c r="F682" t="inlineStr">
@@ -27707,7 +27707,7 @@
         <v>21</v>
       </c>
       <c r="H682" t="n">
-        <v>91456</v>
+        <v>91455</v>
       </c>
     </row>
     <row r="683">
@@ -27716,7 +27716,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16555
+          <t xml:space="preserve">//Text $16554
 #WRITE(ptr,$5F08)
 Let's Explore Moreau[END]
 </t>
@@ -27730,12 +27730,12 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>16555</t>
+          <t>16554</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>1656A</t>
+          <t>16569</t>
         </is>
       </c>
       <c r="F683" t="inlineStr">
@@ -27747,7 +27747,7 @@
         <v>21</v>
       </c>
       <c r="H683" t="n">
-        <v>91477</v>
+        <v>91476</v>
       </c>
     </row>
     <row r="684">
@@ -27756,7 +27756,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1656A
+          <t xml:space="preserve">//Text $16569
 #WRITE(ptr,$5F0C)
 To Seinegald Castle[END]
 </t>
@@ -27770,12 +27770,12 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>1656A</t>
+          <t>16569</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>1657E</t>
+          <t>1657D</t>
         </is>
       </c>
       <c r="F684" t="inlineStr">
@@ -27787,7 +27787,7 @@
         <v>20</v>
       </c>
       <c r="H684" t="n">
-        <v>91498</v>
+        <v>91497</v>
       </c>
     </row>
     <row r="685">
@@ -27796,7 +27796,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1657E
+          <t xml:space="preserve">//Text $1657D
 #WRITE(ptr,$5F10)
 Let's Head to Harmentz[END]
 </t>
@@ -27810,12 +27810,12 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>1657E</t>
+          <t>1657D</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>16595</t>
+          <t>16594</t>
         </is>
       </c>
       <c r="F685" t="inlineStr">
@@ -27827,7 +27827,7 @@
         <v>23</v>
       </c>
       <c r="H685" t="n">
-        <v>91518</v>
+        <v>91517</v>
       </c>
     </row>
     <row r="686">
@@ -27836,7 +27836,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16595
+          <t xml:space="preserve">//Text $16594
 #WRITE(ptr,$5F14)
 Harmentz is West of the Capital[END]
 </t>
@@ -27850,12 +27850,12 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>16595</t>
+          <t>16594</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>165B5</t>
+          <t>165B4</t>
         </is>
       </c>
       <c r="F686" t="inlineStr">
@@ -27867,7 +27867,7 @@
         <v>32</v>
       </c>
       <c r="H686" t="n">
-        <v>91541</v>
+        <v>91540</v>
       </c>
     </row>
     <row r="687">
@@ -27876,7 +27876,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $165B5
+          <t xml:space="preserve">//Text $165B4
 #WRITE(ptr,$5F18)
 To Straylize Temple[END]
 </t>
@@ -27890,12 +27890,12 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>165B5</t>
+          <t>165B4</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>165C9</t>
+          <t>165C8</t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
@@ -27907,7 +27907,7 @@
         <v>20</v>
       </c>
       <c r="H687" t="n">
-        <v>91573</v>
+        <v>91572</v>
       </c>
     </row>
     <row r="688">
@@ -27916,7 +27916,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $165C9
+          <t xml:space="preserve">//Text $165C8
 #WRITE(ptr,$5F1C)
 Let's Return to the Manor[END]
 </t>
@@ -27930,12 +27930,12 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>165C9</t>
+          <t>165C8</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>165E3</t>
+          <t>165E2</t>
         </is>
       </c>
       <c r="F688" t="inlineStr">
@@ -27947,7 +27947,7 @@
         <v>26</v>
       </c>
       <c r="H688" t="n">
-        <v>91593</v>
+        <v>91592</v>
       </c>
     </row>
     <row r="689">
@@ -27956,7 +27956,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $165E3
+          <t xml:space="preserve">//Text $165E2
 #WRITE(ptr,$5F20)
 Let's Return to the Manor[END]
 </t>
@@ -27970,12 +27970,12 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>165E3</t>
+          <t>165E2</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>165FD</t>
+          <t>165FC</t>
         </is>
       </c>
       <c r="F689" t="inlineStr">
@@ -27987,7 +27987,7 @@
         <v>26</v>
       </c>
       <c r="H689" t="n">
-        <v>91619</v>
+        <v>91618</v>
       </c>
     </row>
     <row r="690">
@@ -27996,7 +27996,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $165FD
+          <t xml:space="preserve">//Text $165FC
 #WRITE(ptr,$5F24)
 Visit the King at Seinegald Castle[END]
 </t>
@@ -28010,12 +28010,12 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>165FD</t>
+          <t>165FC</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>16620</t>
+          <t>1661F</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
@@ -28027,7 +28027,7 @@
         <v>35</v>
       </c>
       <c r="H690" t="n">
-        <v>91645</v>
+        <v>91644</v>
       </c>
     </row>
     <row r="691">
@@ -28036,7 +28036,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16620
+          <t xml:space="preserve">//Text $1661F
 #WRITE(ptr,$5F28)
 Go to Cresta, East of Darilsheid[END]
 </t>
@@ -28050,12 +28050,12 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>16620</t>
+          <t>1661F</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>16641</t>
+          <t>16640</t>
         </is>
       </c>
       <c r="F691" t="inlineStr">
@@ -28067,7 +28067,7 @@
         <v>33</v>
       </c>
       <c r="H691" t="n">
-        <v>91680</v>
+        <v>91679</v>
       </c>
     </row>
     <row r="692">
@@ -28076,7 +28076,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16641
+          <t xml:space="preserve">//Text $16640
 #WRITE(ptr,$5F2C)
 Cresta is East of Darilsheid[END]
 </t>
@@ -28090,12 +28090,12 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>16641</t>
+          <t>16640</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>1665E</t>
+          <t>1665D</t>
         </is>
       </c>
       <c r="F692" t="inlineStr">
@@ -28107,7 +28107,7 @@
         <v>29</v>
       </c>
       <c r="H692" t="n">
-        <v>91713</v>
+        <v>91712</v>
       </c>
     </row>
     <row r="693">
@@ -28116,7 +28116,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1665E
+          <t xml:space="preserve">//Text $1665D
 #WRITE(ptr,$5F30)
 Let's Find the Seinegald Soldiers in Cresta[END]
 </t>
@@ -28130,12 +28130,12 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>1665E</t>
+          <t>1665D</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>1668A</t>
+          <t>16689</t>
         </is>
       </c>
       <c r="F693" t="inlineStr">
@@ -28147,7 +28147,7 @@
         <v>44</v>
       </c>
       <c r="H693" t="n">
-        <v>91742</v>
+        <v>91741</v>
       </c>
     </row>
     <row r="694">
@@ -28156,7 +28156,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1668A
+          <t xml:space="preserve">//Text $16689
 #WRITE(ptr,$5F34)
 Let's Find the Orphanage[END]
 </t>
@@ -28170,12 +28170,12 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>1668A</t>
+          <t>16689</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>166A3</t>
+          <t>166A2</t>
         </is>
       </c>
       <c r="F694" t="inlineStr">
@@ -28187,7 +28187,7 @@
         <v>25</v>
       </c>
       <c r="H694" t="n">
-        <v>91786</v>
+        <v>91785</v>
       </c>
     </row>
     <row r="695">
@@ -28196,7 +28196,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $166A3
+          <t xml:space="preserve">//Text $166A2
 #WRITE(ptr,$5F38)
 Find the Beach North of Cresta[END]
 </t>
@@ -28210,12 +28210,12 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>166A3</t>
+          <t>166A2</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>166C2</t>
+          <t>166C1</t>
         </is>
       </c>
       <c r="F695" t="inlineStr">
@@ -28227,7 +28227,7 @@
         <v>31</v>
       </c>
       <c r="H695" t="n">
-        <v>91811</v>
+        <v>91810</v>
       </c>
     </row>
     <row r="696">
@@ -28236,7 +28236,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $166C2
+          <t xml:space="preserve">//Text $166C1
 #WRITE(ptr,$5F3C)
 Let's Debrief the Mission[END]
 </t>
@@ -28250,12 +28250,12 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>166C2</t>
+          <t>166C1</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>166DC</t>
+          <t>166DB</t>
         </is>
       </c>
       <c r="F696" t="inlineStr">
@@ -28267,7 +28267,7 @@
         <v>26</v>
       </c>
       <c r="H696" t="n">
-        <v>91842</v>
+        <v>91841</v>
       </c>
     </row>
     <row r="697">
@@ -28276,7 +28276,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $166DC
+          <t xml:space="preserve">//Text $166DB
 #WRITE(ptr,$5F40)
 No Business Outside[END]
 </t>
@@ -28290,12 +28290,12 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>166DC</t>
+          <t>166DB</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>166F0</t>
+          <t>166EF</t>
         </is>
       </c>
       <c r="F697" t="inlineStr">
@@ -28307,7 +28307,7 @@
         <v>20</v>
       </c>
       <c r="H697" t="n">
-        <v>91868</v>
+        <v>91867</v>
       </c>
     </row>
     <row r="698">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $166F0
+          <t xml:space="preserve">//Text $166EF
 #WRITE(ptr,$5F44)
 Let's Hurry Back to the Manor[END]
 </t>
@@ -28330,12 +28330,12 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>166F0</t>
+          <t>166EF</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>1670E</t>
+          <t>1670D</t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
@@ -28347,7 +28347,7 @@
         <v>30</v>
       </c>
       <c r="H698" t="n">
-        <v>91888</v>
+        <v>91887</v>
       </c>
     </row>
     <row r="699">
@@ -28356,7 +28356,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1670E
+          <t xml:space="preserve">//Text $1670D
 #WRITE(ptr,$5F48)
 We Need to Find [Marian][END]
 </t>
@@ -28370,12 +28370,12 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>1670E</t>
+          <t>1670D</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>16724</t>
+          <t>16723</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
@@ -28387,7 +28387,7 @@
         <v>22</v>
       </c>
       <c r="H699" t="n">
-        <v>91918</v>
+        <v>91917</v>
       </c>
     </row>
     <row r="700">
@@ -28396,7 +28396,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16724
+          <t xml:space="preserve">//Text $16723
 #WRITE(ptr,$5F4C)
 The Draconis is in the Castle[END]
 </t>
@@ -28410,12 +28410,12 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>16724</t>
+          <t>16723</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>16742</t>
+          <t>16741</t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
@@ -28427,7 +28427,7 @@
         <v>30</v>
       </c>
       <c r="H700" t="n">
-        <v>91940</v>
+        <v>91939</v>
       </c>
     </row>
     <row r="701">
@@ -28436,7 +28436,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16742
+          <t xml:space="preserve">//Text $16741
 #WRITE(ptr,$5F50)
 Let's hear Hugo's Orders[END]
 </t>
@@ -28450,12 +28450,12 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>16742</t>
+          <t>16741</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>1675B</t>
+          <t>1675A</t>
         </is>
       </c>
       <c r="F701" t="inlineStr">
@@ -28467,7 +28467,7 @@
         <v>25</v>
       </c>
       <c r="H701" t="n">
-        <v>91970</v>
+        <v>91969</v>
       </c>
     </row>
     <row r="702">
@@ -28476,7 +28476,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1675B
+          <t xml:space="preserve">//Text $1675A
 #WRITE(ptr,$5F54)
 We'll Enter the Sealing Facility from Behind[END]
 </t>
@@ -28490,12 +28490,12 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>1675B</t>
+          <t>1675A</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>16788</t>
+          <t>16787</t>
         </is>
       </c>
       <c r="F702" t="inlineStr">
@@ -28507,7 +28507,7 @@
         <v>45</v>
       </c>
       <c r="H702" t="n">
-        <v>91995</v>
+        <v>91994</v>
       </c>
     </row>
     <row r="703">
@@ -28516,7 +28516,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16788
+          <t xml:space="preserve">//Text $16787
 #WRITE(ptr,$5F58)
 To the Sealing Facility[END]
 </t>
@@ -28530,12 +28530,12 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>16788</t>
+          <t>16787</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>167A0</t>
+          <t>1679F</t>
         </is>
       </c>
       <c r="F703" t="inlineStr">
@@ -28547,7 +28547,7 @@
         <v>24</v>
       </c>
       <c r="H703" t="n">
-        <v>92040</v>
+        <v>92039</v>
       </c>
     </row>
     <row r="704">
@@ -28556,7 +28556,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $167A0
+          <t xml:space="preserve">//Text $1679F
 #WRITE(ptr,$5F5C)
 To the Depths[END]
 </t>
@@ -28570,12 +28570,12 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>167A0</t>
+          <t>1679F</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>167AE</t>
+          <t>167AD</t>
         </is>
       </c>
       <c r="F704" t="inlineStr">
@@ -28587,7 +28587,7 @@
         <v>14</v>
       </c>
       <c r="H704" t="n">
-        <v>92064</v>
+        <v>92063</v>
       </c>
     </row>
     <row r="705">
@@ -28596,7 +28596,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $167AE
+          <t xml:space="preserve">//Text $167AD
 #WRITE(ptr,$5F60)
 Where's Hugo and the Others?[END]
 </t>
@@ -28610,12 +28610,12 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>167AE</t>
+          <t>167AD</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>167CB</t>
+          <t>167CA</t>
         </is>
       </c>
       <c r="F705" t="inlineStr">
@@ -28627,7 +28627,7 @@
         <v>29</v>
       </c>
       <c r="H705" t="n">
-        <v>92078</v>
+        <v>92077</v>
       </c>
     </row>
     <row r="706">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $167CB
+          <t xml:space="preserve">//Text $167CA
 #WRITE(ptr,$5F64)
 Sorcerer's Ring goes Boom[END]
 </t>
@@ -28650,12 +28650,12 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>167CB</t>
+          <t>167CA</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>167E5</t>
+          <t>167E4</t>
         </is>
       </c>
       <c r="F706" t="inlineStr">
@@ -28667,7 +28667,7 @@
         <v>26</v>
       </c>
       <c r="H706" t="n">
-        <v>92107</v>
+        <v>92106</v>
       </c>
     </row>
     <row r="707">
@@ -28676,7 +28676,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $167E5
+          <t xml:space="preserve">//Text $167E4
 #WRITE(ptr,$5F68)
 There's Still Places We Can Destroy[END]
 </t>
@@ -28690,12 +28690,12 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>167E5</t>
+          <t>167E4</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>16809</t>
+          <t>16808</t>
         </is>
       </c>
       <c r="F707" t="inlineStr">
@@ -28707,7 +28707,7 @@
         <v>36</v>
       </c>
       <c r="H707" t="n">
-        <v>92133</v>
+        <v>92132</v>
       </c>
     </row>
     <row r="708">
@@ -28716,7 +28716,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16809
+          <t xml:space="preserve">//Text $16808
 #WRITE(ptr,$5F6C)
 Not This Way[END]
 </t>
@@ -28730,12 +28730,12 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>16809</t>
+          <t>16808</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>16816</t>
+          <t>16815</t>
         </is>
       </c>
       <c r="F708" t="inlineStr">
@@ -28747,7 +28747,7 @@
         <v>13</v>
       </c>
       <c r="H708" t="n">
-        <v>92169</v>
+        <v>92168</v>
       </c>
     </row>
     <row r="709">
@@ -28756,7 +28756,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16816
+          <t xml:space="preserve">//Text $16815
 #WRITE(ptr,$5F70)
 We Can't Afford to Dawdle![END]
 </t>
@@ -28770,12 +28770,12 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>16816</t>
+          <t>16815</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>16831</t>
+          <t>16830</t>
         </is>
       </c>
       <c r="F709" t="inlineStr">
@@ -28787,7 +28787,7 @@
         <v>27</v>
       </c>
       <c r="H709" t="n">
-        <v>92182</v>
+        <v>92181</v>
       </c>
     </row>
     <row r="710">
@@ -28796,7 +28796,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16831
+          <t xml:space="preserve">//Text $16830
 #WRITE(ptr,$5F74)
 Let's Not Do That Now..[END]
 </t>
@@ -28810,12 +28810,12 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>16831</t>
+          <t>16830</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>16849</t>
+          <t>16848</t>
         </is>
       </c>
       <c r="F710" t="inlineStr">
@@ -28827,7 +28827,7 @@
         <v>24</v>
       </c>
       <c r="H710" t="n">
-        <v>92209</v>
+        <v>92208</v>
       </c>
     </row>
     <row r="711">
@@ -28836,7 +28836,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16849
+          <t xml:space="preserve">//Text $16848
 #WRITE(ptr,$5F78)
 Let's Go[END]
 </t>
@@ -28850,12 +28850,12 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>16849</t>
+          <t>16848</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>16852</t>
+          <t>16851</t>
         </is>
       </c>
       <c r="F711" t="inlineStr">
@@ -28867,7 +28867,7 @@
         <v>9</v>
       </c>
       <c r="H711" t="n">
-        <v>92233</v>
+        <v>92232</v>
       </c>
     </row>
     <row r="712">
@@ -28876,7 +28876,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16852
+          <t xml:space="preserve">//Text $16851
 #WRITE(ptr,$5F7C)
 I Have Somewhere Else to Be[END]
 </t>
@@ -28890,12 +28890,12 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>16852</t>
+          <t>16851</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>1686E</t>
+          <t>1686D</t>
         </is>
       </c>
       <c r="F712" t="inlineStr">
@@ -28907,7 +28907,7 @@
         <v>28</v>
       </c>
       <c r="H712" t="n">
-        <v>92242</v>
+        <v>92241</v>
       </c>
     </row>
   </sheetData>

--- a/patch/SLPS/scripts/temp_Prep.xlsx
+++ b/patch/SLPS/scripts/temp_Prep.xlsx
@@ -19118,13 +19118,13 @@
         <is>
           <t xml:space="preserve">//Text $154FA
 #WRITE(ptr,$5BAC)
-What We Need to Do Now[END]
+What I Need to Do Now[END]
 </t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t xml:space="preserve">What We Need to Do Now[END]
+          <t xml:space="preserve">What I Need to Do Now[END]
 </t>
         </is>
       </c>
@@ -19135,7 +19135,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>15511</t>
+          <t>15510</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -19144,7 +19144,7 @@
         </is>
       </c>
       <c r="G468" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H468" t="n">
         <v>87290</v>
@@ -19156,26 +19156,26 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15511
+          <t xml:space="preserve">//Text $15510
 #WRITE(ptr,$5BB0)
-Let's Get Our People[END]
+Let's Head Back to the Others[END]
 </t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t xml:space="preserve">Let's Get Our People[END]
+          <t xml:space="preserve">Let's Head Back to the Others[END]
 </t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>15511</t>
+          <t>15510</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>15526</t>
+          <t>1552E</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
@@ -19184,10 +19184,10 @@
         </is>
       </c>
       <c r="G469" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H469" t="n">
-        <v>87313</v>
+        <v>87312</v>
       </c>
     </row>
     <row r="470">
@@ -19196,7 +19196,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15526
+          <t xml:space="preserve">//Text $1552E
 #WRITE(ptr,$5BB4)
 Getting to the Lens Cannon[END]
 </t>
@@ -19210,12 +19210,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>15526</t>
+          <t>1552E</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>15541</t>
+          <t>15549</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
@@ -19227,7 +19227,7 @@
         <v>27</v>
       </c>
       <c r="H470" t="n">
-        <v>87334</v>
+        <v>87342</v>
       </c>
     </row>
     <row r="471">
@@ -19236,7 +19236,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15541
+          <t xml:space="preserve">//Text $15549
 #WRITE(ptr,$5BB8)
 To the Lens Cannon[END]
 </t>
@@ -19250,12 +19250,12 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>15541</t>
+          <t>15549</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>15554</t>
+          <t>1555C</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
@@ -19267,7 +19267,7 @@
         <v>19</v>
       </c>
       <c r="H471" t="n">
-        <v>87361</v>
+        <v>87369</v>
       </c>
     </row>
     <row r="472">
@@ -19276,7 +19276,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15554
+          <t xml:space="preserve">//Text $1555C
 #WRITE(ptr,$5BBC)
 Let's Go to the Dycroft![END]
 </t>
@@ -19290,12 +19290,12 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>15554</t>
+          <t>1555C</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>1556D</t>
+          <t>15575</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -19307,7 +19307,7 @@
         <v>25</v>
       </c>
       <c r="H472" t="n">
-        <v>87380</v>
+        <v>87388</v>
       </c>
     </row>
     <row r="473">
@@ -19316,7 +19316,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1556D
+          <t xml:space="preserve">//Text $15575
 #WRITE(ptr,$5BC0)
 To Dycroft![END]
 </t>
@@ -19330,12 +19330,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>1556D</t>
+          <t>15575</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>15579</t>
+          <t>15581</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -19347,7 +19347,7 @@
         <v>12</v>
       </c>
       <c r="H473" t="n">
-        <v>87405</v>
+        <v>87413</v>
       </c>
     </row>
     <row r="474">
@@ -19356,7 +19356,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15579
+          <t xml:space="preserve">//Text $15581
 #WRITE(ptr,$5BC4)
 Let's Stay in Town[END]
 </t>
@@ -19370,12 +19370,12 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>15579</t>
+          <t>15581</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>1558C</t>
+          <t>15594</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
@@ -19387,7 +19387,7 @@
         <v>19</v>
       </c>
       <c r="H474" t="n">
-        <v>87417</v>
+        <v>87425</v>
       </c>
     </row>
     <row r="475">
@@ -19396,7 +19396,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1558C
+          <t xml:space="preserve">//Text $15594
 #WRITE(ptr,$5BC8)
 It's Better to Go Now..[END]
 </t>
@@ -19410,12 +19410,12 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>1558C</t>
+          <t>15594</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>155A4</t>
+          <t>155AC</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -19427,7 +19427,7 @@
         <v>24</v>
       </c>
       <c r="H475" t="n">
-        <v>87436</v>
+        <v>87444</v>
       </c>
     </row>
     <row r="476">
@@ -19436,7 +19436,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $155A4
+          <t xml:space="preserve">//Text $155AC
 #WRITE(ptr,$5BCC)
 Where are You Going?[END]
 </t>
@@ -19450,12 +19450,12 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>155A4</t>
+          <t>155AC</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>155B9</t>
+          <t>155C1</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -19467,7 +19467,7 @@
         <v>21</v>
       </c>
       <c r="H476" t="n">
-        <v>87460</v>
+        <v>87468</v>
       </c>
     </row>
     <row r="477">
@@ -19476,7 +19476,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $155B9
+          <t xml:space="preserve">//Text $155C1
 #WRITE(ptr,$5BD0)
 It Happens Tomorrow[END]
 </t>
@@ -19490,12 +19490,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>155B9</t>
+          <t>155C1</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>155CD</t>
+          <t>155D5</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -19507,7 +19507,7 @@
         <v>20</v>
       </c>
       <c r="H477" t="n">
-        <v>87481</v>
+        <v>87489</v>
       </c>
     </row>
     <row r="478">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $155CD
+          <t xml:space="preserve">//Text $155D5
 #WRITE(ptr,$5BD4)
 Let's Take Down [Miktran]![END]
 </t>
@@ -19530,12 +19530,12 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>155CD</t>
+          <t>155D5</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>155E4</t>
+          <t>155EC</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -19547,7 +19547,7 @@
         <v>23</v>
       </c>
       <c r="H478" t="n">
-        <v>87501</v>
+        <v>87509</v>
       </c>
     </row>
     <row r="479">
@@ -19556,7 +19556,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $155E4
+          <t xml:space="preserve">//Text $155EC
 #WRITE(ptr,$5BD8)
 We're going to Beat [Miktran]![END]
 </t>
@@ -19570,12 +19570,12 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>155E4</t>
+          <t>155EC</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>155FF</t>
+          <t>15607</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
@@ -19587,7 +19587,7 @@
         <v>27</v>
       </c>
       <c r="H479" t="n">
-        <v>87524</v>
+        <v>87532</v>
       </c>
     </row>
     <row r="480">
@@ -19596,7 +19596,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $155FF
+          <t xml:space="preserve">//Text $15607
 #WRITE(ptr,$5BDC)
 Keep Pushing Onward![END]
 </t>
@@ -19610,12 +19610,12 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>155FF</t>
+          <t>15607</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>15614</t>
+          <t>1561C</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
@@ -19627,7 +19627,7 @@
         <v>21</v>
       </c>
       <c r="H480" t="n">
-        <v>87551</v>
+        <v>87559</v>
       </c>
     </row>
     <row r="481">
@@ -19636,7 +19636,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15614
+          <t xml:space="preserve">//Text $1561C
 #WRITE(ptr,$5BE0)
 At All Costs![END]
 </t>
@@ -19650,12 +19650,12 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>15614</t>
+          <t>1561C</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>15622</t>
+          <t>1562A</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
@@ -19667,7 +19667,7 @@
         <v>14</v>
       </c>
       <c r="H481" t="n">
-        <v>87572</v>
+        <v>87580</v>
       </c>
     </row>
     <row r="482">
@@ -19676,7 +19676,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15622
+          <t xml:space="preserve">//Text $1562A
 #WRITE(ptr,$5BE4)
 Hurry![END]
 </t>
@@ -19690,12 +19690,12 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>15622</t>
+          <t>1562A</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>15629</t>
+          <t>15631</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -19707,7 +19707,7 @@
         <v>7</v>
       </c>
       <c r="H482" t="n">
-        <v>87586</v>
+        <v>87594</v>
       </c>
     </row>
     <row r="483">
@@ -19716,7 +19716,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15629
+          <t xml:space="preserve">//Text $15631
 #WRITE(ptr,$5BE8)
 With All Our Might![END]
 </t>
@@ -19730,12 +19730,12 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>15629</t>
+          <t>15631</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>1563D</t>
+          <t>15645</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -19747,7 +19747,7 @@
         <v>20</v>
       </c>
       <c r="H483" t="n">
-        <v>87593</v>
+        <v>87601</v>
       </c>
     </row>
     <row r="484">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1563D
+          <t xml:space="preserve">//Text $15645
 #WRITE(ptr,$5BEC)
 Take Him Down![END]
 </t>
@@ -19770,12 +19770,12 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>1563D</t>
+          <t>15645</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>1564C</t>
+          <t>15654</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
@@ -19787,7 +19787,7 @@
         <v>15</v>
       </c>
       <c r="H484" t="n">
-        <v>87613</v>
+        <v>87621</v>
       </c>
     </row>
     <row r="485">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1564C
+          <t xml:space="preserve">//Text $15654
 #WRITE(ptr,$5BF0)
 Let's Finish Him Off![END]
 </t>
@@ -19810,12 +19810,12 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>1564C</t>
+          <t>15654</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>15662</t>
+          <t>1566A</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
@@ -19827,7 +19827,7 @@
         <v>22</v>
       </c>
       <c r="H485" t="n">
-        <v>87628</v>
+        <v>87636</v>
       </c>
     </row>
     <row r="486">
@@ -19836,7 +19836,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15662
+          <t xml:space="preserve">//Text $1566A
 #WRITE(ptr,$5BF4)
 We're Going to Take Him Down![END]
 </t>
@@ -19850,12 +19850,12 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>15662</t>
+          <t>1566A</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>15680</t>
+          <t>15688</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
@@ -19867,7 +19867,7 @@
         <v>30</v>
       </c>
       <c r="H486" t="n">
-        <v>87650</v>
+        <v>87658</v>
       </c>
     </row>
     <row r="487">
@@ -19876,7 +19876,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15680
+          <t xml:space="preserve">//Text $15688
 #WRITE(ptr,$5BF8)
 It's Going to Blow![END]
 </t>
@@ -19890,12 +19890,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>15680</t>
+          <t>15688</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>15694</t>
+          <t>1569C</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -19907,7 +19907,7 @@
         <v>20</v>
       </c>
       <c r="H487" t="n">
-        <v>87680</v>
+        <v>87688</v>
       </c>
     </row>
     <row r="488">
@@ -19916,7 +19916,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15694
+          <t xml:space="preserve">//Text $1569C
 #WRITE(ptr,$5BFC)
 To Dycroft![END]
 </t>
@@ -19930,12 +19930,12 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>15694</t>
+          <t>1569C</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>156A0</t>
+          <t>156A8</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -19947,7 +19947,7 @@
         <v>12</v>
       </c>
       <c r="H488" t="n">
-        <v>87700</v>
+        <v>87708</v>
       </c>
     </row>
     <row r="489">
@@ -19956,7 +19956,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $156A0
+          <t xml:space="preserve">//Text $156A8
 #WRITE(ptr,$5C00)
 Enemy Headquarters[END]
 </t>
@@ -19970,12 +19970,12 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>156A0</t>
+          <t>156A8</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>156B3</t>
+          <t>156BB</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
@@ -19987,7 +19987,7 @@
         <v>19</v>
       </c>
       <c r="H489" t="n">
-        <v>87712</v>
+        <v>87720</v>
       </c>
     </row>
     <row r="490">
@@ -19996,7 +19996,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $156B3
+          <t xml:space="preserve">//Text $156BB
 #WRITE(ptr,$5C04)
 Stoping a Century Old Ambition[END]
 </t>
@@ -20010,12 +20010,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>156B3</t>
+          <t>156BB</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>156D2</t>
+          <t>156DA</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
@@ -20027,7 +20027,7 @@
         <v>31</v>
       </c>
       <c r="H490" t="n">
-        <v>87731</v>
+        <v>87739</v>
       </c>
     </row>
     <row r="491">
@@ -20036,7 +20036,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $156D2
+          <t xml:space="preserve">//Text $156DA
 #WRITE(ptr,$5C08)
 Restoring Light to the World[END]
 </t>
@@ -20050,12 +20050,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>156D2</t>
+          <t>156DA</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>156EF</t>
+          <t>156F7</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
@@ -20067,7 +20067,7 @@
         <v>29</v>
       </c>
       <c r="H491" t="n">
-        <v>87762</v>
+        <v>87770</v>
       </c>
     </row>
     <row r="492">
@@ -20076,7 +20076,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $156EF
+          <t xml:space="preserve">//Text $156F7
 #WRITE(ptr,$5C0C)
 Your Courage is Inspiring[END]
 </t>
@@ -20090,12 +20090,12 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>156EF</t>
+          <t>156F7</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>15709</t>
+          <t>15711</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
@@ -20107,7 +20107,7 @@
         <v>26</v>
       </c>
       <c r="H492" t="n">
-        <v>87791</v>
+        <v>87799</v>
       </c>
     </row>
     <row r="493">
@@ -20116,7 +20116,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15709
+          <t xml:space="preserve">//Text $15711
 #WRITE(ptr,$5C10)
 To the Leviathan[END]
 </t>
@@ -20130,12 +20130,12 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>15709</t>
+          <t>15711</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>1571A</t>
+          <t>15722</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
@@ -20147,7 +20147,7 @@
         <v>17</v>
       </c>
       <c r="H493" t="n">
-        <v>87817</v>
+        <v>87825</v>
       </c>
     </row>
     <row r="494">
@@ -20156,7 +20156,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1571A
+          <t xml:space="preserve">//Text $15722
 #WRITE(ptr,$5C14)
 Harsh Reality[END]
 </t>
@@ -20170,12 +20170,12 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>1571A</t>
+          <t>15722</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>15728</t>
+          <t>15730</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
@@ -20187,7 +20187,7 @@
         <v>14</v>
       </c>
       <c r="H494" t="n">
-        <v>87834</v>
+        <v>87842</v>
       </c>
     </row>
     <row r="495">
@@ -20196,7 +20196,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15728
+          <t xml:space="preserve">//Text $15730
 #WRITE(ptr,$5C18)
 I'm a Bit Nervous[END]
 </t>
@@ -20210,12 +20210,12 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>15728</t>
+          <t>15730</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>1573A</t>
+          <t>15742</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
@@ -20227,7 +20227,7 @@
         <v>18</v>
       </c>
       <c r="H495" t="n">
-        <v>87848</v>
+        <v>87856</v>
       </c>
     </row>
     <row r="496">
@@ -20236,7 +20236,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1573A
+          <t xml:space="preserve">//Text $15742
 #WRITE(ptr,$5C1C)
 Burning Glare[END]
 </t>
@@ -20250,12 +20250,12 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>1573A</t>
+          <t>15742</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>15748</t>
+          <t>15750</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
@@ -20267,7 +20267,7 @@
         <v>14</v>
       </c>
       <c r="H496" t="n">
-        <v>87866</v>
+        <v>87874</v>
       </c>
     </row>
     <row r="497">
@@ -20276,7 +20276,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15748
+          <t xml:space="preserve">//Text $15750
 #WRITE(ptr,$5C20)
 A More Intense Glare[END]
 </t>
@@ -20290,12 +20290,12 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>15748</t>
+          <t>15750</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>1575D</t>
+          <t>15765</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -20307,7 +20307,7 @@
         <v>21</v>
       </c>
       <c r="H497" t="n">
-        <v>87880</v>
+        <v>87888</v>
       </c>
     </row>
     <row r="498">
@@ -20316,7 +20316,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1575D
+          <t xml:space="preserve">//Text $15765
 #WRITE(ptr,$5C24)
 You're the Future Champion!?[END]
 </t>
@@ -20330,12 +20330,12 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>1575D</t>
+          <t>15765</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>1577A</t>
+          <t>15782</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -20347,7 +20347,7 @@
         <v>29</v>
       </c>
       <c r="H498" t="n">
-        <v>87901</v>
+        <v>87909</v>
       </c>
     </row>
     <row r="499">
@@ -20356,7 +20356,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1577A
+          <t xml:space="preserve">//Text $15782
 #WRITE(ptr,$5C28)
 War of the Women?[END]
 </t>
@@ -20370,12 +20370,12 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>1577A</t>
+          <t>15782</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>1578C</t>
+          <t>15794</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
@@ -20387,7 +20387,7 @@
         <v>18</v>
       </c>
       <c r="H499" t="n">
-        <v>87930</v>
+        <v>87938</v>
       </c>
     </row>
     <row r="500">
@@ -20396,7 +20396,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1578C
+          <t xml:space="preserve">//Text $15794
 #WRITE(ptr,$5C2C)
 The Key to Strength[END]
 </t>
@@ -20410,12 +20410,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>1578C</t>
+          <t>15794</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>157A0</t>
+          <t>157A8</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
@@ -20427,7 +20427,7 @@
         <v>20</v>
       </c>
       <c r="H500" t="n">
-        <v>87948</v>
+        <v>87956</v>
       </c>
     </row>
     <row r="501">
@@ -20436,7 +20436,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157A0
+          <t xml:space="preserve">//Text $157A8
 #WRITE(ptr,$5C30)
 Legendary Champion[END]
 </t>
@@ -20450,12 +20450,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>157A0</t>
+          <t>157A8</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>157B3</t>
+          <t>157BB</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
@@ -20467,7 +20467,7 @@
         <v>19</v>
       </c>
       <c r="H501" t="n">
-        <v>87968</v>
+        <v>87976</v>
       </c>
     </row>
     <row r="502">
@@ -20476,7 +20476,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157B3
+          <t xml:space="preserve">//Text $157BB
 #WRITE(ptr,$5C34)
 Female Friendship?[END]
 </t>
@@ -20490,12 +20490,12 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>157B3</t>
+          <t>157BB</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>157C6</t>
+          <t>157CE</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -20507,7 +20507,7 @@
         <v>19</v>
       </c>
       <c r="H502" t="n">
-        <v>87987</v>
+        <v>87995</v>
       </c>
     </row>
     <row r="503">
@@ -20516,7 +20516,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157C6
+          <t xml:space="preserve">//Text $157CE
 #WRITE(ptr,$5C38)
 Ghosts of the Past[END]
 </t>
@@ -20530,12 +20530,12 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>157C6</t>
+          <t>157CE</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>157D9</t>
+          <t>157E1</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -20547,7 +20547,7 @@
         <v>19</v>
       </c>
       <c r="H503" t="n">
-        <v>88006</v>
+        <v>88014</v>
       </c>
     </row>
     <row r="504">
@@ -20556,7 +20556,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157D9
+          <t xml:space="preserve">//Text $157E1
 #WRITE(ptr,$5C3C)
 Enthralling Brilliance[END]
 </t>
@@ -20570,12 +20570,12 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>157D9</t>
+          <t>157E1</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
         <is>
-          <t>157F0</t>
+          <t>157F8</t>
         </is>
       </c>
       <c r="F504" t="inlineStr">
@@ -20587,7 +20587,7 @@
         <v>23</v>
       </c>
       <c r="H504" t="n">
-        <v>88025</v>
+        <v>88033</v>
       </c>
     </row>
     <row r="505">
@@ -20596,7 +20596,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $157F0
+          <t xml:space="preserve">//Text $157F8
 #WRITE(ptr,$5C40)
 The Life of a Lens Hunter[END]
 </t>
@@ -20610,12 +20610,12 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>157F0</t>
+          <t>157F8</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
         <is>
-          <t>1580A</t>
+          <t>15812</t>
         </is>
       </c>
       <c r="F505" t="inlineStr">
@@ -20627,7 +20627,7 @@
         <v>26</v>
       </c>
       <c r="H505" t="n">
-        <v>88048</v>
+        <v>88056</v>
       </c>
     </row>
     <row r="506">
@@ -20636,7 +20636,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1580A
+          <t xml:space="preserve">//Text $15812
 #WRITE(ptr,$5C44)
 I Don't Want to Do This[END]
 </t>
@@ -20650,12 +20650,12 @@
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>1580A</t>
+          <t>15812</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>15822</t>
+          <t>1582A</t>
         </is>
       </c>
       <c r="F506" t="inlineStr">
@@ -20667,7 +20667,7 @@
         <v>24</v>
       </c>
       <c r="H506" t="n">
-        <v>88074</v>
+        <v>88082</v>
       </c>
     </row>
     <row r="507">
@@ -20676,7 +20676,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15822
+          <t xml:space="preserve">//Text $1582A
 #WRITE(ptr,$5C48)
 I'm Stuffed![END]
 </t>
@@ -20690,12 +20690,12 @@
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>15822</t>
+          <t>1582A</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>1582F</t>
+          <t>15837</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -20707,7 +20707,7 @@
         <v>13</v>
       </c>
       <c r="H507" t="n">
-        <v>88098</v>
+        <v>88106</v>
       </c>
     </row>
     <row r="508">
@@ -20716,7 +20716,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1582F
+          <t xml:space="preserve">//Text $15837
 #WRITE(ptr,$5C4C)
 You Need to Recover[END]
 </t>
@@ -20730,12 +20730,12 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>1582F</t>
+          <t>15837</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>15843</t>
+          <t>1584B</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">
@@ -20747,7 +20747,7 @@
         <v>20</v>
       </c>
       <c r="H508" t="n">
-        <v>88111</v>
+        <v>88119</v>
       </c>
     </row>
     <row r="509">
@@ -20756,7 +20756,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15843
+          <t xml:space="preserve">//Text $1584B
 #WRITE(ptr,$5C50)
 Don't Get Confused![END]
 </t>
@@ -20770,12 +20770,12 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>15843</t>
+          <t>1584B</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
         <is>
-          <t>15857</t>
+          <t>1585F</t>
         </is>
       </c>
       <c r="F509" t="inlineStr">
@@ -20787,7 +20787,7 @@
         <v>20</v>
       </c>
       <c r="H509" t="n">
-        <v>88131</v>
+        <v>88139</v>
       </c>
     </row>
     <row r="510">
@@ -20796,7 +20796,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15857
+          <t xml:space="preserve">//Text $1585F
 #WRITE(ptr,$5C54)
 Common Sense[END]
 </t>
@@ -20810,12 +20810,12 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>15857</t>
+          <t>1585F</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
         <is>
-          <t>15864</t>
+          <t>1586C</t>
         </is>
       </c>
       <c r="F510" t="inlineStr">
@@ -20827,7 +20827,7 @@
         <v>13</v>
       </c>
       <c r="H510" t="n">
-        <v>88151</v>
+        <v>88159</v>
       </c>
     </row>
     <row r="511">
@@ -20836,7 +20836,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15864
+          <t xml:space="preserve">//Text $1586C
 #WRITE(ptr,$5C58)
 A Token of Apology[END]
 </t>
@@ -20850,12 +20850,12 @@
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>15864</t>
+          <t>1586C</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
         <is>
-          <t>15877</t>
+          <t>1587F</t>
         </is>
       </c>
       <c r="F511" t="inlineStr">
@@ -20867,7 +20867,7 @@
         <v>19</v>
       </c>
       <c r="H511" t="n">
-        <v>88164</v>
+        <v>88172</v>
       </c>
     </row>
     <row r="512">
@@ -20876,7 +20876,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15877
+          <t xml:space="preserve">//Text $1587F
 #WRITE(ptr,$5C5C)
 Potential Substitute?[END]
 </t>
@@ -20890,12 +20890,12 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>15877</t>
+          <t>1587F</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
         <is>
-          <t>1588D</t>
+          <t>15895</t>
         </is>
       </c>
       <c r="F512" t="inlineStr">
@@ -20907,7 +20907,7 @@
         <v>22</v>
       </c>
       <c r="H512" t="n">
-        <v>88183</v>
+        <v>88191</v>
       </c>
     </row>
     <row r="513">
@@ -20916,7 +20916,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1588D
+          <t xml:space="preserve">//Text $15895
 #WRITE(ptr,$5C60)
 Personal Responsibility[END]
 </t>
@@ -20930,12 +20930,12 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>1588D</t>
+          <t>15895</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>158A5</t>
+          <t>158AD</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
@@ -20947,7 +20947,7 @@
         <v>24</v>
       </c>
       <c r="H513" t="n">
-        <v>88205</v>
+        <v>88213</v>
       </c>
     </row>
     <row r="514">
@@ -20956,7 +20956,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $158A5
+          <t xml:space="preserve">//Text $158AD
 #WRITE(ptr,$5C64)
 Positive and Negative Words[END]
 </t>
@@ -20970,12 +20970,12 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>158A5</t>
+          <t>158AD</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>158C1</t>
+          <t>158C9</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
@@ -20987,7 +20987,7 @@
         <v>28</v>
       </c>
       <c r="H514" t="n">
-        <v>88229</v>
+        <v>88237</v>
       </c>
     </row>
     <row r="515">
@@ -20996,7 +20996,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $158C1
+          <t xml:space="preserve">//Text $158C9
 #WRITE(ptr,$5C68)
 Are We Forgetting Something?[END]
 </t>
@@ -21010,12 +21010,12 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>158C1</t>
+          <t>158C9</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>158DE</t>
+          <t>158E6</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
@@ -21027,7 +21027,7 @@
         <v>29</v>
       </c>
       <c r="H515" t="n">
-        <v>88257</v>
+        <v>88265</v>
       </c>
     </row>
     <row r="516">
@@ -21036,7 +21036,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $158DE
+          <t xml:space="preserve">//Text $158E6
 #WRITE(ptr,$5C6C)
 I Know How You're Feeling[END]
 </t>
@@ -21050,12 +21050,12 @@
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>158DE</t>
+          <t>158E6</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>158F8</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
@@ -21067,7 +21067,7 @@
         <v>26</v>
       </c>
       <c r="H516" t="n">
-        <v>88286</v>
+        <v>88294</v>
       </c>
     </row>
     <row r="517">
@@ -21076,7 +21076,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $158F8
+          <t xml:space="preserve">//Text $15900
 #WRITE(ptr,$5C70)
 Where Are My Brother's Thoughts?[END]
 </t>
@@ -21090,12 +21090,12 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>158F8</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>15919</t>
+          <t>15921</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
@@ -21107,7 +21107,7 @@
         <v>33</v>
       </c>
       <c r="H517" t="n">
-        <v>88312</v>
+        <v>88320</v>
       </c>
     </row>
     <row r="518">
@@ -21116,7 +21116,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15919
+          <t xml:space="preserve">//Text $15921
 #WRITE(ptr,$5C74)
 Thank You, Everyone![END]
 </t>
@@ -21130,12 +21130,12 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>15919</t>
+          <t>15921</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>1592E</t>
+          <t>15936</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
@@ -21147,7 +21147,7 @@
         <v>21</v>
       </c>
       <c r="H518" t="n">
-        <v>88345</v>
+        <v>88353</v>
       </c>
     </row>
     <row r="519">
@@ -21156,7 +21156,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1592E
+          <t xml:space="preserve">//Text $15936
 #WRITE(ptr,$5C78)
 [Mary]'s Dream[END]
 </t>
@@ -21170,12 +21170,12 @@
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>1592E</t>
+          <t>15936</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>1593C</t>
+          <t>15944</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
@@ -21187,7 +21187,7 @@
         <v>14</v>
       </c>
       <c r="H519" t="n">
-        <v>88366</v>
+        <v>88374</v>
       </c>
     </row>
     <row r="520">
@@ -21196,7 +21196,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1593C
+          <t xml:space="preserve">//Text $15944
 #WRITE(ptr,$5C7C)
 Why Won't He Tell Me His Name?[END]
 </t>
@@ -21210,12 +21210,12 @@
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>1593C</t>
+          <t>15944</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>1595B</t>
+          <t>15963</t>
         </is>
       </c>
       <c r="F520" t="inlineStr">
@@ -21227,7 +21227,7 @@
         <v>31</v>
       </c>
       <c r="H520" t="n">
-        <v>88380</v>
+        <v>88388</v>
       </c>
     </row>
     <row r="521">
@@ -21236,7 +21236,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1595B
+          <t xml:space="preserve">//Text $15963
 #WRITE(ptr,$5C80)
 I Love Sleeping[END]
 </t>
@@ -21250,12 +21250,12 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>1595B</t>
+          <t>15963</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>1596B</t>
+          <t>15973</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
@@ -21267,7 +21267,7 @@
         <v>16</v>
       </c>
       <c r="H521" t="n">
-        <v>88411</v>
+        <v>88419</v>
       </c>
     </row>
     <row r="522">
@@ -21276,7 +21276,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1596B
+          <t xml:space="preserve">//Text $15973
 #WRITE(ptr,$5C84)
 Looking for Gald[END]
 </t>
@@ -21290,12 +21290,12 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>1596B</t>
+          <t>15973</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>1597C</t>
+          <t>15984</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -21307,7 +21307,7 @@
         <v>17</v>
       </c>
       <c r="H522" t="n">
-        <v>88427</v>
+        <v>88435</v>
       </c>
     </row>
     <row r="523">
@@ -21316,7 +21316,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1597C
+          <t xml:space="preserve">//Text $15984
 #WRITE(ptr,$5C88)
 I've Got Your Back[END]
 </t>
@@ -21330,12 +21330,12 @@
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>1597C</t>
+          <t>15984</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
         <is>
-          <t>1598F</t>
+          <t>15997</t>
         </is>
       </c>
       <c r="F523" t="inlineStr">
@@ -21347,7 +21347,7 @@
         <v>19</v>
       </c>
       <c r="H523" t="n">
-        <v>88444</v>
+        <v>88452</v>
       </c>
     </row>
     <row r="524">
@@ -21356,7 +21356,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1598F
+          <t xml:space="preserve">//Text $15997
 #WRITE(ptr,$5C8C)
 Intuition on the Field?[END]
 </t>
@@ -21370,12 +21370,12 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>1598F</t>
+          <t>15997</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
         <is>
-          <t>159A7</t>
+          <t>159AF</t>
         </is>
       </c>
       <c r="F524" t="inlineStr">
@@ -21387,7 +21387,7 @@
         <v>24</v>
       </c>
       <c r="H524" t="n">
-        <v>88463</v>
+        <v>88471</v>
       </c>
     </row>
     <row r="525">
@@ -21396,7 +21396,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $159A7
+          <t xml:space="preserve">//Text $159AF
 #WRITE(ptr,$5C90)
 Suprising Suited for Command?[END]
 </t>
@@ -21410,12 +21410,12 @@
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>159A7</t>
+          <t>159AF</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>159C5</t>
+          <t>159CD</t>
         </is>
       </c>
       <c r="F525" t="inlineStr">
@@ -21427,7 +21427,7 @@
         <v>30</v>
       </c>
       <c r="H525" t="n">
-        <v>88487</v>
+        <v>88495</v>
       </c>
     </row>
     <row r="526">
@@ -21436,7 +21436,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $159C5
+          <t xml:space="preserve">//Text $159CD
 #WRITE(ptr,$5C94)
 I'm Enjoying This[END]
 </t>
@@ -21450,12 +21450,12 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>159C5</t>
+          <t>159CD</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>159D7</t>
+          <t>159DF</t>
         </is>
       </c>
       <c r="F526" t="inlineStr">
@@ -21467,7 +21467,7 @@
         <v>18</v>
       </c>
       <c r="H526" t="n">
-        <v>88517</v>
+        <v>88525</v>
       </c>
     </row>
     <row r="527">
@@ -21476,7 +21476,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $159D7
+          <t xml:space="preserve">//Text $159DF
 #WRITE(ptr,$5C98)
 Growing Seeds is Fun[END]
 </t>
@@ -21490,12 +21490,12 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>159D7</t>
+          <t>159DF</t>
         </is>
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>159EC</t>
+          <t>159F4</t>
         </is>
       </c>
       <c r="F527" t="inlineStr">
@@ -21507,7 +21507,7 @@
         <v>21</v>
       </c>
       <c r="H527" t="n">
-        <v>88535</v>
+        <v>88543</v>
       </c>
     </row>
     <row r="528">
@@ -21516,7 +21516,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $159EC
+          <t xml:space="preserve">//Text $159F4
 #WRITE(ptr,$5C9C)
 Merits and Demerits[END]
 </t>
@@ -21530,12 +21530,12 @@
       </c>
       <c r="D528" t="inlineStr">
         <is>
-          <t>159EC</t>
+          <t>159F4</t>
         </is>
       </c>
       <c r="E528" t="inlineStr">
         <is>
-          <t>15A00</t>
+          <t>15A08</t>
         </is>
       </c>
       <c r="F528" t="inlineStr">
@@ -21547,7 +21547,7 @@
         <v>20</v>
       </c>
       <c r="H528" t="n">
-        <v>88556</v>
+        <v>88564</v>
       </c>
     </row>
     <row r="529">
@@ -21556,7 +21556,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A00
+          <t xml:space="preserve">//Text $15A08
 #WRITE(ptr,$5CA0)
 Tireless Effort is the Secret to Victory[END]
 </t>
@@ -21570,12 +21570,12 @@
       </c>
       <c r="D529" t="inlineStr">
         <is>
-          <t>15A00</t>
+          <t>15A08</t>
         </is>
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>15A29</t>
+          <t>15A31</t>
         </is>
       </c>
       <c r="F529" t="inlineStr">
@@ -21587,7 +21587,7 @@
         <v>41</v>
       </c>
       <c r="H529" t="n">
-        <v>88576</v>
+        <v>88584</v>
       </c>
     </row>
     <row r="530">
@@ -21596,7 +21596,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A29
+          <t xml:space="preserve">//Text $15A31
 #WRITE(ptr,$5CA4)
 The Fun After Battle[END]
 </t>
@@ -21610,12 +21610,12 @@
       </c>
       <c r="D530" t="inlineStr">
         <is>
-          <t>15A29</t>
+          <t>15A31</t>
         </is>
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>15A3E</t>
+          <t>15A46</t>
         </is>
       </c>
       <c r="F530" t="inlineStr">
@@ -21627,7 +21627,7 @@
         <v>21</v>
       </c>
       <c r="H530" t="n">
-        <v>88617</v>
+        <v>88625</v>
       </c>
     </row>
     <row r="531">
@@ -21636,7 +21636,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A3E
+          <t xml:space="preserve">//Text $15A46
 #WRITE(ptr,$5CA8)
 Under the Eyes of Atamoni[END]
 </t>
@@ -21650,12 +21650,12 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>15A3E</t>
+          <t>15A46</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>15A58</t>
+          <t>15A60</t>
         </is>
       </c>
       <c r="F531" t="inlineStr">
@@ -21667,7 +21667,7 @@
         <v>26</v>
       </c>
       <c r="H531" t="n">
-        <v>88638</v>
+        <v>88646</v>
       </c>
     </row>
     <row r="532">
@@ -21676,7 +21676,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A58
+          <t xml:space="preserve">//Text $15A60
 #WRITE(ptr,$5CAC)
 Above the Aethersphere[END]
 </t>
@@ -21690,12 +21690,12 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>15A58</t>
+          <t>15A60</t>
         </is>
       </c>
       <c r="E532" t="inlineStr">
         <is>
-          <t>15A6F</t>
+          <t>15A77</t>
         </is>
       </c>
       <c r="F532" t="inlineStr">
@@ -21707,7 +21707,7 @@
         <v>23</v>
       </c>
       <c r="H532" t="n">
-        <v>88664</v>
+        <v>88672</v>
       </c>
     </row>
     <row r="533">
@@ -21716,7 +21716,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A6F
+          <t xml:space="preserve">//Text $15A77
 #WRITE(ptr,$5CB0)
 Let's Go after Him[END]
 </t>
@@ -21730,12 +21730,12 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>15A6F</t>
+          <t>15A77</t>
         </is>
       </c>
       <c r="E533" t="inlineStr">
         <is>
-          <t>15A82</t>
+          <t>15A8A</t>
         </is>
       </c>
       <c r="F533" t="inlineStr">
@@ -21747,7 +21747,7 @@
         <v>19</v>
       </c>
       <c r="H533" t="n">
-        <v>88687</v>
+        <v>88695</v>
       </c>
     </row>
     <row r="534">
@@ -21756,7 +21756,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A82
+          <t xml:space="preserve">//Text $15A8A
 #WRITE(ptr,$5CB4)
 We Need to Stop [Hugo][END]
 </t>
@@ -21770,12 +21770,12 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>15A82</t>
+          <t>15A8A</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
         <is>
-          <t>15A98</t>
+          <t>15AA0</t>
         </is>
       </c>
       <c r="F534" t="inlineStr">
@@ -21787,7 +21787,7 @@
         <v>22</v>
       </c>
       <c r="H534" t="n">
-        <v>88706</v>
+        <v>88714</v>
       </c>
     </row>
     <row r="535">
@@ -21796,7 +21796,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15A98
+          <t xml:space="preserve">//Text $15AA0
 #WRITE(ptr,$5CB8)
 We Won't Let You Harm the Surface[END]
 </t>
@@ -21810,12 +21810,12 @@
       </c>
       <c r="D535" t="inlineStr">
         <is>
-          <t>15A98</t>
+          <t>15AA0</t>
         </is>
       </c>
       <c r="E535" t="inlineStr">
         <is>
-          <t>15ABA</t>
+          <t>15AC2</t>
         </is>
       </c>
       <c r="F535" t="inlineStr">
@@ -21827,7 +21827,7 @@
         <v>34</v>
       </c>
       <c r="H535" t="n">
-        <v>88728</v>
+        <v>88736</v>
       </c>
     </row>
     <row r="536">
@@ -21836,7 +21836,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15ABA
+          <t xml:space="preserve">//Text $15AC2
 #WRITE(ptr,$5CBC)
 Get Back Here, Now[END]
 </t>
@@ -21850,12 +21850,12 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>15ABA</t>
+          <t>15AC2</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
         <is>
-          <t>15ACD</t>
+          <t>15AD5</t>
         </is>
       </c>
       <c r="F536" t="inlineStr">
@@ -21867,7 +21867,7 @@
         <v>19</v>
       </c>
       <c r="H536" t="n">
-        <v>88762</v>
+        <v>88770</v>
       </c>
     </row>
     <row r="537">
@@ -21876,7 +21876,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15ACD
+          <t xml:space="preserve">//Text $15AD5
 #WRITE(ptr,$5CC0)
 Not This Way[END]
 </t>
@@ -21890,12 +21890,12 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>15ACD</t>
+          <t>15AD5</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
         <is>
-          <t>15ADA</t>
+          <t>15AE2</t>
         </is>
       </c>
       <c r="F537" t="inlineStr">
@@ -21907,7 +21907,7 @@
         <v>13</v>
       </c>
       <c r="H537" t="n">
-        <v>88781</v>
+        <v>88789</v>
       </c>
     </row>
     <row r="538">
@@ -21916,7 +21916,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15ADA
+          <t xml:space="preserve">//Text $15AE2
 #WRITE(ptr,$5CC4)
 Hurry[END]
 </t>
@@ -21930,12 +21930,12 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>15ADA</t>
+          <t>15AE2</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>15AE0</t>
+          <t>15AE8</t>
         </is>
       </c>
       <c r="F538" t="inlineStr">
@@ -21947,7 +21947,7 @@
         <v>6</v>
       </c>
       <c r="H538" t="n">
-        <v>88794</v>
+        <v>88802</v>
       </c>
     </row>
     <row r="539">
@@ -21956,7 +21956,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15AE0
+          <t xml:space="preserve">//Text $15AE8
 #WRITE(ptr,$5CC8)
 We Should Hurry[END]
 </t>
@@ -21970,12 +21970,12 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>15AE0</t>
+          <t>15AE8</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
         <is>
-          <t>15AF0</t>
+          <t>15AF8</t>
         </is>
       </c>
       <c r="F539" t="inlineStr">
@@ -21987,7 +21987,7 @@
         <v>16</v>
       </c>
       <c r="H539" t="n">
-        <v>88800</v>
+        <v>88808</v>
       </c>
     </row>
     <row r="540">
@@ -21996,7 +21996,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15AF0
+          <t xml:space="preserve">//Text $15AF8
 #WRITE(ptr,$5CCC)
 Don't Dawdle[END]
 </t>
@@ -22010,12 +22010,12 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>15AF0</t>
+          <t>15AF8</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>15AFD</t>
+          <t>15B05</t>
         </is>
       </c>
       <c r="F540" t="inlineStr">
@@ -22027,7 +22027,7 @@
         <v>13</v>
       </c>
       <c r="H540" t="n">
-        <v>88816</v>
+        <v>88824</v>
       </c>
     </row>
     <row r="541">
@@ -22036,7 +22036,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15AFD
+          <t xml:space="preserve">//Text $15B05
 #WRITE(ptr,$5CD0)
 Not That Way[END]
 </t>
@@ -22050,12 +22050,12 @@
       </c>
       <c r="D541" t="inlineStr">
         <is>
-          <t>15AFD</t>
+          <t>15B05</t>
         </is>
       </c>
       <c r="E541" t="inlineStr">
         <is>
-          <t>15B0A</t>
+          <t>15B12</t>
         </is>
       </c>
       <c r="F541" t="inlineStr">
@@ -22067,7 +22067,7 @@
         <v>13</v>
       </c>
       <c r="H541" t="n">
-        <v>88829</v>
+        <v>88837</v>
       </c>
     </row>
     <row r="542">
@@ -22076,7 +22076,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B0A
+          <t xml:space="preserve">//Text $15B12
 #WRITE(ptr,$5CD4)
 I Have Other Things to Do[END]
 </t>
@@ -22090,12 +22090,12 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>15B0A</t>
+          <t>15B12</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
         <is>
-          <t>15B24</t>
+          <t>15B2C</t>
         </is>
       </c>
       <c r="F542" t="inlineStr">
@@ -22107,7 +22107,7 @@
         <v>26</v>
       </c>
       <c r="H542" t="n">
-        <v>88842</v>
+        <v>88850</v>
       </c>
     </row>
     <row r="543">
@@ -22116,7 +22116,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B24
+          <t xml:space="preserve">//Text $15B2C
 #WRITE(ptr,$5CD8)
 What We Need to Do[END]
 </t>
@@ -22130,12 +22130,12 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>15B24</t>
+          <t>15B2C</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
         <is>
-          <t>15B37</t>
+          <t>15B3F</t>
         </is>
       </c>
       <c r="F543" t="inlineStr">
@@ -22147,7 +22147,7 @@
         <v>19</v>
       </c>
       <c r="H543" t="n">
-        <v>88868</v>
+        <v>88876</v>
       </c>
     </row>
     <row r="544">
@@ -22156,7 +22156,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B37
+          <t xml:space="preserve">//Text $15B3F
 #WRITE(ptr,$5CDC)
 Let's See What's Happening[END]
 </t>
@@ -22170,12 +22170,12 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>15B37</t>
+          <t>15B3F</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
         <is>
-          <t>15B52</t>
+          <t>15B5A</t>
         </is>
       </c>
       <c r="F544" t="inlineStr">
@@ -22187,7 +22187,7 @@
         <v>27</v>
       </c>
       <c r="H544" t="n">
-        <v>88887</v>
+        <v>88895</v>
       </c>
     </row>
     <row r="545">
@@ -22196,7 +22196,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B52
+          <t xml:space="preserve">//Text $15B5A
 #WRITE(ptr,$5CE0)
 Let's Talk First[END]
 </t>
@@ -22210,12 +22210,12 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>15B52</t>
+          <t>15B5A</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
         <is>
-          <t>15B63</t>
+          <t>15B6B</t>
         </is>
       </c>
       <c r="F545" t="inlineStr">
@@ -22227,7 +22227,7 @@
         <v>17</v>
       </c>
       <c r="H545" t="n">
-        <v>88914</v>
+        <v>88922</v>
       </c>
     </row>
     <row r="546">
@@ -22236,7 +22236,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B63
+          <t xml:space="preserve">//Text $15B6B
 #WRITE(ptr,$5CE4)
 Anyways, Let's Hear Him Out[END]
 </t>
@@ -22250,12 +22250,12 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>15B63</t>
+          <t>15B6B</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
         <is>
-          <t>15B7F</t>
+          <t>15B87</t>
         </is>
       </c>
       <c r="F546" t="inlineStr">
@@ -22267,7 +22267,7 @@
         <v>28</v>
       </c>
       <c r="H546" t="n">
-        <v>88931</v>
+        <v>88939</v>
       </c>
     </row>
     <row r="547">
@@ -22276,7 +22276,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B7F
+          <t xml:space="preserve">//Text $15B87
 #WRITE(ptr,$5CE8)
 Other Things to Do[END]
 </t>
@@ -22290,12 +22290,12 @@
       </c>
       <c r="D547" t="inlineStr">
         <is>
-          <t>15B7F</t>
+          <t>15B87</t>
         </is>
       </c>
       <c r="E547" t="inlineStr">
         <is>
-          <t>15B92</t>
+          <t>15B9A</t>
         </is>
       </c>
       <c r="F547" t="inlineStr">
@@ -22307,7 +22307,7 @@
         <v>19</v>
       </c>
       <c r="H547" t="n">
-        <v>88959</v>
+        <v>88967</v>
       </c>
     </row>
     <row r="548">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15B92
+          <t xml:space="preserve">//Text $15B9A
 #WRITE(ptr,$5CEC)
 I Have Other Things to Do Right Now[END]
 </t>
@@ -22330,12 +22330,12 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>15B92</t>
+          <t>15B9A</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
         <is>
-          <t>15BB6</t>
+          <t>15BBE</t>
         </is>
       </c>
       <c r="F548" t="inlineStr">
@@ -22347,7 +22347,7 @@
         <v>36</v>
       </c>
       <c r="H548" t="n">
-        <v>88978</v>
+        <v>88986</v>
       </c>
     </row>
     <row r="549">
@@ -22356,7 +22356,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15BB6
+          <t xml:space="preserve">//Text $15BBE
 #WRITE(ptr,$5CF0)
 Let's Talk to the People in Town[END]
 </t>
@@ -22370,12 +22370,12 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>15BB6</t>
+          <t>15BBE</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>15BD7</t>
+          <t>15BDF</t>
         </is>
       </c>
       <c r="F549" t="inlineStr">
@@ -22387,7 +22387,7 @@
         <v>33</v>
       </c>
       <c r="H549" t="n">
-        <v>89014</v>
+        <v>89022</v>
       </c>
     </row>
     <row r="550">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15BD7
+          <t xml:space="preserve">//Text $15BDF
 #WRITE(ptr,$5CF4)
 Let's Check it Out[END]
 </t>
@@ -22410,12 +22410,12 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>15BD7</t>
+          <t>15BDF</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
         <is>
-          <t>15BEA</t>
+          <t>15BF2</t>
         </is>
       </c>
       <c r="F550" t="inlineStr">
@@ -22427,7 +22427,7 @@
         <v>19</v>
       </c>
       <c r="H550" t="n">
-        <v>89047</v>
+        <v>89055</v>
       </c>
     </row>
     <row r="551">
@@ -22436,7 +22436,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15BEA
+          <t xml:space="preserve">//Text $15BF2
 #WRITE(ptr,$5CF8)
 Let's Head Outside First[END]
 </t>
@@ -22450,12 +22450,12 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>15BEA</t>
+          <t>15BF2</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
         <is>
-          <t>15C03</t>
+          <t>15C0B</t>
         </is>
       </c>
       <c r="F551" t="inlineStr">
@@ -22467,7 +22467,7 @@
         <v>25</v>
       </c>
       <c r="H551" t="n">
-        <v>89066</v>
+        <v>89074</v>
       </c>
     </row>
     <row r="552">
@@ -22476,7 +22476,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C03
+          <t xml:space="preserve">//Text $15C0B
 #WRITE(ptr,$5CFC)
 Let's Stay Here[END]
 </t>
@@ -22490,12 +22490,12 @@
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>15C03</t>
+          <t>15C0B</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>15C13</t>
+          <t>15C1B</t>
         </is>
       </c>
       <c r="F552" t="inlineStr">
@@ -22507,7 +22507,7 @@
         <v>16</v>
       </c>
       <c r="H552" t="n">
-        <v>89091</v>
+        <v>89099</v>
       </c>
     </row>
     <row r="553">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C13
+          <t xml:space="preserve">//Text $15C1B
 #WRITE(ptr,$5D00)
 North from Here[END]
 </t>
@@ -22530,12 +22530,12 @@
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>15C13</t>
+          <t>15C1B</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
         <is>
-          <t>15C23</t>
+          <t>15C2B</t>
         </is>
       </c>
       <c r="F553" t="inlineStr">
@@ -22547,7 +22547,7 @@
         <v>16</v>
       </c>
       <c r="H553" t="n">
-        <v>89107</v>
+        <v>89115</v>
       </c>
     </row>
     <row r="554">
@@ -22556,7 +22556,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C23
+          <t xml:space="preserve">//Text $15C2B
 #WRITE(ptr,$5D04)
 Northeast from Here[END]
 </t>
@@ -22570,12 +22570,12 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>15C23</t>
+          <t>15C2B</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
         <is>
-          <t>15C37</t>
+          <t>15C3F</t>
         </is>
       </c>
       <c r="F554" t="inlineStr">
@@ -22587,7 +22587,7 @@
         <v>20</v>
       </c>
       <c r="H554" t="n">
-        <v>89123</v>
+        <v>89131</v>
       </c>
     </row>
     <row r="555">
@@ -22596,7 +22596,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C37
+          <t xml:space="preserve">//Text $15C3F
 #WRITE(ptr,$5D08)
 East from Here[END]
 </t>
@@ -22610,12 +22610,12 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>15C37</t>
+          <t>15C3F</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
         <is>
-          <t>15C46</t>
+          <t>15C4E</t>
         </is>
       </c>
       <c r="F555" t="inlineStr">
@@ -22627,7 +22627,7 @@
         <v>15</v>
       </c>
       <c r="H555" t="n">
-        <v>89143</v>
+        <v>89151</v>
       </c>
     </row>
     <row r="556">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C46
+          <t xml:space="preserve">//Text $15C4E
 #WRITE(ptr,$5D0C)
 Southeast from Here[END]
 </t>
@@ -22650,12 +22650,12 @@
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>15C46</t>
+          <t>15C4E</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
         <is>
-          <t>15C5A</t>
+          <t>15C62</t>
         </is>
       </c>
       <c r="F556" t="inlineStr">
@@ -22667,7 +22667,7 @@
         <v>20</v>
       </c>
       <c r="H556" t="n">
-        <v>89158</v>
+        <v>89166</v>
       </c>
     </row>
     <row r="557">
@@ -22676,7 +22676,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C5A
+          <t xml:space="preserve">//Text $15C62
 #WRITE(ptr,$5D10)
 South from Here[END]
 </t>
@@ -22690,12 +22690,12 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>15C5A</t>
+          <t>15C62</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>15C6A</t>
+          <t>15C72</t>
         </is>
       </c>
       <c r="F557" t="inlineStr">
@@ -22707,7 +22707,7 @@
         <v>16</v>
       </c>
       <c r="H557" t="n">
-        <v>89178</v>
+        <v>89186</v>
       </c>
     </row>
     <row r="558">
@@ -22716,7 +22716,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C6A
+          <t xml:space="preserve">//Text $15C72
 #WRITE(ptr,$5D14)
 Southwest from Here[END]
 </t>
@@ -22730,12 +22730,12 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>15C6A</t>
+          <t>15C72</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>15C7E</t>
+          <t>15C86</t>
         </is>
       </c>
       <c r="F558" t="inlineStr">
@@ -22747,7 +22747,7 @@
         <v>20</v>
       </c>
       <c r="H558" t="n">
-        <v>89194</v>
+        <v>89202</v>
       </c>
     </row>
     <row r="559">
@@ -22756,7 +22756,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C7E
+          <t xml:space="preserve">//Text $15C86
 #WRITE(ptr,$5D18)
 West from Here[END]
 </t>
@@ -22770,12 +22770,12 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>15C7E</t>
+          <t>15C86</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
         <is>
-          <t>15C8D</t>
+          <t>15C95</t>
         </is>
       </c>
       <c r="F559" t="inlineStr">
@@ -22787,7 +22787,7 @@
         <v>15</v>
       </c>
       <c r="H559" t="n">
-        <v>89214</v>
+        <v>89222</v>
       </c>
     </row>
     <row r="560">
@@ -22796,7 +22796,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15C8D
+          <t xml:space="preserve">//Text $15C95
 #WRITE(ptr,$5D1C)
 Northwest from Here[END]
 </t>
@@ -22810,12 +22810,12 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>15C8D</t>
+          <t>15C95</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>15CA1</t>
+          <t>15CA9</t>
         </is>
       </c>
       <c r="F560" t="inlineStr">
@@ -22827,7 +22827,7 @@
         <v>20</v>
       </c>
       <c r="H560" t="n">
-        <v>89229</v>
+        <v>89237</v>
       </c>
     </row>
     <row r="561">
@@ -22836,7 +22836,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15CA1
+          <t xml:space="preserve">//Text $15CA9
 #WRITE(ptr,$5D20)
 Let's Get on the Leviathan[END]
 </t>
@@ -22850,12 +22850,12 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>15CA1</t>
+          <t>15CA9</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
         <is>
-          <t>15CBC</t>
+          <t>15CC4</t>
         </is>
       </c>
       <c r="F561" t="inlineStr">
@@ -22867,7 +22867,7 @@
         <v>27</v>
       </c>
       <c r="H561" t="n">
-        <v>89249</v>
+        <v>89257</v>
       </c>
     </row>
     <row r="562">
@@ -22876,7 +22876,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15CBC
+          <t xml:space="preserve">//Text $15CC4
 #WRITE(ptr,$5D24)
 Anyway, to the Leviathan[END]
 </t>
@@ -22890,12 +22890,12 @@
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>15CBC</t>
+          <t>15CC4</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
         <is>
-          <t>15CD5</t>
+          <t>15CDD</t>
         </is>
       </c>
       <c r="F562" t="inlineStr">
@@ -22907,7 +22907,7 @@
         <v>25</v>
       </c>
       <c r="H562" t="n">
-        <v>89276</v>
+        <v>89284</v>
       </c>
     </row>
     <row r="563">
@@ -22916,7 +22916,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15CD5
+          <t xml:space="preserve">//Text $15CDD
 #WRITE(ptr,$5D28)
 Let's Take the Draconis[END]
 </t>
@@ -22930,12 +22930,12 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>15CD5</t>
+          <t>15CDD</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>15CED</t>
+          <t>15CF5</t>
         </is>
       </c>
       <c r="F563" t="inlineStr">
@@ -22947,7 +22947,7 @@
         <v>24</v>
       </c>
       <c r="H563" t="n">
-        <v>89301</v>
+        <v>89309</v>
       </c>
     </row>
     <row r="564">
@@ -22956,7 +22956,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15CED
+          <t xml:space="preserve">//Text $15CF5
 #WRITE(ptr,$5D2C)
 Anyway, to the Draconis[END]
 </t>
@@ -22970,12 +22970,12 @@
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>15CED</t>
+          <t>15CF5</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
         <is>
-          <t>15D05</t>
+          <t>15D0D</t>
         </is>
       </c>
       <c r="F564" t="inlineStr">
@@ -22987,7 +22987,7 @@
         <v>24</v>
       </c>
       <c r="H564" t="n">
-        <v>89325</v>
+        <v>89333</v>
       </c>
     </row>
     <row r="565">
@@ -22996,7 +22996,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D05
+          <t xml:space="preserve">//Text $15D0D
 #WRITE(ptr,$5D30)
 Let's Head to the Harbor[END]
 </t>
@@ -23010,12 +23010,12 @@
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>15D05</t>
+          <t>15D0D</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
         <is>
-          <t>15D1E</t>
+          <t>15D26</t>
         </is>
       </c>
       <c r="F565" t="inlineStr">
@@ -23027,7 +23027,7 @@
         <v>25</v>
       </c>
       <c r="H565" t="n">
-        <v>89349</v>
+        <v>89357</v>
       </c>
     </row>
     <row r="566">
@@ -23036,7 +23036,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D1E
+          <t xml:space="preserve">//Text $15D26
 #WRITE(ptr,$5D34)
 Let's Head to the Castle[END]
 </t>
@@ -23050,12 +23050,12 @@
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>15D1E</t>
+          <t>15D26</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
         <is>
-          <t>15D37</t>
+          <t>15D3F</t>
         </is>
       </c>
       <c r="F566" t="inlineStr">
@@ -23067,7 +23067,7 @@
         <v>25</v>
       </c>
       <c r="H566" t="n">
-        <v>89374</v>
+        <v>89382</v>
       </c>
     </row>
     <row r="567">
@@ -23076,7 +23076,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D37
+          <t xml:space="preserve">//Text $15D3F
 #WRITE(ptr,$5D38)
 Respite[END]
 </t>
@@ -23090,12 +23090,12 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>15D37</t>
+          <t>15D3F</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>15D3F</t>
+          <t>15D47</t>
         </is>
       </c>
       <c r="F567" t="inlineStr">
@@ -23107,7 +23107,7 @@
         <v>8</v>
       </c>
       <c r="H567" t="n">
-        <v>89399</v>
+        <v>89407</v>
       </c>
     </row>
     <row r="568">
@@ -23116,7 +23116,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D3F
+          <t xml:space="preserve">//Text $15D47
 #WRITE(ptr,$5D3C)
 The Guardian Dragon is Important[END]
 </t>
@@ -23130,12 +23130,12 @@
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>15D3F</t>
+          <t>15D47</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>15D60</t>
+          <t>15D68</t>
         </is>
       </c>
       <c r="F568" t="inlineStr">
@@ -23147,7 +23147,7 @@
         <v>33</v>
       </c>
       <c r="H568" t="n">
-        <v>89407</v>
+        <v>89415</v>
       </c>
     </row>
     <row r="569">
@@ -23156,7 +23156,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D60
+          <t xml:space="preserve">//Text $15D68
 #WRITE(ptr,$5D40)
 [Igtenos] First[END]
 </t>
@@ -23170,12 +23170,12 @@
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>15D60</t>
+          <t>15D68</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
         <is>
-          <t>15D6C</t>
+          <t>15D74</t>
         </is>
       </c>
       <c r="F569" t="inlineStr">
@@ -23187,7 +23187,7 @@
         <v>12</v>
       </c>
       <c r="H569" t="n">
-        <v>89440</v>
+        <v>89448</v>
       </c>
     </row>
     <row r="570">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D6C
+          <t xml:space="preserve">//Text $15D74
 #WRITE(ptr,$5D44)
 Take the Device to Radisrol[END]
 </t>
@@ -23210,12 +23210,12 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>15D6C</t>
+          <t>15D74</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>15D88</t>
+          <t>15D90</t>
         </is>
       </c>
       <c r="F570" t="inlineStr">
@@ -23227,7 +23227,7 @@
         <v>28</v>
       </c>
       <c r="H570" t="n">
-        <v>89452</v>
+        <v>89460</v>
       </c>
     </row>
     <row r="571">
@@ -23236,7 +23236,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15D88
+          <t xml:space="preserve">//Text $15D90
 #WRITE(ptr,$5D48)
 Top Priorty: Aeth'er Cruiser[END]
 </t>
@@ -23250,12 +23250,12 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>15D88</t>
+          <t>15D90</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
         <is>
-          <t>15DA5</t>
+          <t>15DAD</t>
         </is>
       </c>
       <c r="F571" t="inlineStr">
@@ -23267,7 +23267,7 @@
         <v>29</v>
       </c>
       <c r="H571" t="n">
-        <v>89480</v>
+        <v>89488</v>
       </c>
     </row>
     <row r="572">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DA5
+          <t xml:space="preserve">//Text $15DAD
 #WRITE(ptr,$5D4C)
 No Business at This Town[END]
 </t>
@@ -23290,12 +23290,12 @@
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>15DA5</t>
+          <t>15DAD</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
         <is>
-          <t>15DBE</t>
+          <t>15DC6</t>
         </is>
       </c>
       <c r="F572" t="inlineStr">
@@ -23307,7 +23307,7 @@
         <v>25</v>
       </c>
       <c r="H572" t="n">
-        <v>89509</v>
+        <v>89517</v>
       </c>
     </row>
     <row r="573">
@@ -23316,7 +23316,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DBE
+          <t xml:space="preserve">//Text $15DC6
 #WRITE(ptr,$5D50)
 My Sister's Thoughts[END]
 </t>
@@ -23330,12 +23330,12 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>15DBE</t>
+          <t>15DC6</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
         <is>
-          <t>15DD3</t>
+          <t>15DDB</t>
         </is>
       </c>
       <c r="F573" t="inlineStr">
@@ -23347,7 +23347,7 @@
         <v>21</v>
       </c>
       <c r="H573" t="n">
-        <v>89534</v>
+        <v>89542</v>
       </c>
     </row>
     <row r="574">
@@ -23356,7 +23356,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DD3
+          <t xml:space="preserve">//Text $15DDB
 #WRITE(ptr,$5D54)
 Race - 1[END]
 </t>
@@ -23370,12 +23370,12 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>15DD3</t>
+          <t>15DDB</t>
         </is>
       </c>
       <c r="E574" t="inlineStr">
         <is>
-          <t>15DDC</t>
+          <t>15DE4</t>
         </is>
       </c>
       <c r="F574" t="inlineStr">
@@ -23387,7 +23387,7 @@
         <v>9</v>
       </c>
       <c r="H574" t="n">
-        <v>89555</v>
+        <v>89563</v>
       </c>
     </row>
     <row r="575">
@@ -23396,7 +23396,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DDC
+          <t xml:space="preserve">//Text $15DE4
 #WRITE(ptr,$5D58)
 Race - 2[END]
 </t>
@@ -23410,12 +23410,12 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>15DDC</t>
+          <t>15DE4</t>
         </is>
       </c>
       <c r="E575" t="inlineStr">
         <is>
-          <t>15DE5</t>
+          <t>15DED</t>
         </is>
       </c>
       <c r="F575" t="inlineStr">
@@ -23427,7 +23427,7 @@
         <v>9</v>
       </c>
       <c r="H575" t="n">
-        <v>89564</v>
+        <v>89572</v>
       </c>
     </row>
     <row r="576">
@@ -23436,7 +23436,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DE5
+          <t xml:space="preserve">//Text $15DED
 #WRITE(ptr,$5D5C)
 Question![END]
 </t>
@@ -23450,12 +23450,12 @@
       </c>
       <c r="D576" t="inlineStr">
         <is>
-          <t>15DE5</t>
+          <t>15DED</t>
         </is>
       </c>
       <c r="E576" t="inlineStr">
         <is>
-          <t>15DEF</t>
+          <t>15DF7</t>
         </is>
       </c>
       <c r="F576" t="inlineStr">
@@ -23467,7 +23467,7 @@
         <v>10</v>
       </c>
       <c r="H576" t="n">
-        <v>89573</v>
+        <v>89581</v>
       </c>
     </row>
     <row r="577">
@@ -23476,7 +23476,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DEF
+          <t xml:space="preserve">//Text $15DF7
 #WRITE(ptr,$5D60)
 Ready![END]
 </t>
@@ -23490,12 +23490,12 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>15DEF</t>
+          <t>15DF7</t>
         </is>
       </c>
       <c r="E577" t="inlineStr">
         <is>
-          <t>15DF6</t>
+          <t>15DFE</t>
         </is>
       </c>
       <c r="F577" t="inlineStr">
@@ -23507,7 +23507,7 @@
         <v>7</v>
       </c>
       <c r="H577" t="n">
-        <v>89583</v>
+        <v>89591</v>
       </c>
     </row>
     <row r="578">
@@ -23516,7 +23516,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15DF6
+          <t xml:space="preserve">//Text $15DFE
 #WRITE(ptr,$5D64)
 Absolutely Correct![END]
 </t>
@@ -23530,12 +23530,12 @@
       </c>
       <c r="D578" t="inlineStr">
         <is>
-          <t>15DF6</t>
+          <t>15DFE</t>
         </is>
       </c>
       <c r="E578" t="inlineStr">
         <is>
-          <t>15E0A</t>
+          <t>15E12</t>
         </is>
       </c>
       <c r="F578" t="inlineStr">
@@ -23547,7 +23547,7 @@
         <v>20</v>
       </c>
       <c r="H578" t="n">
-        <v>89590</v>
+        <v>89598</v>
       </c>
     </row>
     <row r="579">
@@ -23556,7 +23556,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E0A
+          <t xml:space="preserve">//Text $15E12
 #WRITE(ptr,$5D68)
 Still Practicing[END]
 </t>
@@ -23570,12 +23570,12 @@
       </c>
       <c r="D579" t="inlineStr">
         <is>
-          <t>15E0A</t>
+          <t>15E12</t>
         </is>
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>15E1B</t>
+          <t>15E23</t>
         </is>
       </c>
       <c r="F579" t="inlineStr">
@@ -23587,7 +23587,7 @@
         <v>17</v>
       </c>
       <c r="H579" t="n">
-        <v>89610</v>
+        <v>89618</v>
       </c>
     </row>
     <row r="580">
@@ -23596,7 +23596,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E1B
+          <t xml:space="preserve">//Text $15E23
 #WRITE(ptr,$5D6C)
 Expedition [Stahn][END]
 </t>
@@ -23610,12 +23610,12 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>15E1B</t>
+          <t>15E23</t>
         </is>
       </c>
       <c r="E580" t="inlineStr">
         <is>
-          <t>15E2C</t>
+          <t>15E34</t>
         </is>
       </c>
       <c r="F580" t="inlineStr">
@@ -23627,7 +23627,7 @@
         <v>17</v>
       </c>
       <c r="H580" t="n">
-        <v>89627</v>
+        <v>89635</v>
       </c>
     </row>
     <row r="581">
@@ -23636,7 +23636,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E2C
+          <t xml:space="preserve">//Text $15E34
 #WRITE(ptr,$5D70)
 Fortune - 1[END]
 </t>
@@ -23650,12 +23650,12 @@
       </c>
       <c r="D581" t="inlineStr">
         <is>
-          <t>15E2C</t>
+          <t>15E34</t>
         </is>
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>15E38</t>
+          <t>15E40</t>
         </is>
       </c>
       <c r="F581" t="inlineStr">
@@ -23667,7 +23667,7 @@
         <v>12</v>
       </c>
       <c r="H581" t="n">
-        <v>89644</v>
+        <v>89652</v>
       </c>
     </row>
     <row r="582">
@@ -23676,7 +23676,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E38
+          <t xml:space="preserve">//Text $15E40
 #WRITE(ptr,$5D74)
 Fortune - 2[END]
 </t>
@@ -23690,12 +23690,12 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>15E38</t>
+          <t>15E40</t>
         </is>
       </c>
       <c r="E582" t="inlineStr">
         <is>
-          <t>15E44</t>
+          <t>15E4C</t>
         </is>
       </c>
       <c r="F582" t="inlineStr">
@@ -23707,7 +23707,7 @@
         <v>12</v>
       </c>
       <c r="H582" t="n">
-        <v>89656</v>
+        <v>89664</v>
       </c>
     </row>
     <row r="583">
@@ -23716,7 +23716,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E44
+          <t xml:space="preserve">//Text $15E4C
 #WRITE(ptr,$5D78)
 Fortune - 3[END]
 </t>
@@ -23730,12 +23730,12 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>15E44</t>
+          <t>15E4C</t>
         </is>
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>15E50</t>
+          <t>15E58</t>
         </is>
       </c>
       <c r="F583" t="inlineStr">
@@ -23747,7 +23747,7 @@
         <v>12</v>
       </c>
       <c r="H583" t="n">
-        <v>89668</v>
+        <v>89676</v>
       </c>
     </row>
     <row r="584">
@@ -23756,7 +23756,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E50
+          <t xml:space="preserve">//Text $15E58
 #WRITE(ptr,$5D7C)
 Fortune - 4[END]
 </t>
@@ -23770,12 +23770,12 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>15E50</t>
+          <t>15E58</t>
         </is>
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>15E5C</t>
+          <t>15E64</t>
         </is>
       </c>
       <c r="F584" t="inlineStr">
@@ -23787,7 +23787,7 @@
         <v>12</v>
       </c>
       <c r="H584" t="n">
-        <v>89680</v>
+        <v>89688</v>
       </c>
     </row>
     <row r="585">
@@ -23796,7 +23796,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E5C
+          <t xml:space="preserve">//Text $15E64
 #WRITE(ptr,$5D80)
 Fortune - 5[END]
 </t>
@@ -23810,12 +23810,12 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>15E5C</t>
+          <t>15E64</t>
         </is>
       </c>
       <c r="E585" t="inlineStr">
         <is>
-          <t>15E68</t>
+          <t>15E70</t>
         </is>
       </c>
       <c r="F585" t="inlineStr">
@@ -23827,7 +23827,7 @@
         <v>12</v>
       </c>
       <c r="H585" t="n">
-        <v>89692</v>
+        <v>89700</v>
       </c>
     </row>
     <row r="586">
@@ -23836,7 +23836,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E68
+          <t xml:space="preserve">//Text $15E70
 #WRITE(ptr,$5D84)
 Fortune - 6[END]
 </t>
@@ -23850,12 +23850,12 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>15E68</t>
+          <t>15E70</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
         <is>
-          <t>15E74</t>
+          <t>15E7C</t>
         </is>
       </c>
       <c r="F586" t="inlineStr">
@@ -23867,7 +23867,7 @@
         <v>12</v>
       </c>
       <c r="H586" t="n">
-        <v>89704</v>
+        <v>89712</v>
       </c>
     </row>
     <row r="587">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E74
+          <t xml:space="preserve">//Text $15E7C
 #WRITE(ptr,$5D88)
 Fortune - 7[END]
 </t>
@@ -23890,12 +23890,12 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>15E74</t>
+          <t>15E7C</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
-          <t>15E80</t>
+          <t>15E88</t>
         </is>
       </c>
       <c r="F587" t="inlineStr">
@@ -23907,7 +23907,7 @@
         <v>12</v>
       </c>
       <c r="H587" t="n">
-        <v>89716</v>
+        <v>89724</v>
       </c>
     </row>
     <row r="588">
@@ -23916,7 +23916,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E80
+          <t xml:space="preserve">//Text $15E88
 #WRITE(ptr,$5D8C)
 "[Batista] Bomb"[END]
 </t>
@@ -23930,12 +23930,12 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>15E80</t>
+          <t>15E88</t>
         </is>
       </c>
       <c r="E588" t="inlineStr">
         <is>
-          <t>15E8D</t>
+          <t>15E95</t>
         </is>
       </c>
       <c r="F588" t="inlineStr">
@@ -23947,7 +23947,7 @@
         <v>13</v>
       </c>
       <c r="H588" t="n">
-        <v>89728</v>
+        <v>89736</v>
       </c>
     </row>
     <row r="589">
@@ -23956,7 +23956,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15E8D
+          <t xml:space="preserve">//Text $15E95
 #WRITE(ptr,$5D90)
 [Philia]'s True Feelings[END]
 </t>
@@ -23970,12 +23970,12 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>15E8D</t>
+          <t>15E95</t>
         </is>
       </c>
       <c r="E589" t="inlineStr">
         <is>
-          <t>15EA3</t>
+          <t>15EAB</t>
         </is>
       </c>
       <c r="F589" t="inlineStr">
@@ -23987,7 +23987,7 @@
         <v>22</v>
       </c>
       <c r="H589" t="n">
-        <v>89741</v>
+        <v>89749</v>
       </c>
     </row>
     <row r="590">
@@ -23996,7 +23996,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EA3
+          <t xml:space="preserve">//Text $15EAB
 #WRITE(ptr,$5D94)
 A Time for Dreaming[END]
 </t>
@@ -24010,12 +24010,12 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>15EA3</t>
+          <t>15EAB</t>
         </is>
       </c>
       <c r="E590" t="inlineStr">
         <is>
-          <t>15EB7</t>
+          <t>15EBF</t>
         </is>
       </c>
       <c r="F590" t="inlineStr">
@@ -24027,7 +24027,7 @@
         <v>20</v>
       </c>
       <c r="H590" t="n">
-        <v>89763</v>
+        <v>89771</v>
       </c>
     </row>
     <row r="591">
@@ -24036,7 +24036,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EB7
+          <t xml:space="preserve">//Text $15EBF
 #WRITE(ptr,$5D98)
 He's Me, I'm Him, so he's...[END]
 </t>
@@ -24050,12 +24050,12 @@
       </c>
       <c r="D591" t="inlineStr">
         <is>
-          <t>15EB7</t>
+          <t>15EBF</t>
         </is>
       </c>
       <c r="E591" t="inlineStr">
         <is>
-          <t>15ED4</t>
+          <t>15EDC</t>
         </is>
       </c>
       <c r="F591" t="inlineStr">
@@ -24067,7 +24067,7 @@
         <v>29</v>
       </c>
       <c r="H591" t="n">
-        <v>89783</v>
+        <v>89791</v>
       </c>
     </row>
     <row r="592">
@@ -24076,7 +24076,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15ED4
+          <t xml:space="preserve">//Text $15EDC
 #WRITE(ptr,$5D9C)
 [Rembrandt]'s Talent[END]
 </t>
@@ -24090,12 +24090,12 @@
       </c>
       <c r="D592" t="inlineStr">
         <is>
-          <t>15ED4</t>
+          <t>15EDC</t>
         </is>
       </c>
       <c r="E592" t="inlineStr">
         <is>
-          <t>15EE3</t>
+          <t>15EEB</t>
         </is>
       </c>
       <c r="F592" t="inlineStr">
@@ -24107,7 +24107,7 @@
         <v>15</v>
       </c>
       <c r="H592" t="n">
-        <v>89812</v>
+        <v>89820</v>
       </c>
     </row>
     <row r="593">
@@ -24116,7 +24116,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EE3
+          <t xml:space="preserve">//Text $15EEB
 #WRITE(ptr,$5DA0)
 Outtake 1[END]
 </t>
@@ -24130,12 +24130,12 @@
       </c>
       <c r="D593" t="inlineStr">
         <is>
-          <t>15EE3</t>
+          <t>15EEB</t>
         </is>
       </c>
       <c r="E593" t="inlineStr">
         <is>
-          <t>15EED</t>
+          <t>15EF5</t>
         </is>
       </c>
       <c r="F593" t="inlineStr">
@@ -24147,7 +24147,7 @@
         <v>10</v>
       </c>
       <c r="H593" t="n">
-        <v>89827</v>
+        <v>89835</v>
       </c>
     </row>
     <row r="594">
@@ -24156,7 +24156,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EED
+          <t xml:space="preserve">//Text $15EF5
 #WRITE(ptr,$5DA4)
 Outtake 2[END]
 </t>
@@ -24170,12 +24170,12 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>15EED</t>
+          <t>15EF5</t>
         </is>
       </c>
       <c r="E594" t="inlineStr">
         <is>
-          <t>15EF7</t>
+          <t>15EFF</t>
         </is>
       </c>
       <c r="F594" t="inlineStr">
@@ -24187,7 +24187,7 @@
         <v>10</v>
       </c>
       <c r="H594" t="n">
-        <v>89837</v>
+        <v>89845</v>
       </c>
     </row>
     <row r="595">
@@ -24196,7 +24196,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15EF7
+          <t xml:space="preserve">//Text $15EFF
 #WRITE(ptr,$5DA8)
 Bonus Footage: Backstage[END]
 </t>
@@ -24210,12 +24210,12 @@
       </c>
       <c r="D595" t="inlineStr">
         <is>
-          <t>15EF7</t>
+          <t>15EFF</t>
         </is>
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>15F10</t>
+          <t>15F18</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
@@ -24227,7 +24227,7 @@
         <v>25</v>
       </c>
       <c r="H595" t="n">
-        <v>89847</v>
+        <v>89855</v>
       </c>
     </row>
     <row r="596">
@@ -24236,7 +24236,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F10
+          <t xml:space="preserve">//Text $15F18
 #WRITE(ptr,$5DAC)
 Phantasia[END]
 </t>
@@ -24250,12 +24250,12 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>15F10</t>
+          <t>15F18</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
         <is>
-          <t>15F1A</t>
+          <t>15F22</t>
         </is>
       </c>
       <c r="F596" t="inlineStr">
@@ -24267,7 +24267,7 @@
         <v>10</v>
       </c>
       <c r="H596" t="n">
-        <v>89872</v>
+        <v>89880</v>
       </c>
     </row>
     <row r="597">
@@ -24276,7 +24276,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F1A
+          <t xml:space="preserve">//Text $15F22
 #WRITE(ptr,$5DB0)
 The Abyss[END]
 </t>
@@ -24290,12 +24290,12 @@
       </c>
       <c r="D597" t="inlineStr">
         <is>
-          <t>15F1A</t>
+          <t>15F22</t>
         </is>
       </c>
       <c r="E597" t="inlineStr">
         <is>
-          <t>15F24</t>
+          <t>15F2C</t>
         </is>
       </c>
       <c r="F597" t="inlineStr">
@@ -24307,7 +24307,7 @@
         <v>10</v>
       </c>
       <c r="H597" t="n">
-        <v>89882</v>
+        <v>89890</v>
       </c>
     </row>
     <row r="598">
@@ -24316,7 +24316,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F24
+          <t xml:space="preserve">//Text $15F2C
 #WRITE(ptr,$5DB4)
 "Tales of" Series[END]
 </t>
@@ -24330,12 +24330,12 @@
       </c>
       <c r="D598" t="inlineStr">
         <is>
-          <t>15F24</t>
+          <t>15F2C</t>
         </is>
       </c>
       <c r="E598" t="inlineStr">
         <is>
-          <t>15F36</t>
+          <t>15F3E</t>
         </is>
       </c>
       <c r="F598" t="inlineStr">
@@ -24347,7 +24347,7 @@
         <v>18</v>
       </c>
       <c r="H598" t="n">
-        <v>89892</v>
+        <v>89900</v>
       </c>
     </row>
     <row r="599">
@@ -24356,7 +24356,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F36
+          <t xml:space="preserve">//Text $15F3E
 #WRITE(ptr,$5DB8)
 Tales of Destiny[END]
 </t>
@@ -24370,12 +24370,12 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>15F36</t>
+          <t>15F3E</t>
         </is>
       </c>
       <c r="E599" t="inlineStr">
         <is>
-          <t>15F47</t>
+          <t>15F4F</t>
         </is>
       </c>
       <c r="F599" t="inlineStr">
@@ -24387,7 +24387,7 @@
         <v>17</v>
       </c>
       <c r="H599" t="n">
-        <v>89910</v>
+        <v>89918</v>
       </c>
     </row>
     <row r="600">
@@ -24396,7 +24396,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F47
+          <t xml:space="preserve">//Text $15F4F
 #WRITE(ptr,$5DBC)
 [Reynolds] is Useful[END]
 </t>
@@ -24410,12 +24410,12 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>15F47</t>
+          <t>15F4F</t>
         </is>
       </c>
       <c r="E600" t="inlineStr">
         <is>
-          <t>15F57</t>
+          <t>15F5F</t>
         </is>
       </c>
       <c r="F600" t="inlineStr">
@@ -24427,7 +24427,7 @@
         <v>16</v>
       </c>
       <c r="H600" t="n">
-        <v>89927</v>
+        <v>89935</v>
       </c>
     </row>
     <row r="601">
@@ -24436,7 +24436,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F57
+          <t xml:space="preserve">//Text $15F5F
 #WRITE(ptr,$5DC0)
 [Ritora]'s Hologram Is Amazing![END]
 </t>
@@ -24450,12 +24450,12 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>15F57</t>
+          <t>15F5F</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
         <is>
-          <t>15F74</t>
+          <t>15F7C</t>
         </is>
       </c>
       <c r="F601" t="inlineStr">
@@ -24467,7 +24467,7 @@
         <v>29</v>
       </c>
       <c r="H601" t="n">
-        <v>89943</v>
+        <v>89951</v>
       </c>
     </row>
     <row r="602">
@@ -24476,7 +24476,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F74
+          <t xml:space="preserve">//Text $15F7C
 #WRITE(ptr,$5DC4)
 We've Been Together All Along[END]
 </t>
@@ -24490,12 +24490,12 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>15F74</t>
+          <t>15F7C</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>15F92</t>
+          <t>15F9A</t>
         </is>
       </c>
       <c r="F602" t="inlineStr">
@@ -24507,7 +24507,7 @@
         <v>30</v>
       </c>
       <c r="H602" t="n">
-        <v>89972</v>
+        <v>89980</v>
       </c>
     </row>
     <row r="603">
@@ -24516,7 +24516,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F92
+          <t xml:space="preserve">//Text $15F9A
 #WRITE(ptr,$5DC8)
 [END]
 </t>
@@ -24530,12 +24530,12 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>15F92</t>
+          <t>15F9A</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>15F93</t>
+          <t>15F9B</t>
         </is>
       </c>
       <c r="F603" t="inlineStr">
@@ -24547,7 +24547,7 @@
         <v>1</v>
       </c>
       <c r="H603" t="n">
-        <v>90002</v>
+        <v>90010</v>
       </c>
     </row>
     <row r="604">
@@ -24556,7 +24556,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F93
+          <t xml:space="preserve">//Text $15F9B
 #WRITE(ptr,$5DCC)
 [END]
 </t>
@@ -24570,12 +24570,12 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>15F93</t>
+          <t>15F9B</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>15F94</t>
+          <t>15F9C</t>
         </is>
       </c>
       <c r="F604" t="inlineStr">
@@ -24587,7 +24587,7 @@
         <v>1</v>
       </c>
       <c r="H604" t="n">
-        <v>90003</v>
+        <v>90011</v>
       </c>
     </row>
     <row r="605">
@@ -24596,7 +24596,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F94
+          <t xml:space="preserve">//Text $15F9C
 #WRITE(ptr,$5DD0)
 [END]
 </t>
@@ -24610,12 +24610,12 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>15F94</t>
+          <t>15F9C</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>15F95</t>
+          <t>15F9D</t>
         </is>
       </c>
       <c r="F605" t="inlineStr">
@@ -24627,7 +24627,7 @@
         <v>1</v>
       </c>
       <c r="H605" t="n">
-        <v>90004</v>
+        <v>90012</v>
       </c>
     </row>
     <row r="606">
@@ -24636,7 +24636,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F95
+          <t xml:space="preserve">//Text $15F9D
 #WRITE(ptr,$5DD4)
 [END]
 </t>
@@ -24650,12 +24650,12 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>15F95</t>
+          <t>15F9D</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>15F96</t>
+          <t>15F9E</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
@@ -24667,7 +24667,7 @@
         <v>1</v>
       </c>
       <c r="H606" t="n">
-        <v>90005</v>
+        <v>90013</v>
       </c>
     </row>
     <row r="607">
@@ -24676,7 +24676,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F96
+          <t xml:space="preserve">//Text $15F9E
 #WRITE(ptr,$5DD8)
 [END]
 </t>
@@ -24690,12 +24690,12 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>15F96</t>
+          <t>15F9E</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>15F97</t>
+          <t>15F9F</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
@@ -24707,7 +24707,7 @@
         <v>1</v>
       </c>
       <c r="H607" t="n">
-        <v>90006</v>
+        <v>90014</v>
       </c>
     </row>
     <row r="608">
@@ -24716,7 +24716,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F97
+          <t xml:space="preserve">//Text $15F9F
 #WRITE(ptr,$5DDC)
 [END]
 </t>
@@ -24730,12 +24730,12 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>15F97</t>
+          <t>15F9F</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>15F98</t>
+          <t>15FA0</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
@@ -24747,7 +24747,7 @@
         <v>1</v>
       </c>
       <c r="H608" t="n">
-        <v>90007</v>
+        <v>90015</v>
       </c>
     </row>
     <row r="609">
@@ -24756,7 +24756,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F98
+          <t xml:space="preserve">//Text $15FA0
 #WRITE(ptr,$5DE0)
 [END]
 </t>
@@ -24770,12 +24770,12 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>15F98</t>
+          <t>15FA0</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>15F99</t>
+          <t>15FA1</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
@@ -24787,7 +24787,7 @@
         <v>1</v>
       </c>
       <c r="H609" t="n">
-        <v>90008</v>
+        <v>90016</v>
       </c>
     </row>
     <row r="610">
@@ -24796,7 +24796,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F99
+          <t xml:space="preserve">//Text $15FA1
 #WRITE(ptr,$5DE4)
 [END]
 </t>
@@ -24810,12 +24810,12 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>15F99</t>
+          <t>15FA1</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>15F9A</t>
+          <t>15FA2</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
@@ -24827,7 +24827,7 @@
         <v>1</v>
       </c>
       <c r="H610" t="n">
-        <v>90009</v>
+        <v>90017</v>
       </c>
     </row>
     <row r="611">
@@ -24836,7 +24836,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9A
+          <t xml:space="preserve">//Text $15FA2
 #WRITE(ptr,$5DE8)
 [END]
 </t>
@@ -24850,12 +24850,12 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>15F9A</t>
+          <t>15FA2</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>15F9B</t>
+          <t>15FA3</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
@@ -24867,7 +24867,7 @@
         <v>1</v>
       </c>
       <c r="H611" t="n">
-        <v>90010</v>
+        <v>90018</v>
       </c>
     </row>
     <row r="612">
@@ -24876,7 +24876,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9B
+          <t xml:space="preserve">//Text $15FA3
 #WRITE(ptr,$5DEC)
 [END]
 </t>
@@ -24890,12 +24890,12 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>15F9B</t>
+          <t>15FA3</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>15F9C</t>
+          <t>15FA4</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
@@ -24907,7 +24907,7 @@
         <v>1</v>
       </c>
       <c r="H612" t="n">
-        <v>90011</v>
+        <v>90019</v>
       </c>
     </row>
     <row r="613">
@@ -24916,7 +24916,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9C
+          <t xml:space="preserve">//Text $15FA4
 #WRITE(ptr,$5DF0)
 [END]
 </t>
@@ -24930,12 +24930,12 @@
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>15F9C</t>
+          <t>15FA4</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>15F9D</t>
+          <t>15FA5</t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
@@ -24947,7 +24947,7 @@
         <v>1</v>
       </c>
       <c r="H613" t="n">
-        <v>90012</v>
+        <v>90020</v>
       </c>
     </row>
     <row r="614">
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15F9D
+          <t xml:space="preserve">//Text $15FA5
 #WRITE(ptr,$5DF4)
 Another Swordian[END]
 </t>
@@ -24970,12 +24970,12 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>15F9D</t>
+          <t>15FA5</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>15FAE</t>
+          <t>15FB6</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
@@ -24987,7 +24987,7 @@
         <v>17</v>
       </c>
       <c r="H614" t="n">
-        <v>90013</v>
+        <v>90021</v>
       </c>
     </row>
     <row r="615">
@@ -24996,7 +24996,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FAE
+          <t xml:space="preserve">//Text $15FB6
 #WRITE(ptr,$5DF8)
 Why?[END]
 </t>
@@ -25010,12 +25010,12 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>15FAE</t>
+          <t>15FB6</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>15FB3</t>
+          <t>15FBB</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
@@ -25027,7 +25027,7 @@
         <v>5</v>
       </c>
       <c r="H615" t="n">
-        <v>90030</v>
+        <v>90038</v>
       </c>
     </row>
     <row r="616">
@@ -25036,7 +25036,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FB3
+          <t xml:space="preserve">//Text $15FBB
 #WRITE(ptr,$5DFC)
 [Marian]'s Lecture..[END]
 </t>
@@ -25050,12 +25050,12 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>15FB3</t>
+          <t>15FBB</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>15FC5</t>
+          <t>15FCD</t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
@@ -25067,7 +25067,7 @@
         <v>18</v>
       </c>
       <c r="H616" t="n">
-        <v>90035</v>
+        <v>90043</v>
       </c>
     </row>
     <row r="617">
@@ -25076,7 +25076,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FC5
+          <t xml:space="preserve">//Text $15FCD
 #WRITE(ptr,$5E00)
 We're up Against 3 People![END]
 </t>
@@ -25090,12 +25090,12 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>15FC5</t>
+          <t>15FCD</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>15FE0</t>
+          <t>15FE8</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
@@ -25107,7 +25107,7 @@
         <v>27</v>
       </c>
       <c r="H617" t="n">
-        <v>90053</v>
+        <v>90061</v>
       </c>
     </row>
     <row r="618">
@@ -25116,7 +25116,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FE0
+          <t xml:space="preserve">//Text $15FE8
 #WRITE(ptr,$5E04)
 [Hugo] and [Rutee][END]
 </t>
@@ -25130,12 +25130,12 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>15FE0</t>
+          <t>15FE8</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>15FF0</t>
+          <t>15FF8</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
@@ -25147,7 +25147,7 @@
         <v>16</v>
       </c>
       <c r="H618" t="n">
-        <v>90080</v>
+        <v>90088</v>
       </c>
     </row>
     <row r="619">
@@ -25156,7 +25156,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $15FF0
+          <t xml:space="preserve">//Text $15FF8
 #WRITE(ptr,$5E08)
 Not [Dymlos] and [Atwight]..[END]
 </t>
@@ -25170,12 +25170,12 @@
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>15FF0</t>
+          <t>15FF8</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>16006</t>
+          <t>1600E</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
@@ -25187,7 +25187,7 @@
         <v>22</v>
       </c>
       <c r="H619" t="n">
-        <v>90096</v>
+        <v>90104</v>
       </c>
     </row>
     <row r="620">
@@ -25196,7 +25196,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16006
+          <t xml:space="preserve">//Text $1600E
 #WRITE(ptr,$5E0C)
 [Hugo]'s Plan[END]
 </t>
@@ -25210,12 +25210,12 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>16006</t>
+          <t>1600E</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>16013</t>
+          <t>1601B</t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
@@ -25227,7 +25227,7 @@
         <v>13</v>
       </c>
       <c r="H620" t="n">
-        <v>90118</v>
+        <v>90126</v>
       </c>
     </row>
     <row r="621">
@@ -25236,7 +25236,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16013
+          <t xml:space="preserve">//Text $1601B
 #WRITE(ptr,$5E10)
 Chal's Concern[END]
 </t>
@@ -25250,12 +25250,12 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>16013</t>
+          <t>1601B</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>16022</t>
+          <t>1602A</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
@@ -25267,7 +25267,7 @@
         <v>15</v>
       </c>
       <c r="H621" t="n">
-        <v>90131</v>
+        <v>90139</v>
       </c>
     </row>
     <row r="622">
@@ -25276,7 +25276,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16022
+          <t xml:space="preserve">//Text $1602A
 #WRITE(ptr,$5E14)
 [Atwight] the Oasis[END]
 </t>
@@ -25290,12 +25290,12 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>16022</t>
+          <t>1602A</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>16032</t>
+          <t>1603A</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
@@ -25307,7 +25307,7 @@
         <v>16</v>
       </c>
       <c r="H622" t="n">
-        <v>90146</v>
+        <v>90154</v>
       </c>
     </row>
     <row r="623">
@@ -25316,7 +25316,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16032
+          <t xml:space="preserve">//Text $1603A
 #WRITE(ptr,$5E18)
 The Two of Us[END]
 </t>
@@ -25330,12 +25330,12 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>16032</t>
+          <t>1603A</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>16040</t>
+          <t>16048</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
@@ -25347,7 +25347,7 @@
         <v>14</v>
       </c>
       <c r="H623" t="n">
-        <v>90162</v>
+        <v>90170</v>
       </c>
     </row>
     <row r="624">
@@ -25356,7 +25356,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16040
+          <t xml:space="preserve">//Text $16048
 #WRITE(ptr,$5E1C)
 Softy Kreem![END]
 </t>
@@ -25370,12 +25370,12 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>16040</t>
+          <t>16048</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>1604D</t>
+          <t>16055</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
@@ -25387,7 +25387,7 @@
         <v>13</v>
       </c>
       <c r="H624" t="n">
-        <v>90176</v>
+        <v>90184</v>
       </c>
     </row>
     <row r="625">
@@ -25396,7 +25396,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1604D
+          <t xml:space="preserve">//Text $16055
 #WRITE(ptr,$5E20)
 So Dashing![END]
 </t>
@@ -25410,12 +25410,12 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>1604D</t>
+          <t>16055</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>16059</t>
+          <t>16061</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
@@ -25427,7 +25427,7 @@
         <v>12</v>
       </c>
       <c r="H625" t="n">
-        <v>90189</v>
+        <v>90197</v>
       </c>
     </row>
     <row r="626">
@@ -25436,7 +25436,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16059
+          <t xml:space="preserve">//Text $16061
 #WRITE(ptr,$5E24)
 Irritated [Lion][END]
 </t>
@@ -25450,12 +25450,12 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>16059</t>
+          <t>16061</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>16069</t>
+          <t>16071</t>
         </is>
       </c>
       <c r="F626" t="inlineStr">
@@ -25467,7 +25467,7 @@
         <v>16</v>
       </c>
       <c r="H626" t="n">
-        <v>90201</v>
+        <v>90209</v>
       </c>
     </row>
     <row r="627">
@@ -25476,7 +25476,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16069
+          <t xml:space="preserve">//Text $16071
 #WRITE(ptr,$5E28)
 Always Together!?[END]
 </t>
@@ -25490,12 +25490,12 @@
       </c>
       <c r="D627" t="inlineStr">
         <is>
-          <t>16069</t>
+          <t>16071</t>
         </is>
       </c>
       <c r="E627" t="inlineStr">
         <is>
-          <t>1607B</t>
+          <t>16083</t>
         </is>
       </c>
       <c r="F627" t="inlineStr">
@@ -25507,7 +25507,7 @@
         <v>18</v>
       </c>
       <c r="H627" t="n">
-        <v>90217</v>
+        <v>90225</v>
       </c>
     </row>
     <row r="628">
@@ -25516,7 +25516,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1607B
+          <t xml:space="preserve">//Text $16083
 #WRITE(ptr,$5E2C)
 Family..[END]
 </t>
@@ -25530,12 +25530,12 @@
       </c>
       <c r="D628" t="inlineStr">
         <is>
-          <t>1607B</t>
+          <t>16083</t>
         </is>
       </c>
       <c r="E628" t="inlineStr">
         <is>
-          <t>16084</t>
+          <t>1608C</t>
         </is>
       </c>
       <c r="F628" t="inlineStr">
@@ -25547,7 +25547,7 @@
         <v>9</v>
       </c>
       <c r="H628" t="n">
-        <v>90235</v>
+        <v>90243</v>
       </c>
     </row>
     <row r="629">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16084
+          <t xml:space="preserve">//Text $1608C
 #WRITE(ptr,$5E30)
 [Lion] Needs Glasses[END]
 </t>
@@ -25570,12 +25570,12 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>16084</t>
+          <t>1608C</t>
         </is>
       </c>
       <c r="E629" t="inlineStr">
         <is>
-          <t>16098</t>
+          <t>160A0</t>
         </is>
       </c>
       <c r="F629" t="inlineStr">
@@ -25587,7 +25587,7 @@
         <v>20</v>
       </c>
       <c r="H629" t="n">
-        <v>90244</v>
+        <v>90252</v>
       </c>
     </row>
     <row r="630">
@@ -25596,7 +25596,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16098
+          <t xml:space="preserve">//Text $160A0
 #WRITE(ptr,$5E34)
 Will and Jobs[END]
 </t>
@@ -25610,12 +25610,12 @@
       </c>
       <c r="D630" t="inlineStr">
         <is>
-          <t>16098</t>
+          <t>160A0</t>
         </is>
       </c>
       <c r="E630" t="inlineStr">
         <is>
-          <t>160A6</t>
+          <t>160AE</t>
         </is>
       </c>
       <c r="F630" t="inlineStr">
@@ -25627,7 +25627,7 @@
         <v>14</v>
       </c>
       <c r="H630" t="n">
-        <v>90264</v>
+        <v>90272</v>
       </c>
     </row>
     <row r="631">
@@ -25636,7 +25636,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $160A6
+          <t xml:space="preserve">//Text $160AE
 #WRITE(ptr,$5E38)
 Weeping [Chaltier][END]
 </t>
@@ -25650,12 +25650,12 @@
       </c>
       <c r="D631" t="inlineStr">
         <is>
-          <t>160A6</t>
+          <t>160AE</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>160B4</t>
+          <t>160BC</t>
         </is>
       </c>
       <c r="F631" t="inlineStr">
@@ -25667,7 +25667,7 @@
         <v>14</v>
       </c>
       <c r="H631" t="n">
-        <v>90278</v>
+        <v>90286</v>
       </c>
     </row>
     <row r="632">
@@ -25676,7 +25676,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $160B4
+          <t xml:space="preserve">//Text $160BC
 #WRITE(ptr,$5E3C)
 Nothing Important. Just Killing Time[END]
 </t>
@@ -25690,12 +25690,12 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>160B4</t>
+          <t>160BC</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>160D9</t>
+          <t>160E1</t>
         </is>
       </c>
       <c r="F632" t="inlineStr">
@@ -25707,7 +25707,7 @@
         <v>37</v>
       </c>
       <c r="H632" t="n">
-        <v>90292</v>
+        <v>90300</v>
       </c>
     </row>
     <row r="633">
@@ -25716,7 +25716,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $160D9
+          <t xml:space="preserve">//Text $160E1
 #WRITE(ptr,$5E40)
 A Real Nice Place?[END]
 </t>
@@ -25730,12 +25730,12 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>160D9</t>
+          <t>160E1</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>160EC</t>
+          <t>160F4</t>
         </is>
       </c>
       <c r="F633" t="inlineStr">
@@ -25747,7 +25747,7 @@
         <v>19</v>
       </c>
       <c r="H633" t="n">
-        <v>90329</v>
+        <v>90337</v>
       </c>
     </row>
     <row r="634">
@@ -25756,7 +25756,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $160EC
+          <t xml:space="preserve">//Text $160F4
 #WRITE(ptr,$5E44)
 About [Lion]'s Mother[END]
 </t>
@@ -25770,12 +25770,12 @@
       </c>
       <c r="D634" t="inlineStr">
         <is>
-          <t>160EC</t>
+          <t>160F4</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>16101</t>
+          <t>16109</t>
         </is>
       </c>
       <c r="F634" t="inlineStr">
@@ -25787,7 +25787,7 @@
         <v>21</v>
       </c>
       <c r="H634" t="n">
-        <v>90348</v>
+        <v>90356</v>
       </c>
     </row>
     <row r="635">
@@ -25796,7 +25796,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16101
+          <t xml:space="preserve">//Text $16109
 #WRITE(ptr,$5E48)
 Kind Master [lion] Isn't![END]
 </t>
@@ -25810,12 +25810,12 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>16101</t>
+          <t>16109</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>1611B</t>
+          <t>16123</t>
         </is>
       </c>
       <c r="F635" t="inlineStr">
@@ -25827,7 +25827,7 @@
         <v>26</v>
       </c>
       <c r="H635" t="n">
-        <v>90369</v>
+        <v>90377</v>
       </c>
     </row>
     <row r="636">
@@ -25836,7 +25836,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1611B
+          <t xml:space="preserve">//Text $16123
 #WRITE(ptr,$5E4C)
 The Beach[END]
 </t>
@@ -25850,12 +25850,12 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>1611B</t>
+          <t>16123</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>16125</t>
+          <t>1612D</t>
         </is>
       </c>
       <c r="F636" t="inlineStr">
@@ -25867,7 +25867,7 @@
         <v>10</v>
       </c>
       <c r="H636" t="n">
-        <v>90395</v>
+        <v>90403</v>
       </c>
     </row>
     <row r="637">
@@ -25876,7 +25876,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16125
+          <t xml:space="preserve">//Text $1612D
 #WRITE(ptr,$5E50)
 A Building Visible on That Island[END]
 </t>
@@ -25890,12 +25890,12 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>16125</t>
+          <t>1612D</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>16147</t>
+          <t>1614F</t>
         </is>
       </c>
       <c r="F637" t="inlineStr">
@@ -25907,7 +25907,7 @@
         <v>34</v>
       </c>
       <c r="H637" t="n">
-        <v>90405</v>
+        <v>90413</v>
       </c>
     </row>
     <row r="638">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16147
+          <t xml:space="preserve">//Text $1614F
 #WRITE(ptr,$5E54)
 [Lion] and Chal's Quarrel[END]
 </t>
@@ -25930,12 +25930,12 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>16147</t>
+          <t>1614F</t>
         </is>
       </c>
       <c r="E638" t="inlineStr">
         <is>
-          <t>16160</t>
+          <t>16168</t>
         </is>
       </c>
       <c r="F638" t="inlineStr">
@@ -25947,7 +25947,7 @@
         <v>25</v>
       </c>
       <c r="H638" t="n">
-        <v>90439</v>
+        <v>90447</v>
       </c>
     </row>
     <row r="639">
@@ -25956,7 +25956,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16160
+          <t xml:space="preserve">//Text $16168
 #WRITE(ptr,$5E58)
 Where Are We?[END]
 </t>
@@ -25970,12 +25970,12 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>16160</t>
+          <t>16168</t>
         </is>
       </c>
       <c r="E639" t="inlineStr">
         <is>
-          <t>1616E</t>
+          <t>16176</t>
         </is>
       </c>
       <c r="F639" t="inlineStr">
@@ -25987,7 +25987,7 @@
         <v>14</v>
       </c>
       <c r="H639" t="n">
-        <v>90464</v>
+        <v>90472</v>
       </c>
     </row>
     <row r="640">
@@ -25996,7 +25996,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1616E
+          <t xml:space="preserve">//Text $16176
 #WRITE(ptr,$5E5C)
 Farewell!?[END]
 </t>
@@ -26010,12 +26010,12 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>1616E</t>
+          <t>16176</t>
         </is>
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>16179</t>
+          <t>16181</t>
         </is>
       </c>
       <c r="F640" t="inlineStr">
@@ -26027,7 +26027,7 @@
         <v>11</v>
       </c>
       <c r="H640" t="n">
-        <v>90478</v>
+        <v>90486</v>
       </c>
     </row>
     <row r="641">
@@ -26036,7 +26036,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16179
+          <t xml:space="preserve">//Text $16181
 #WRITE(ptr,$5E60)
 [Philia]'s Glasses - 2[END]
 </t>
@@ -26050,12 +26050,12 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>16179</t>
+          <t>16181</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>1618D</t>
+          <t>16195</t>
         </is>
       </c>
       <c r="F641" t="inlineStr">
@@ -26067,7 +26067,7 @@
         <v>20</v>
       </c>
       <c r="H641" t="n">
-        <v>90489</v>
+        <v>90497</v>
       </c>
     </row>
     <row r="642">
@@ -26076,7 +26076,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1618D
+          <t xml:space="preserve">//Text $16195
 #WRITE(ptr,$5E64)
 Thirsty[END]
 </t>
@@ -26090,12 +26090,12 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>1618D</t>
+          <t>16195</t>
         </is>
       </c>
       <c r="E642" t="inlineStr">
         <is>
-          <t>16195</t>
+          <t>1619D</t>
         </is>
       </c>
       <c r="F642" t="inlineStr">
@@ -26107,7 +26107,7 @@
         <v>8</v>
       </c>
       <c r="H642" t="n">
-        <v>90509</v>
+        <v>90517</v>
       </c>
     </row>
     <row r="643">
@@ -26116,7 +26116,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16195
+          <t xml:space="preserve">//Text $1619D
 #WRITE(ptr,$5E68)
 [Philia]'s Shampoo[END]
 </t>
@@ -26130,12 +26130,12 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>16195</t>
+          <t>1619D</t>
         </is>
       </c>
       <c r="E643" t="inlineStr">
         <is>
-          <t>161A5</t>
+          <t>161AD</t>
         </is>
       </c>
       <c r="F643" t="inlineStr">
@@ -26147,7 +26147,7 @@
         <v>16</v>
       </c>
       <c r="H643" t="n">
-        <v>90517</v>
+        <v>90525</v>
       </c>
     </row>
     <row r="644">
@@ -26156,7 +26156,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161A5
+          <t xml:space="preserve">//Text $161AD
 #WRITE(ptr,$5E6C)
 Pow Hammer![END]
 </t>
@@ -26170,12 +26170,12 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>161A5</t>
+          <t>161AD</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
         <is>
-          <t>161B1</t>
+          <t>161B9</t>
         </is>
       </c>
       <c r="F644" t="inlineStr">
@@ -26187,7 +26187,7 @@
         <v>12</v>
       </c>
       <c r="H644" t="n">
-        <v>90533</v>
+        <v>90541</v>
       </c>
     </row>
     <row r="645">
@@ -26196,7 +26196,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161B1
+          <t xml:space="preserve">//Text $161B9
 #WRITE(ptr,$5E70)
 Onigiri[END]
 </t>
@@ -26210,12 +26210,12 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>161B1</t>
+          <t>161B9</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>161B9</t>
+          <t>161C1</t>
         </is>
       </c>
       <c r="F645" t="inlineStr">
@@ -26227,7 +26227,7 @@
         <v>8</v>
       </c>
       <c r="H645" t="n">
-        <v>90545</v>
+        <v>90553</v>
       </c>
     </row>
     <row r="646">
@@ -26236,7 +26236,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161B9
+          <t xml:space="preserve">//Text $161C1
 #WRITE(ptr,$5E74)
 Hamburger[END]
 </t>
@@ -26250,12 +26250,12 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>161B9</t>
+          <t>161C1</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
         <is>
-          <t>161C3</t>
+          <t>161CB</t>
         </is>
       </c>
       <c r="F646" t="inlineStr">
@@ -26267,7 +26267,7 @@
         <v>10</v>
       </c>
       <c r="H646" t="n">
-        <v>90553</v>
+        <v>90561</v>
       </c>
     </row>
     <row r="647">
@@ -26276,7 +26276,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161C3
+          <t xml:space="preserve">//Text $161CB
 #WRITE(ptr,$5E78)
 To the Village of Harmentz[END]
 </t>
@@ -26290,12 +26290,12 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>161C3</t>
+          <t>161CB</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
         <is>
-          <t>161DE</t>
+          <t>161E6</t>
         </is>
       </c>
       <c r="F647" t="inlineStr">
@@ -26307,7 +26307,7 @@
         <v>27</v>
       </c>
       <c r="H647" t="n">
-        <v>90563</v>
+        <v>90571</v>
       </c>
     </row>
     <row r="648">
@@ -26316,7 +26316,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161DE
+          <t xml:space="preserve">//Text $161E6
 #WRITE(ptr,$5E7C)
 Harmentz is West of Darilsheid[END]
 </t>
@@ -26330,12 +26330,12 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>161DE</t>
+          <t>161E6</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
         <is>
-          <t>161FD</t>
+          <t>16205</t>
         </is>
       </c>
       <c r="F648" t="inlineStr">
@@ -26347,7 +26347,7 @@
         <v>31</v>
       </c>
       <c r="H648" t="n">
-        <v>90590</v>
+        <v>90598</v>
       </c>
     </row>
     <row r="649">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $161FD
+          <t xml:space="preserve">//Text $16205
 #WRITE(ptr,$5E80)
 No Business at the Castle[END]
 </t>
@@ -26370,12 +26370,12 @@
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>161FD</t>
+          <t>16205</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
         <is>
-          <t>16217</t>
+          <t>1621F</t>
         </is>
       </c>
       <c r="F649" t="inlineStr">
@@ -26387,7 +26387,7 @@
         <v>26</v>
       </c>
       <c r="H649" t="n">
-        <v>90621</v>
+        <v>90629</v>
       </c>
     </row>
     <row r="650">
@@ -26396,7 +26396,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16217
+          <t xml:space="preserve">//Text $1621F
 #WRITE(ptr,$5E84)
 Let's go to Harmentz[END]
 </t>
@@ -26410,12 +26410,12 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>16217</t>
+          <t>1621F</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
         <is>
-          <t>1622C</t>
+          <t>16234</t>
         </is>
       </c>
       <c r="F650" t="inlineStr">
@@ -26427,7 +26427,7 @@
         <v>21</v>
       </c>
       <c r="H650" t="n">
-        <v>90647</v>
+        <v>90655</v>
       </c>
     </row>
     <row r="651">
@@ -26436,7 +26436,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1622C
+          <t xml:space="preserve">//Text $16234
 #WRITE(ptr,$5E88)
 Let's Return to Darilsheid[END]
 </t>
@@ -26450,12 +26450,12 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>1622C</t>
+          <t>16234</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
         <is>
-          <t>16247</t>
+          <t>1624F</t>
         </is>
       </c>
       <c r="F651" t="inlineStr">
@@ -26467,7 +26467,7 @@
         <v>27</v>
       </c>
       <c r="H651" t="n">
-        <v>90668</v>
+        <v>90676</v>
       </c>
     </row>
     <row r="652">
@@ -26476,7 +26476,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16247
+          <t xml:space="preserve">//Text $1624F
 #WRITE(ptr,$5E8C)
 Darilsheid is East of Harmentz[END]
 </t>
@@ -26490,12 +26490,12 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>16247</t>
+          <t>1624F</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
         <is>
-          <t>16266</t>
+          <t>1626E</t>
         </is>
       </c>
       <c r="F652" t="inlineStr">
@@ -26507,7 +26507,7 @@
         <v>31</v>
       </c>
       <c r="H652" t="n">
-        <v>90695</v>
+        <v>90703</v>
       </c>
     </row>
     <row r="653">
@@ -26516,7 +26516,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16266
+          <t xml:space="preserve">//Text $1626E
 #WRITE(ptr,$5E90)
 To the King at Seinegald Castle[END]
 </t>
@@ -26530,12 +26530,12 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>16266</t>
+          <t>1626E</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
         <is>
-          <t>16286</t>
+          <t>1628E</t>
         </is>
       </c>
       <c r="F653" t="inlineStr">
@@ -26547,7 +26547,7 @@
         <v>32</v>
       </c>
       <c r="H653" t="n">
-        <v>90726</v>
+        <v>90734</v>
       </c>
     </row>
     <row r="654">
@@ -26556,7 +26556,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16286
+          <t xml:space="preserve">//Text $1628E
 #WRITE(ptr,$5E94)
 To the Seinegald Castle Dungeon[END]
 </t>
@@ -26570,12 +26570,12 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>16286</t>
+          <t>1628E</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
         <is>
-          <t>162A6</t>
+          <t>162AE</t>
         </is>
       </c>
       <c r="F654" t="inlineStr">
@@ -26587,7 +26587,7 @@
         <v>32</v>
       </c>
       <c r="H654" t="n">
-        <v>90758</v>
+        <v>90766</v>
       </c>
     </row>
     <row r="655">
@@ -26596,7 +26596,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $162A6
+          <t xml:space="preserve">//Text $162AE
 #WRITE(ptr,$5E98)
 Let's Return to the Manor[END]
 </t>
@@ -26610,12 +26610,12 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>162A6</t>
+          <t>162AE</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
         <is>
-          <t>162C0</t>
+          <t>162C8</t>
         </is>
       </c>
       <c r="F655" t="inlineStr">
@@ -26627,7 +26627,7 @@
         <v>26</v>
       </c>
       <c r="H655" t="n">
-        <v>90790</v>
+        <v>90798</v>
       </c>
     </row>
     <row r="656">
@@ -26636,7 +26636,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $162C0
+          <t xml:space="preserve">//Text $162C8
 #WRITE(ptr,$5E9C)
 Let's Return to the Manor[END]
 </t>
@@ -26650,12 +26650,12 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>162C0</t>
+          <t>162C8</t>
         </is>
       </c>
       <c r="E656" t="inlineStr">
         <is>
-          <t>162DA</t>
+          <t>162E2</t>
         </is>
       </c>
       <c r="F656" t="inlineStr">
@@ -26667,7 +26667,7 @@
         <v>26</v>
       </c>
       <c r="H656" t="n">
-        <v>90816</v>
+        <v>90824</v>
       </c>
     </row>
     <row r="657">
@@ -26676,7 +26676,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $162DA
+          <t xml:space="preserve">//Text $162E2
 #WRITE(ptr,$5EA0)
 Straylize Temple Is North of Darilsheid[END]
 </t>
@@ -26690,12 +26690,12 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>162DA</t>
+          <t>162E2</t>
         </is>
       </c>
       <c r="E657" t="inlineStr">
         <is>
-          <t>16302</t>
+          <t>1630A</t>
         </is>
       </c>
       <c r="F657" t="inlineStr">
@@ -26707,7 +26707,7 @@
         <v>40</v>
       </c>
       <c r="H657" t="n">
-        <v>90842</v>
+        <v>90850</v>
       </c>
     </row>
     <row r="658">
@@ -26716,7 +26716,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16302
+          <t xml:space="preserve">//Text $1630A
 #WRITE(ptr,$5EA4)
 To the Temple Interior[END]
 </t>
@@ -26730,12 +26730,12 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>16302</t>
+          <t>1630A</t>
         </is>
       </c>
       <c r="E658" t="inlineStr">
         <is>
-          <t>16319</t>
+          <t>16321</t>
         </is>
       </c>
       <c r="F658" t="inlineStr">
@@ -26747,7 +26747,7 @@
         <v>23</v>
       </c>
       <c r="H658" t="n">
-        <v>90882</v>
+        <v>90890</v>
       </c>
     </row>
     <row r="659">
@@ -26756,7 +26756,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16319
+          <t xml:space="preserve">//Text $16321
 #WRITE(ptr,$5EA8)
 To the Cathedral[END]
 </t>
@@ -26770,12 +26770,12 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>16319</t>
+          <t>16321</t>
         </is>
       </c>
       <c r="E659" t="inlineStr">
         <is>
-          <t>1632A</t>
+          <t>16332</t>
         </is>
       </c>
       <c r="F659" t="inlineStr">
@@ -26787,7 +26787,7 @@
         <v>17</v>
       </c>
       <c r="H659" t="n">
-        <v>90905</v>
+        <v>90913</v>
       </c>
     </row>
     <row r="660">
@@ -26796,7 +26796,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1632A
+          <t xml:space="preserve">//Text $16332
 #WRITE(ptr,$5EAC)
 Further Within the Hidden Passage[END]
 </t>
@@ -26810,12 +26810,12 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>1632A</t>
+          <t>16332</t>
         </is>
       </c>
       <c r="E660" t="inlineStr">
         <is>
-          <t>1634C</t>
+          <t>16354</t>
         </is>
       </c>
       <c r="F660" t="inlineStr">
@@ -26827,7 +26827,7 @@
         <v>34</v>
       </c>
       <c r="H660" t="n">
-        <v>90922</v>
+        <v>90930</v>
       </c>
     </row>
     <row r="661">
@@ -26836,7 +26836,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1634C
+          <t xml:space="preserve">//Text $16354
 #WRITE(ptr,$5EB0)
 To Darilsheid[END]
 </t>
@@ -26850,12 +26850,12 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>1634C</t>
+          <t>16354</t>
         </is>
       </c>
       <c r="E661" t="inlineStr">
         <is>
-          <t>1635A</t>
+          <t>16362</t>
         </is>
       </c>
       <c r="F661" t="inlineStr">
@@ -26867,7 +26867,7 @@
         <v>14</v>
       </c>
       <c r="H661" t="n">
-        <v>90956</v>
+        <v>90964</v>
       </c>
     </row>
     <row r="662">
@@ -26876,7 +26876,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1635A
+          <t xml:space="preserve">//Text $16362
 #WRITE(ptr,$5EB4)
 To the Harbor[END]
 </t>
@@ -26890,12 +26890,12 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>1635A</t>
+          <t>16362</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>16368</t>
+          <t>16370</t>
         </is>
       </c>
       <c r="F662" t="inlineStr">
@@ -26907,7 +26907,7 @@
         <v>14</v>
       </c>
       <c r="H662" t="n">
-        <v>90970</v>
+        <v>90978</v>
       </c>
     </row>
     <row r="663">
@@ -26916,7 +26916,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16368
+          <t xml:space="preserve">//Text $16370
 #WRITE(ptr,$5EB8)
 Hurry to the Harbor[END]
 </t>
@@ -26930,12 +26930,12 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>16368</t>
+          <t>16370</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
         <is>
-          <t>1637C</t>
+          <t>16384</t>
         </is>
       </c>
       <c r="F663" t="inlineStr">
@@ -26947,7 +26947,7 @@
         <v>20</v>
       </c>
       <c r="H663" t="n">
-        <v>90984</v>
+        <v>90992</v>
       </c>
     </row>
     <row r="664">
@@ -26956,7 +26956,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1637C
+          <t xml:space="preserve">//Text $16384
 #WRITE(ptr,$5EBC)
 Before the King of Seinegald[END]
 </t>
@@ -26970,12 +26970,12 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>1637C</t>
+          <t>16384</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
         <is>
-          <t>16399</t>
+          <t>163A1</t>
         </is>
       </c>
       <c r="F664" t="inlineStr">
@@ -26987,7 +26987,7 @@
         <v>29</v>
       </c>
       <c r="H664" t="n">
-        <v>91004</v>
+        <v>91012</v>
       </c>
     </row>
     <row r="665">
@@ -26996,7 +26996,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16399
+          <t xml:space="preserve">//Text $163A1
 #WRITE(ptr,$5EC0)
 Report to His Majesty[END]
 </t>
@@ -27010,12 +27010,12 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>16399</t>
+          <t>163A1</t>
         </is>
       </c>
       <c r="E665" t="inlineStr">
         <is>
-          <t>163AF</t>
+          <t>163B7</t>
         </is>
       </c>
       <c r="F665" t="inlineStr">
@@ -27027,7 +27027,7 @@
         <v>22</v>
       </c>
       <c r="H665" t="n">
-        <v>91033</v>
+        <v>91041</v>
       </c>
     </row>
     <row r="666">
@@ -27036,7 +27036,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $163AF
+          <t xml:space="preserve">//Text $163B7
 #WRITE(ptr,$5EC4)
 I Should Say Goodbye..[END]
 </t>
@@ -27050,12 +27050,12 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>163AF</t>
+          <t>163B7</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>163C6</t>
+          <t>163CE</t>
         </is>
       </c>
       <c r="F666" t="inlineStr">
@@ -27067,7 +27067,7 @@
         <v>23</v>
       </c>
       <c r="H666" t="n">
-        <v>91055</v>
+        <v>91063</v>
       </c>
     </row>
     <row r="667">
@@ -27076,7 +27076,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $163C6
+          <t xml:space="preserve">//Text $163CE
 #WRITE(ptr,$5EC8)
 To Where [Marian] Is...[END]
 </t>
@@ -27090,12 +27090,12 @@
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>163C6</t>
+          <t>163CE</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>163DB</t>
+          <t>163E3</t>
         </is>
       </c>
       <c r="F667" t="inlineStr">
@@ -27107,7 +27107,7 @@
         <v>21</v>
       </c>
       <c r="H667" t="n">
-        <v>91078</v>
+        <v>91086</v>
       </c>
     </row>
     <row r="668">
@@ -27116,7 +27116,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $163DB
+          <t xml:space="preserve">//Text $163E3
 #WRITE(ptr,$5ECC)
 Let's Go to the Harbor[END]
 </t>
@@ -27130,12 +27130,12 @@
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>163DB</t>
+          <t>163E3</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>163F2</t>
+          <t>163FA</t>
         </is>
       </c>
       <c r="F668" t="inlineStr">
@@ -27147,7 +27147,7 @@
         <v>23</v>
       </c>
       <c r="H668" t="n">
-        <v>91099</v>
+        <v>91107</v>
       </c>
     </row>
     <row r="669">
@@ -27156,7 +27156,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $163F2
+          <t xml:space="preserve">//Text $163FA
 #WRITE(ptr,$5ED0)
 To the Inn for Now[END]
 </t>
@@ -27170,12 +27170,12 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>163F2</t>
+          <t>163FA</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>16405</t>
+          <t>1640D</t>
         </is>
       </c>
       <c r="F669" t="inlineStr">
@@ -27187,7 +27187,7 @@
         <v>19</v>
       </c>
       <c r="H669" t="n">
-        <v>91122</v>
+        <v>91130</v>
       </c>
     </row>
     <row r="670">
@@ -27196,7 +27196,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16405
+          <t xml:space="preserve">//Text $1640D
 #WRITE(ptr,$5ED4)
 Let's Look Around Town[END]
 </t>
@@ -27210,12 +27210,12 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>16405</t>
+          <t>1640D</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>1641C</t>
+          <t>16424</t>
         </is>
       </c>
       <c r="F670" t="inlineStr">
@@ -27227,7 +27227,7 @@
         <v>23</v>
       </c>
       <c r="H670" t="n">
-        <v>91141</v>
+        <v>91149</v>
       </c>
     </row>
     <row r="671">
@@ -27236,7 +27236,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1641C
+          <t xml:space="preserve">//Text $16424
 #WRITE(ptr,$5ED8)
 It's Dangerous Outside![END]
 </t>
@@ -27250,12 +27250,12 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>1641C</t>
+          <t>16424</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>16434</t>
+          <t>1643C</t>
         </is>
       </c>
       <c r="F671" t="inlineStr">
@@ -27267,7 +27267,7 @@
         <v>24</v>
       </c>
       <c r="H671" t="n">
-        <v>91164</v>
+        <v>91172</v>
       </c>
     </row>
     <row r="672">
@@ -27276,7 +27276,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16434
+          <t xml:space="preserve">//Text $1643C
 #WRITE(ptr,$5EDC)
 Let's Head Back to the Inn Soon[END]
 </t>
@@ -27290,12 +27290,12 @@
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>16434</t>
+          <t>1643C</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>16454</t>
+          <t>1645C</t>
         </is>
       </c>
       <c r="F672" t="inlineStr">
@@ -27307,7 +27307,7 @@
         <v>32</v>
       </c>
       <c r="H672" t="n">
-        <v>91188</v>
+        <v>91196</v>
       </c>
     </row>
     <row r="673">
@@ -27316,7 +27316,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16454
+          <t xml:space="preserve">//Text $1645C
 #WRITE(ptr,$5EE0)
 Go to the Temple's Back Door![END]
 </t>
@@ -27330,12 +27330,12 @@
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>16454</t>
+          <t>1645C</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>16472</t>
+          <t>1647A</t>
         </is>
       </c>
       <c r="F673" t="inlineStr">
@@ -27347,7 +27347,7 @@
         <v>30</v>
       </c>
       <c r="H673" t="n">
-        <v>91220</v>
+        <v>91228</v>
       </c>
     </row>
     <row r="674">
@@ -27356,7 +27356,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16472
+          <t xml:space="preserve">//Text $1647A
 #WRITE(ptr,$5EE4)
 Chase After [Greybum][END]
 </t>
@@ -27370,12 +27370,12 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>16472</t>
+          <t>1647A</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>16484</t>
+          <t>1648C</t>
         </is>
       </c>
       <c r="F674" t="inlineStr">
@@ -27387,7 +27387,7 @@
         <v>18</v>
       </c>
       <c r="H674" t="n">
-        <v>91250</v>
+        <v>91258</v>
       </c>
     </row>
     <row r="675">
@@ -27396,7 +27396,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16484
+          <t xml:space="preserve">//Text $1648C
 #WRITE(ptr,$5EE8)
 To the Front Door[END]
 </t>
@@ -27410,12 +27410,12 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>16484</t>
+          <t>1648C</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>16496</t>
+          <t>1649E</t>
         </is>
       </c>
       <c r="F675" t="inlineStr">
@@ -27427,7 +27427,7 @@
         <v>18</v>
       </c>
       <c r="H675" t="n">
-        <v>91268</v>
+        <v>91276</v>
       </c>
     </row>
     <row r="676">
@@ -27436,7 +27436,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16496
+          <t xml:space="preserve">//Text $1649E
 #WRITE(ptr,$5EEC)
 In Search of the Softy Kreem Stand[END]
 </t>
@@ -27450,12 +27450,12 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>16496</t>
+          <t>1649E</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>164B9</t>
+          <t>164C1</t>
         </is>
       </c>
       <c r="F676" t="inlineStr">
@@ -27467,7 +27467,7 @@
         <v>35</v>
       </c>
       <c r="H676" t="n">
-        <v>91286</v>
+        <v>91294</v>
       </c>
     </row>
     <row r="677">
@@ -27476,7 +27476,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $164B9
+          <t xml:space="preserve">//Text $164C1
 #WRITE(ptr,$5EF0)
 We're Not Going Out of Town[END]
 </t>
@@ -27490,12 +27490,12 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>164B9</t>
+          <t>164C1</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>164D5</t>
+          <t>164DD</t>
         </is>
       </c>
       <c r="F677" t="inlineStr">
@@ -27507,7 +27507,7 @@
         <v>28</v>
       </c>
       <c r="H677" t="n">
-        <v>91321</v>
+        <v>91329</v>
       </c>
     </row>
     <row r="678">
@@ -27516,7 +27516,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $164D5
+          <t xml:space="preserve">//Text $164DD
 #WRITE(ptr,$5EF4)
 From the Harbor to the Armada[END]
 </t>
@@ -27530,12 +27530,12 @@
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>164D5</t>
+          <t>164DD</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>164F3</t>
+          <t>164FB</t>
         </is>
       </c>
       <c r="F678" t="inlineStr">
@@ -27547,7 +27547,7 @@
         <v>30</v>
       </c>
       <c r="H678" t="n">
-        <v>91349</v>
+        <v>91357</v>
       </c>
     </row>
     <row r="679">
@@ -27556,7 +27556,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $164F3
+          <t xml:space="preserve">//Text $164FB
 #WRITE(ptr,$5EF8)
 My Target is Greybum[END]
 </t>
@@ -27570,12 +27570,12 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>164F3</t>
+          <t>164FB</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>16508</t>
+          <t>16510</t>
         </is>
       </c>
       <c r="F679" t="inlineStr">
@@ -27587,7 +27587,7 @@
         <v>21</v>
       </c>
       <c r="H679" t="n">
-        <v>91379</v>
+        <v>91387</v>
       </c>
     </row>
     <row r="680">
@@ -27596,7 +27596,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16508
+          <t xml:space="preserve">//Text $16510
 #WRITE(ptr,$5EFC)
 We're Returning to Shiden[END]
 </t>
@@ -27610,12 +27610,12 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>16508</t>
+          <t>16510</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>16522</t>
+          <t>1652A</t>
         </is>
       </c>
       <c r="F680" t="inlineStr">
@@ -27627,7 +27627,7 @@
         <v>26</v>
       </c>
       <c r="H680" t="n">
-        <v>91400</v>
+        <v>91408</v>
       </c>
     </row>
     <row r="681">
@@ -27636,7 +27636,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16522
+          <t xml:space="preserve">//Text $1652A
 #WRITE(ptr,$5F00)
 We're Heading Back to Shiden[END]
 </t>
@@ -27650,12 +27650,12 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>16522</t>
+          <t>1652A</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>1653F</t>
+          <t>16547</t>
         </is>
       </c>
       <c r="F681" t="inlineStr">
@@ -27667,7 +27667,7 @@
         <v>29</v>
       </c>
       <c r="H681" t="n">
-        <v>91426</v>
+        <v>91434</v>
       </c>
     </row>
     <row r="682">
@@ -27676,7 +27676,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1653F
+          <t xml:space="preserve">//Text $16547
 #WRITE(ptr,$5F04)
 Let's Find Some Rope[END]
 </t>
@@ -27690,12 +27690,12 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>1653F</t>
+          <t>16547</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>16554</t>
+          <t>1655C</t>
         </is>
       </c>
       <c r="F682" t="inlineStr">
@@ -27707,7 +27707,7 @@
         <v>21</v>
       </c>
       <c r="H682" t="n">
-        <v>91455</v>
+        <v>91463</v>
       </c>
     </row>
     <row r="683">
@@ -27716,7 +27716,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16554
+          <t xml:space="preserve">//Text $1655C
 #WRITE(ptr,$5F08)
 Let's Explore Moreau[END]
 </t>
@@ -27730,12 +27730,12 @@
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>16554</t>
+          <t>1655C</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>16569</t>
+          <t>16571</t>
         </is>
       </c>
       <c r="F683" t="inlineStr">
@@ -27747,7 +27747,7 @@
         <v>21</v>
       </c>
       <c r="H683" t="n">
-        <v>91476</v>
+        <v>91484</v>
       </c>
     </row>
     <row r="684">
@@ -27756,7 +27756,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16569
+          <t xml:space="preserve">//Text $16571
 #WRITE(ptr,$5F0C)
 To Seinegald Castle[END]
 </t>
@@ -27770,12 +27770,12 @@
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>16569</t>
+          <t>16571</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>1657D</t>
+          <t>16585</t>
         </is>
       </c>
       <c r="F684" t="inlineStr">
@@ -27787,7 +27787,7 @@
         <v>20</v>
       </c>
       <c r="H684" t="n">
-        <v>91497</v>
+        <v>91505</v>
       </c>
     </row>
     <row r="685">
@@ -27796,7 +27796,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1657D
+          <t xml:space="preserve">//Text $16585
 #WRITE(ptr,$5F10)
 Let's Head to Harmentz[END]
 </t>
@@ -27810,12 +27810,12 @@
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>1657D</t>
+          <t>16585</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>16594</t>
+          <t>1659C</t>
         </is>
       </c>
       <c r="F685" t="inlineStr">
@@ -27827,7 +27827,7 @@
         <v>23</v>
       </c>
       <c r="H685" t="n">
-        <v>91517</v>
+        <v>91525</v>
       </c>
     </row>
     <row r="686">
@@ -27836,7 +27836,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16594
+          <t xml:space="preserve">//Text $1659C
 #WRITE(ptr,$5F14)
 Harmentz is West of the Capital[END]
 </t>
@@ -27850,12 +27850,12 @@
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>16594</t>
+          <t>1659C</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>165B4</t>
+          <t>165BC</t>
         </is>
       </c>
       <c r="F686" t="inlineStr">
@@ -27867,7 +27867,7 @@
         <v>32</v>
       </c>
       <c r="H686" t="n">
-        <v>91540</v>
+        <v>91548</v>
       </c>
     </row>
     <row r="687">
@@ -27876,7 +27876,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $165B4
+          <t xml:space="preserve">//Text $165BC
 #WRITE(ptr,$5F18)
 To Straylize Temple[END]
 </t>
@@ -27890,12 +27890,12 @@
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>165B4</t>
+          <t>165BC</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>165C8</t>
+          <t>165D0</t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
@@ -27907,7 +27907,7 @@
         <v>20</v>
       </c>
       <c r="H687" t="n">
-        <v>91572</v>
+        <v>91580</v>
       </c>
     </row>
     <row r="688">
@@ -27916,7 +27916,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $165C8
+          <t xml:space="preserve">//Text $165D0
 #WRITE(ptr,$5F1C)
 Let's Return to the Manor[END]
 </t>
@@ -27930,12 +27930,12 @@
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>165C8</t>
+          <t>165D0</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>165E2</t>
+          <t>165EA</t>
         </is>
       </c>
       <c r="F688" t="inlineStr">
@@ -27947,7 +27947,7 @@
         <v>26</v>
       </c>
       <c r="H688" t="n">
-        <v>91592</v>
+        <v>91600</v>
       </c>
     </row>
     <row r="689">
@@ -27956,7 +27956,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $165E2
+          <t xml:space="preserve">//Text $165EA
 #WRITE(ptr,$5F20)
 Let's Return to the Manor[END]
 </t>
@@ -27970,12 +27970,12 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>165E2</t>
+          <t>165EA</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>165FC</t>
+          <t>16604</t>
         </is>
       </c>
       <c r="F689" t="inlineStr">
@@ -27987,7 +27987,7 @@
         <v>26</v>
       </c>
       <c r="H689" t="n">
-        <v>91618</v>
+        <v>91626</v>
       </c>
     </row>
     <row r="690">
@@ -27996,7 +27996,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $165FC
+          <t xml:space="preserve">//Text $16604
 #WRITE(ptr,$5F24)
 Visit the King at Seinegald Castle[END]
 </t>
@@ -28010,12 +28010,12 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>165FC</t>
+          <t>16604</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>1661F</t>
+          <t>16627</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
@@ -28027,7 +28027,7 @@
         <v>35</v>
       </c>
       <c r="H690" t="n">
-        <v>91644</v>
+        <v>91652</v>
       </c>
     </row>
     <row r="691">
@@ -28036,7 +28036,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1661F
+          <t xml:space="preserve">//Text $16627
 #WRITE(ptr,$5F28)
 Go to Cresta, East of Darilsheid[END]
 </t>
@@ -28050,12 +28050,12 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>1661F</t>
+          <t>16627</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>16640</t>
+          <t>16648</t>
         </is>
       </c>
       <c r="F691" t="inlineStr">
@@ -28067,7 +28067,7 @@
         <v>33</v>
       </c>
       <c r="H691" t="n">
-        <v>91679</v>
+        <v>91687</v>
       </c>
     </row>
     <row r="692">
@@ -28076,7 +28076,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16640
+          <t xml:space="preserve">//Text $16648
 #WRITE(ptr,$5F2C)
 Cresta is East of Darilsheid[END]
 </t>
@@ -28090,12 +28090,12 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>16640</t>
+          <t>16648</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>1665D</t>
+          <t>16665</t>
         </is>
       </c>
       <c r="F692" t="inlineStr">
@@ -28107,7 +28107,7 @@
         <v>29</v>
       </c>
       <c r="H692" t="n">
-        <v>91712</v>
+        <v>91720</v>
       </c>
     </row>
     <row r="693">
@@ -28116,7 +28116,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1665D
+          <t xml:space="preserve">//Text $16665
 #WRITE(ptr,$5F30)
 Let's Find the Seinegald Soldiers in Cresta[END]
 </t>
@@ -28130,12 +28130,12 @@
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>1665D</t>
+          <t>16665</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>16689</t>
+          <t>16691</t>
         </is>
       </c>
       <c r="F693" t="inlineStr">
@@ -28147,7 +28147,7 @@
         <v>44</v>
       </c>
       <c r="H693" t="n">
-        <v>91741</v>
+        <v>91749</v>
       </c>
     </row>
     <row r="694">
@@ -28156,7 +28156,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16689
+          <t xml:space="preserve">//Text $16691
 #WRITE(ptr,$5F34)
 Let's Find the Orphanage[END]
 </t>
@@ -28170,12 +28170,12 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>16689</t>
+          <t>16691</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>166A2</t>
+          <t>166AA</t>
         </is>
       </c>
       <c r="F694" t="inlineStr">
@@ -28187,7 +28187,7 @@
         <v>25</v>
       </c>
       <c r="H694" t="n">
-        <v>91785</v>
+        <v>91793</v>
       </c>
     </row>
     <row r="695">
@@ -28196,7 +28196,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $166A2
+          <t xml:space="preserve">//Text $166AA
 #WRITE(ptr,$5F38)
 Find the Beach North of Cresta[END]
 </t>
@@ -28210,12 +28210,12 @@
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>166A2</t>
+          <t>166AA</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>166C1</t>
+          <t>166C9</t>
         </is>
       </c>
       <c r="F695" t="inlineStr">
@@ -28227,7 +28227,7 @@
         <v>31</v>
       </c>
       <c r="H695" t="n">
-        <v>91810</v>
+        <v>91818</v>
       </c>
     </row>
     <row r="696">
@@ -28236,7 +28236,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $166C1
+          <t xml:space="preserve">//Text $166C9
 #WRITE(ptr,$5F3C)
 Let's Debrief the Mission[END]
 </t>
@@ -28250,12 +28250,12 @@
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>166C1</t>
+          <t>166C9</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>166DB</t>
+          <t>166E3</t>
         </is>
       </c>
       <c r="F696" t="inlineStr">
@@ -28267,7 +28267,7 @@
         <v>26</v>
       </c>
       <c r="H696" t="n">
-        <v>91841</v>
+        <v>91849</v>
       </c>
     </row>
     <row r="697">
@@ -28276,7 +28276,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $166DB
+          <t xml:space="preserve">//Text $166E3
 #WRITE(ptr,$5F40)
 No Business Outside[END]
 </t>
@@ -28290,12 +28290,12 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>166DB</t>
+          <t>166E3</t>
         </is>
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>166EF</t>
+          <t>166F7</t>
         </is>
       </c>
       <c r="F697" t="inlineStr">
@@ -28307,7 +28307,7 @@
         <v>20</v>
       </c>
       <c r="H697" t="n">
-        <v>91867</v>
+        <v>91875</v>
       </c>
     </row>
     <row r="698">
@@ -28316,7 +28316,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $166EF
+          <t xml:space="preserve">//Text $166F7
 #WRITE(ptr,$5F44)
 Let's Hurry Back to the Manor[END]
 </t>
@@ -28330,12 +28330,12 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>166EF</t>
+          <t>166F7</t>
         </is>
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>1670D</t>
+          <t>16715</t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
@@ -28347,7 +28347,7 @@
         <v>30</v>
       </c>
       <c r="H698" t="n">
-        <v>91887</v>
+        <v>91895</v>
       </c>
     </row>
     <row r="699">
@@ -28356,7 +28356,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1670D
+          <t xml:space="preserve">//Text $16715
 #WRITE(ptr,$5F48)
 We Need to Find [Marian][END]
 </t>
@@ -28370,12 +28370,12 @@
       </c>
       <c r="D699" t="inlineStr">
         <is>
-          <t>1670D</t>
+          <t>16715</t>
         </is>
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>16723</t>
+          <t>1672B</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
@@ -28387,7 +28387,7 @@
         <v>22</v>
       </c>
       <c r="H699" t="n">
-        <v>91917</v>
+        <v>91925</v>
       </c>
     </row>
     <row r="700">
@@ -28396,7 +28396,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16723
+          <t xml:space="preserve">//Text $1672B
 #WRITE(ptr,$5F4C)
 The Draconis is in the Castle[END]
 </t>
@@ -28410,12 +28410,12 @@
       </c>
       <c r="D700" t="inlineStr">
         <is>
-          <t>16723</t>
+          <t>1672B</t>
         </is>
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>16741</t>
+          <t>16749</t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
@@ -28427,7 +28427,7 @@
         <v>30</v>
       </c>
       <c r="H700" t="n">
-        <v>91939</v>
+        <v>91947</v>
       </c>
     </row>
     <row r="701">
@@ -28436,7 +28436,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16741
+          <t xml:space="preserve">//Text $16749
 #WRITE(ptr,$5F50)
 Let's hear Hugo's Orders[END]
 </t>
@@ -28450,12 +28450,12 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>16741</t>
+          <t>16749</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>1675A</t>
+          <t>16762</t>
         </is>
       </c>
       <c r="F701" t="inlineStr">
@@ -28467,7 +28467,7 @@
         <v>25</v>
       </c>
       <c r="H701" t="n">
-        <v>91969</v>
+        <v>91977</v>
       </c>
     </row>
     <row r="702">
@@ -28476,7 +28476,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1675A
+          <t xml:space="preserve">//Text $16762
 #WRITE(ptr,$5F54)
 We'll Enter the Sealing Facility from Behind[END]
 </t>
@@ -28490,12 +28490,12 @@
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>1675A</t>
+          <t>16762</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>16787</t>
+          <t>1678F</t>
         </is>
       </c>
       <c r="F702" t="inlineStr">
@@ -28507,7 +28507,7 @@
         <v>45</v>
       </c>
       <c r="H702" t="n">
-        <v>91994</v>
+        <v>92002</v>
       </c>
     </row>
     <row r="703">
@@ -28516,7 +28516,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16787
+          <t xml:space="preserve">//Text $1678F
 #WRITE(ptr,$5F58)
 To the Sealing Facility[END]
 </t>
@@ -28530,12 +28530,12 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>16787</t>
+          <t>1678F</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>1679F</t>
+          <t>167A7</t>
         </is>
       </c>
       <c r="F703" t="inlineStr">
@@ -28547,7 +28547,7 @@
         <v>24</v>
       </c>
       <c r="H703" t="n">
-        <v>92039</v>
+        <v>92047</v>
       </c>
     </row>
     <row r="704">
@@ -28556,7 +28556,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $1679F
+          <t xml:space="preserve">//Text $167A7
 #WRITE(ptr,$5F5C)
 To the Depths[END]
 </t>
@@ -28570,12 +28570,12 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>1679F</t>
+          <t>167A7</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>167AD</t>
+          <t>167B5</t>
         </is>
       </c>
       <c r="F704" t="inlineStr">
@@ -28587,7 +28587,7 @@
         <v>14</v>
       </c>
       <c r="H704" t="n">
-        <v>92063</v>
+        <v>92071</v>
       </c>
     </row>
     <row r="705">
@@ -28596,7 +28596,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $167AD
+          <t xml:space="preserve">//Text $167B5
 #WRITE(ptr,$5F60)
 Where's Hugo and the Others?[END]
 </t>
@@ -28610,12 +28610,12 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>167AD</t>
+          <t>167B5</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>167CA</t>
+          <t>167D2</t>
         </is>
       </c>
       <c r="F705" t="inlineStr">
@@ -28627,7 +28627,7 @@
         <v>29</v>
       </c>
       <c r="H705" t="n">
-        <v>92077</v>
+        <v>92085</v>
       </c>
     </row>
     <row r="706">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $167CA
+          <t xml:space="preserve">//Text $167D2
 #WRITE(ptr,$5F64)
 Sorcerer's Ring goes Boom[END]
 </t>
@@ -28650,12 +28650,12 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>167CA</t>
+          <t>167D2</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>167E4</t>
+          <t>167EC</t>
         </is>
       </c>
       <c r="F706" t="inlineStr">
@@ -28667,7 +28667,7 @@
         <v>26</v>
       </c>
       <c r="H706" t="n">
-        <v>92106</v>
+        <v>92114</v>
       </c>
     </row>
     <row r="707">
@@ -28676,7 +28676,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $167E4
+          <t xml:space="preserve">//Text $167EC
 #WRITE(ptr,$5F68)
 There's Still Places We Can Destroy[END]
 </t>
@@ -28690,12 +28690,12 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>167E4</t>
+          <t>167EC</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>16808</t>
+          <t>16810</t>
         </is>
       </c>
       <c r="F707" t="inlineStr">
@@ -28707,7 +28707,7 @@
         <v>36</v>
       </c>
       <c r="H707" t="n">
-        <v>92132</v>
+        <v>92140</v>
       </c>
     </row>
     <row r="708">
@@ -28716,7 +28716,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16808
+          <t xml:space="preserve">//Text $16810
 #WRITE(ptr,$5F6C)
 Not This Way[END]
 </t>
@@ -28730,12 +28730,12 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>16808</t>
+          <t>16810</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>16815</t>
+          <t>1681D</t>
         </is>
       </c>
       <c r="F708" t="inlineStr">
@@ -28747,7 +28747,7 @@
         <v>13</v>
       </c>
       <c r="H708" t="n">
-        <v>92168</v>
+        <v>92176</v>
       </c>
     </row>
     <row r="709">
@@ -28756,7 +28756,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16815
+          <t xml:space="preserve">//Text $1681D
 #WRITE(ptr,$5F70)
 We Can't Afford to Dawdle![END]
 </t>
@@ -28770,12 +28770,12 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>16815</t>
+          <t>1681D</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>16830</t>
+          <t>16838</t>
         </is>
       </c>
       <c r="F709" t="inlineStr">
@@ -28787,7 +28787,7 @@
         <v>27</v>
       </c>
       <c r="H709" t="n">
-        <v>92181</v>
+        <v>92189</v>
       </c>
     </row>
     <row r="710">
@@ -28796,7 +28796,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16830
+          <t xml:space="preserve">//Text $16838
 #WRITE(ptr,$5F74)
 Let's Not Do That Now..[END]
 </t>
@@ -28810,12 +28810,12 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>16830</t>
+          <t>16838</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>16848</t>
+          <t>16850</t>
         </is>
       </c>
       <c r="F710" t="inlineStr">
@@ -28827,7 +28827,7 @@
         <v>24</v>
       </c>
       <c r="H710" t="n">
-        <v>92208</v>
+        <v>92216</v>
       </c>
     </row>
     <row r="711">
@@ -28836,7 +28836,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16848
+          <t xml:space="preserve">//Text $16850
 #WRITE(ptr,$5F78)
 Let's Go[END]
 </t>
@@ -28850,12 +28850,12 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>16848</t>
+          <t>16850</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>16851</t>
+          <t>16859</t>
         </is>
       </c>
       <c r="F711" t="inlineStr">
@@ -28867,7 +28867,7 @@
         <v>9</v>
       </c>
       <c r="H711" t="n">
-        <v>92232</v>
+        <v>92240</v>
       </c>
     </row>
     <row r="712">
@@ -28876,7 +28876,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t xml:space="preserve">//Text $16851
+          <t xml:space="preserve">//Text $16859
 #WRITE(ptr,$5F7C)
 I Have Somewhere Else to Be[END]
 </t>
@@ -28890,12 +28890,12 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>16851</t>
+          <t>16859</t>
         </is>
       </c>
       <c r="E712" t="inlineStr">
         <is>
-          <t>1686D</t>
+          <t>16875</t>
         </is>
       </c>
       <c r="F712" t="inlineStr">
@@ -28907,7 +28907,7 @@
         <v>28</v>
       </c>
       <c r="H712" t="n">
-        <v>92241</v>
+        <v>92249</v>
       </c>
     </row>
   </sheetData>
